--- a/data/Network Graph Data.xlsx
+++ b/data/Network Graph Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="1065">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">The Kwami of Destruction.</t>
   </si>
   <si>
-    <t xml:space="preserve">#413941</t>
+    <t xml:space="preserve">#281934</t>
   </si>
   <si>
     <t xml:space="preserve">NOOROO</t>
@@ -491,7 +491,7 @@
     <t xml:space="preserve">Jeanne d'Arc</t>
   </si>
   <si>
-    <t xml:space="preserve">#42181F</t>
+    <t xml:space="preserve">#D8806C</t>
   </si>
   <si>
     <t xml:space="preserve">MARINETTE_DUPAIN_CHENG</t>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">Lady Noire</t>
   </si>
   <si>
-    <t xml:space="preserve">#252529</t>
+    <t xml:space="preserve">#344527</t>
   </si>
   <si>
     <t xml:space="preserve">MULTIMOUSE</t>
@@ -527,7 +527,7 @@
     <t xml:space="preserve">Multimouse</t>
   </si>
   <si>
-    <t xml:space="preserve">#938089</t>
+    <t xml:space="preserve">#E9BBBD</t>
   </si>
   <si>
     <t xml:space="preserve">MULTIFOX</t>
@@ -563,7 +563,7 @@
     <t xml:space="preserve">Dragon Bug</t>
   </si>
   <si>
-    <t xml:space="preserve">#A25814</t>
+    <t xml:space="preserve">#C42726</t>
   </si>
   <si>
     <t xml:space="preserve">LADY_BEE</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">Gabriel Agreste</t>
   </si>
   <si>
-    <t xml:space="preserve">#E8D2A3</t>
+    <t xml:space="preserve">#B0A4A5</t>
   </si>
   <si>
     <t xml:space="preserve">HAWK_MOTH</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">Queen Bee</t>
   </si>
   <si>
-    <t xml:space="preserve">#F2E96B</t>
+    <t xml:space="preserve">#F3F034</t>
   </si>
   <si>
     <t xml:space="preserve">ANTIBUG</t>
@@ -977,7 +977,7 @@
     <t xml:space="preserve">Nino Lahiffe</t>
   </si>
   <si>
-    <t xml:space="preserve">#174BE2</t>
+    <t xml:space="preserve">#255DF2</t>
   </si>
   <si>
     <t xml:space="preserve">CARAPACE</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">Alix Kubdel</t>
   </si>
   <si>
-    <t xml:space="preserve">#992122</t>
+    <t xml:space="preserve">#AF283F</t>
   </si>
   <si>
     <t xml:space="preserve">ALIX_KUBDEL_ADULT</t>
@@ -1178,1735 +1178,2055 @@
     <t xml:space="preserve">#D22E2E</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">BUNNYX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_ADULT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bunnyx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Adult)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">#4289C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMEBREAKER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timebreaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#379E17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAGAMI_TSURUGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kagami Tsurugi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#051B45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RYUKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryuko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#AD181A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIPOSTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riposte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#B5D6D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONI_CHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oni-Chan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#963D3F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#63C3F9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUKA_COUFFAINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luka Couffaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1D627B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIPERION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viperion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#345250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILENCER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silencer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#741082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#435661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX_KANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Kanté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#277037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEGASUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegasus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#37130D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gamer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#65C692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATHANIEL_KURTZBERG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathaniel Kurtzberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#E52D15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPRIKID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caprikid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#8A4232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE_EVILLUSTRATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Evillustrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#B4859D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LE_CHIEN_KIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Chiến Kim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#AC783B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KING_MONKEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Monkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#D28826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DARK_CUPID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Cupid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#AF4042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARC_ANCIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marc Anciel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#C52927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROOSTER_BOLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooster Bold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#C24318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVERSER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#AFAFAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SABRINA_RAINCOMPRIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabrina Raincomprix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#CA6F16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISS_HOUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miss Hound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#BC4A25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANISHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#E57DC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRACULER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miraculer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#BE1374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSE_LAVILLANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rose Lavillant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#CE7EA6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIGELLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pigella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#C264C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRINCESS_FRAGRANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princess Fragrance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#EA72AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIKE_ROCHIP_TECHNO_PIRATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Rochip (Techno-Pirate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#741905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TECHLONIZER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Techlonizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#103759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRACLONIZER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miraclonizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#402F1F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JESSICA_KEYNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jessica Keynes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#833546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPARROW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#7A2408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAGLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eagle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1F1B18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLYMPIA_HILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympia Hill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#A37F1E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAJESTIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Majestia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#C33F3F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#523432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNCANNY_VALLEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uncanny Valley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#5E4468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARBARA_KEYNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbara Keynes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#0D0C08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNIGHTOWL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knightowl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#53171E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMILLA_HOMBEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camilla Hombee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#6562AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VICTORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#942A3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEAN_GATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dean Gate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#4B4E0C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOORMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doorman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#262546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNOWFLAKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowflake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#B8AFA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HURRICANE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurricane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#4D5B6D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERCURY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#265AB7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#5A829F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THORN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#4E662A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENT_RED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#81425E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENT_BLUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#3859D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENT_YELLOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#C7D69B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEI_WU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fei Wu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#0B1A3C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADYDRAGON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladydragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#870B1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRAGON_FORM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FCD88E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADY_BEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Bear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FFCFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADY_MANTIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Mantis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#EBFFB9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADY_SNAKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Snake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#E0FDFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADY_MONKEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Monkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FFCCFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADY_EAGLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Eagle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FDFBDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADY_HORSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Horse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#D0EDFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADY_TIGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Tiger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FEFDA6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AURORE_BEAUREAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aurore Beauréal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#69C5D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STORMY_WEATHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stormy Weather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#A9A0E8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JEAN_DUPARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean Duparc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#3D263D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGICIAN_OF_MISFORTUNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magician of Misfortune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XAVIER_RAMIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xavier Ramier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#716275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR__PIGEON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Pigeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#F9A0B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VINCENT_AZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincent Aza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#D29A94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIXELATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pixelator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#21E9F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THEO_BARBOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Théo Barbot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2D1E25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPYCAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copycat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#291F17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMON_GRIMAULT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon Grimault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#F71DD8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMON_SAYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon Says</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#9660C0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROGER_RAINCOMPRIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roger Raincomprix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#3967DA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROGERCOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rogercop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#252B59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTIS_CESAIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otis Césaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#EDCC8F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#170B30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIMAN_BALD_EAGLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animan (Bald Eagle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#431D03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIMAN_LADYBUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animan (Ladybug)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#782328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIMAN_BEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animan (Bear)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#782401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIMAN_GORILLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animan (Gorilla)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#6E6878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIMAN_TYRANNOSAURUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animan (Tyrannosaurus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#98974D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIMAN_CATFISH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animan (Catfish)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#3E3138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARMAND_D_ARGENCOURT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armand D'Argencourt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#CDC3C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DARKBLADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darkblade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#A1B2B0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JALIL_KUBDEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalil Kubdel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#6A3F33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE_PHARAOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pharaoh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#BC8831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANON_CHAMACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manon Chamack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#814974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE_PUPPETEER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Puppeteer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#6F867D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRED_HAPRELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fred Haprèle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1C191C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE_MIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ADA0CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAGGED_STONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jagged Stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#563185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUITAR_VILLAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guitar Villain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#89376C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WANG_CHENG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wang Cheng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#A8A7AE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUNG_FOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kung Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FA8B2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LILA_ROSSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lila Rossi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#BF301F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOLPINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volpina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FA7C01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAMELEON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chameleon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#B82E1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADJA_CHAMACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadja Chamack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#8B0147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIME_QUEEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prime Queen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#50F7F7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">André</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#706FCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLACIATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glaciator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#A29097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUTLER_JEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butler Jean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#332548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESPAIR_BEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despair Bear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#BADCA9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENNY_ROLLING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penny Rolling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#6A1338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TROUBLEMAKER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troublemaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#5F0D30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGUST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#53663E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIGANTITAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gigantitan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DAB5FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GINA_DUPAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gina Dupain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#B7A4A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEFANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Befana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#5D7D1E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SABINE_CHENG_ANGELIC_MINION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabine Cheng (Angelic Minion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#E2C0A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSE_LAVILLANT_ANGELIC_MINION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rose Lavillant (Angelic Minion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#D7B694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLARA_NIGHTINGALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clara Nightingale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#5F372C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRIGHTNINGALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frightningale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#3F9999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLACIDE_IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placide I.T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#16133A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GORIZILLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorizilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#6083F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARKOV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#4AC2CB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROBOSTUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robostus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#EC0112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELLA_AND_ETTA_CESAIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ella and Etta Césaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#AA5827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAPOTIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapotis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#89172F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENIS_DAMOCLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denis Damoclés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#9A7550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DARK_OWL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Owl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#7B5641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE_OWL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Owl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#8D3B00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONDINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ondine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#910810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYREN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#874581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALINE_BUSTIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caline Bustier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#517C80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZOMBIZOU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zombizou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#C595C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANARKA_COUFFAINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anarka Couffaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#A2514E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPTAIN_HARDROCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captain Hardrock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DD0E16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHILIPPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#C0D4F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FROZER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frozer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#309DC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDREY_BOURGEOIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audrey Bourgeois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#B77A22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STYLE_QUEEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Style Queen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#CDA12C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORA_CESAIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nora Césaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DB9F03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANANSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anansi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#D6BA07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDRE_BOURGEOIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">André Bourgeois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#33282E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALEDIKTATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malediktator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#5D8EED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEART_HUNTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heart Hunter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FF9DA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNNAMED_BOY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed Boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#0D8A8D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANDBOY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandboy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#393763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTA_CLAUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Claus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DC0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTA_CLAWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Claws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#812426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THOMAS_ASTRUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Astruc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1A171A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIMAESTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animaestro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1C2B18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLLAND_DUPAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rolland Dupain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#A8A5AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAKERIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakerix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#B86E2E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMPLEMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simpleman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#5B5189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIANNE_LENOIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marianne Lenoir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#BF9A60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACKWARDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backwarder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#9C6C1F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOM_DUPAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom Dupain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#7FACFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEREDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weredad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#564538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIVICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vivica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#372C30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESPERADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desperada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#815E2F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRIS_LAHIFFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Lahiffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#852D1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRIS_LAHIFFE_ADULT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Lahiffe (Adult)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#A1C22A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRISTMASTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christmaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DD100B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMETAGGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timetagger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#6B70C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAUDIE_KANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudie Kanté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#942158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARTRAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Startrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#70D8FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLGA_MENDELEIEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olga Mendeleiev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#47153D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KWAMIBUSTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwamibuster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#E343B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DORMANT_SENTIMONSTER_STATUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dormant Sentimonster (Statue)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#7F6B6C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DORMANT_SENTIMONSTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dormant Sentimonster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#0935D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#5E56B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOMOE_TSURUGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomoe Tsurugi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#A9A9AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IKARI_GOZEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ikari Gozen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#AD2D3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAYHEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wayhem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#BB8247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARTY_CRASHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Party Crasher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#F669EB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARRY_CLOWN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry Clown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#792B24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSYCOMEDIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psycomedian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#AD070E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIEL_AGRESTE_SENTIMONSTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Agreste (Sentimonster)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#151A1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE_COLLECTOR_SENTIMONSTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Collector (Sentimonster)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#AA819E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEC_CATALDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alec Cataldi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#CC875B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WISHMAKER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wishmaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2E251C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SABINE_CHENG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabine Cheng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1A1831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QILIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qilin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#588575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOB_ROTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob Roth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DA3F81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOOLAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moolak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#AF690A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FROGGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Froggy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#A09026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RISK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#D1FF35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#4B5C58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KING_CASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#E9AD2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEI_SHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mei Shi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lion protector of the Prodigious.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#00C5EF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEI_SHI_STATUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mei Shi (Statue)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#0E2D5F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YANLUOSHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YanLuoShi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#AD3C92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#63525C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FANG_AKUMATIZED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fang (Akumatized)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#6A3761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALBERT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#19B1D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALBERT_AKUMATIZED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albert (Akumatized)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#D89A13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.D.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#83D3DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUGFIGHTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugfighter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FBA6CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RABBIT_NOIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabbit Noir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#4ACED0</t>
+  </si>
+  <si>
     <t xml:space="preserve">BUNNYX</t>
   </si>
   <si>
     <t xml:space="preserve">Bunnyx</t>
   </si>
   <si>
-    <t xml:space="preserve">#4289C5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIMEBREAKER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timebreaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#379E17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAGAMI_TSURUGI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kagami Tsurugi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#051B45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RYUKO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryuko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#AD181A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIPOSTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riposte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#B5D6D8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ONI_CHAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oni-Chan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#963D3F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#63C3F9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUKA_COUFFAINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luka Couffaine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1D627B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIPERION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viperion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#345250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SILENCER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silencer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#741082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Truth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#435661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAX_KANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max Kanté</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#277037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEGASUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pegasus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#37130D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAMER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gamer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#65C692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NATHANIEL_KURTZBERG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nathaniel Kurtzberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#E52D15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPRIKID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caprikid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#8A4232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THE_EVILLUSTRATOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Evillustrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#B4859D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LE_CHIEN_KIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Chiến Kim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#AC783B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KING_MONKEY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Monkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#D28826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DARK_CUPID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dark Cupid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#AF4042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARC_ANCIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marc Anciel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#A20100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROOSTER_BOLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rooster Bold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#C24318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REVERSER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#AFAFAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SABRINA_RAINCOMPRIX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabrina Raincomprix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#CA6F16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MISS_HOUND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miss Hound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#BC4A25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VANISHER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#C33A36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRACULER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miraculer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#930F56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROSE_LAVILLANT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rose Lavillant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#CE7EA6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIGELLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pigella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#C264C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRINCESS_FRAGRANCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Princess Fragrance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#EA72AD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIKE_ROCHIP_TECHNO_PIRATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mike Rochip (Techno-Pirate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#741905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TECHLONIZER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Techlonizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#103759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRACLONIZER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miraclonizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#402F1F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JESSICA_KEYNES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jessica Keynes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#833546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPARROW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sparrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#7A2408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAGLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eagle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1F1B18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLYMPIA_HILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olympia Hill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#B28A22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAJESTIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Majestia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#C33F3F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AEON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#523432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNCANNY_VALLEY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uncanny Valley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#5E4468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARBARA_KEYNES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbara Keynes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#0D0C08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KNIGHTOWL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knightowl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#735968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMILLA_HOMBEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camilla Hombee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#6562AB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VICTORY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#942A3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEAN_GATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dean Gate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#4B4E0C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOORMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doorman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#262546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNOWFLAKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snowflake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#B8AFA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HURRICANE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurricane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#4D5B6D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MERCURY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#265AB7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#5A829F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THORN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#4E662A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGENT_RED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agent Red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#81425E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGENT_BLUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agent Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#3859D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGENT_YELLOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agent Yellow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#C7D69B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEI_WU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fei Wu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#B35F38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LADYDRAGON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ladydragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#870B1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRAGON_FORM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragon Form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#FCD88E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LADY_BEAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lady Bear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#FFCFFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LADY_MANTIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lady Mantis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#EBFFB9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LADY_SNAKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lady Snake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#E0FDFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LADY_MONKEY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lady Monkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#FFCCFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LADY_EAGLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lady Eagle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#FDFBDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LADY_HORSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lady Horse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#D0EDFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LADY_TIGER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lady Tiger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#FEFDA6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AURORE_BEAUREAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aurore Beauréal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#69C5D5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STORMY_WEATHER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stormy Weather</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#A9A0E8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JEAN_DUPARC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jean Duparc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#3D263D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAGICIAN_OF_MISFORTUNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magician of Misfortune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XAVIER_RAMIER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xavier Ramier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#716275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR__PIGEON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Pigeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#F9A0B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VINCENT_AZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vincent Aza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#D29A94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIXELATOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pixelator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#21E9F1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THEO_BARBOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Théo Barbot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#2D1E25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COPYCAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copycat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#291F17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIMON_GRIMAULT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simon Grimault</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#F71DD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIMON_SAYS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simon Says</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#9660C0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROGER_RAINCOMPRIX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roger Raincomprix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#3967DA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROGERCOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rogercop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#252B59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTIS_CESAIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otis Césaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#EDCC8F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANIMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#170B30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANIMAN_BALD_EAGLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animan (Bald Eagle)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#431D03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANIMAN_LADYBUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animan (Ladybug)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#782328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANIMAN_BEAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animan (Bear)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#782401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANIMAN_GORILLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animan (Gorilla)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#6E6878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANIMAN_TYRANNOSAURUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animan (Tyrannosaurus)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#98974D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANIMAN_CATFISH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animan (Catfish)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#3E3138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARMAND_D_ARGENCOURT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armand D'Argencourt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#CDC3C8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DARKBLADE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darkblade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#A1B2B0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JALIL_KUBDEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalil Kubdel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#6A3F33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THE_PHARAOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Pharaoh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#BC8831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANON_CHAMACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manon Chamack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#814974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THE_PUPPETEER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Puppeteer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#6F867D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRED_HAPRELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fred Haprèle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1C191C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THE_MIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Mime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#ADA0CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAGGED_STONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jagged Stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#563185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUITAR_VILLAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guitar Villain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#89376C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WANG_CHENG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wang Cheng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#A8A7AE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUNG_FOOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kung Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#FA8B2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LILA_ROSSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lila Rossi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#BF301F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VOLPINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volpina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#FA7C01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAMELEON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chameleon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#B82E1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NADJA_CHAMACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nadja Chamack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#8B0147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIME_QUEEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prime Queen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#50F7F7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">André</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#706FCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLACIATOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glaciator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#A29097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUTLER_JEAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butler Jean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#332548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESPAIR_BEAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Despair Bear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#BADCA9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENNY_ROLLING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penny Rolling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#6A1338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TROUBLEMAKER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troublemaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#5F0D30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUGUST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#53663E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIGANTITAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gigantitan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#DAB5FE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GINA_DUPAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gina Dupain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#B7A4A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEFANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Befana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#5D7D1E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SABINE_CHENG_ANGELIC_MINION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabine Cheng (Angelic Minion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#E2C0A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROSE_LAVILLANT_ANGELIC_MINION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rose Lavillant (Angelic Minion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#D7B694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLARA_NIGHTINGALE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clara Nightingale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#5F372C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRIGHTNINGALE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frightningale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#3F9999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADRIEN_S_BODYGUARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adrien's Bodyguard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#16133A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GORIZILLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gorizilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#6083F2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARKOV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Markov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#4AC2CB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROBOSTUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robostus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#EC0112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELLA_AND_ETTA_CESAIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ella and Etta Césaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#AA5827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAPOTIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapotis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#89172F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR__DAMOCLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Damocles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#9A7550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DARK_OWL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dark Owl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#7B5641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THE_OWL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Owl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#8D3B00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ONDINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ondine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#910810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYREN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#874581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALINE_BUSTIER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caline Bustier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#517C80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZOMBIZOU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zombizou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#C595C6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANARKA_COUFFAINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anarka Couffaine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#A2514E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPTAIN_HARDROCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Captain Hardrock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#DD0E16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHILIPPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#C0D4F1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FROZER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frozer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#309DC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUDREY_BOURGEOIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audrey Bourgeois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#B77A22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STYLE_QUEEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Style Queen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#CDA12C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NORA_CESAIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nora Césaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#DB9F03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANANSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anansi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#D6BA07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDRE_BOURGEOIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">André Bourgeois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#33282E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MALEDIKTATOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malediktator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#5D8EED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEART_HUNTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heart Hunter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#FCB9C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNNAMED_BOY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed Boy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#0D8A8D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANDBOY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandboy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#393763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANTA_CLAUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Claus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#C32851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANTA_CLAWS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Claws</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#812426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THOMAS_ASTRUC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas Astruc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1A171A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANIMAESTRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animaestro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1C2B18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROLLAND_DUPAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rolland Dupain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#A8A5AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAKERIX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bakerix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#B86E2E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIMPLEMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simpleman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#5B5189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIANNE_LENOIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marianne Lenoir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#BF9A60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACKWARDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backwarder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#9C6C1F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOM_DUPAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom Dupain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#7FACFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEREDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weredad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#564538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIVICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vivica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#372C30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESPERADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desperada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#815E2F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHRIS_LAHIFFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chris Lahiffe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#852D1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHRIS_LAHIFFE_ADULT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chris Lahiffe (Adult)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#A1C22A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHRISTMASTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christmaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#DD100B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIMETAGGER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timetagger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#6B70C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAUDIE_KANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claudie Kanté</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#942158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARTRAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Startrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#70D8FE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS__MENDELEIEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. Mendeleiev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#47153D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KWAMIBUSTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kwamibuster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#E343B8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DORMANT_SENTIMONSTER_STATUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dormant Sentimonster (Statue)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#7F6B6C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DORMANT_SENTIMONSTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dormant Sentimonster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#0D3EC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEAST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#5E56B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOMOE_TSURUGI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomoe Tsurugi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#ECE7DF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IKARI_GOZEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ikari Gozen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#AD2D3A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAYHEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wayhem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#BB8247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARTY_CRASHER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Party Crasher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#F669EB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HARRY_CLOWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harry Clown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#792B24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSYCOMEDIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psycomedian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#AD070E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIEL_AGRESTE_SENTIMONSTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Agreste (Sentimonster)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#151A1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THE_COLLECTOR_SENTIMONSTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Collector (Sentimonster)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#AA819E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEC_CATALDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alec Cataldi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#E4A778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WISHMAKER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wishmaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#14130D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SABINE_CHENG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabine Cheng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1A1831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QILIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qilin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#5DB684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOB_ROTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bob Roth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#DA3F81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOOLAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moolak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#AF690A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FROGGY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Froggy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#A09026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RISK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#D1FF35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#4B5C58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KING_CASH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#847560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEI_SHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mei Shi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The lion protector of the Prodigious.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#00C5EF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEI_SHI_STATUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mei Shi (Statue)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#0E2D5F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YANLUOSHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YanLuoShi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#AD3C92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#63525C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FANG_AKUMATIZED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fang (Akumatized)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#973E63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALBERT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#19B1D0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALBERT_AKUMATIZED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albert (Akumatized)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#D89A13</t>
+    <t xml:space="preserve">#47BDFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANIGIRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canigirl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#844733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUNNY_DOG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bunny Dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#8CC4C0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLD_RECORD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#AF9B2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISS_SANS_CULOTTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miss Sans-Culotte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#E7CE97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLE_DESTROYER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sole Destroyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#F1C243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUEEN_MAYOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen Mayor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#937F3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DARKER_OWL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darker Owl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#B6573C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARGOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#261274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIMMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gimmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FF91FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONARCH_PRE_RINGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monarch (Pre-Rings)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#9399A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONARCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monarch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#696191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONARBUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monarbug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#983644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIGHTORMENTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nightormentor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FC7EF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DARK_HUMOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Humor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#D41231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOUKI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kouki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#B16D22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DEAF32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RYUKOMORI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryukomori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#6799FA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERISE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#682D37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOAXER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoaxer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#F71F19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUG_NOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug Noire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#8E604C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAFARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#895FBB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAGG_REVEALED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plagg (Revealed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#B3CE17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIKKI_REVEALED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tikki (Revealed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#D83564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATAGI_GOZEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matagi Gozen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#D4302E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERONIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Véronique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#572D09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANIPULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#AB9619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KITTY_NOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitty Noire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DEE647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCARLET_FATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scarlet Fate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#E6383C</t>
   </si>
   <si>
     <t xml:space="preserve">SourceID</t>
@@ -2938,7 +3258,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2966,6 +3286,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3142,11 +3467,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ1103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A253" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A317" activeCellId="0" sqref="A317"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A328" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G348" activeCellId="0" sqref="G348"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.81"/>
@@ -3298,7 +3623,7 @@
       </c>
       <c r="G7" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A7&amp;""", ""name"": """&amp;B7&amp;""", ""description"": """&amp;C7&amp;""", ""imageFilename"": """&amp;A7&amp;".webp"", ""color"": """&amp;D7&amp;""", ""group"": """&amp;E7&amp;"""},"</f>
-        <v>{"id": "PLAGG", "name": "Plagg", "description": "The Kwami of Destruction.", "imageFilename": "PLAGG.webp", "color": "#413941", "group": "CHARACTER"},</v>
+        <v>{"id": "PLAGG", "name": "Plagg", "description": "The Kwami of Destruction.", "imageFilename": "PLAGG.webp", "color": "#281934", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4096,7 +4421,7 @@
       </c>
       <c r="G47" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A47&amp;""", ""name"": """&amp;B47&amp;""", ""description"": """&amp;C47&amp;""", ""imageFilename"": """&amp;A47&amp;".webp"", ""color"": """&amp;D47&amp;""", ""group"": """&amp;E47&amp;"""},"</f>
-        <v>{"id": "JEANNE_D_ARC", "name": "Jeanne d'Arc", "description": "", "imageFilename": "JEANNE_D_ARC.webp", "color": "#42181F", "group": "CHARACTER"},</v>
+        <v>{"id": "JEANNE_D_ARC", "name": "Jeanne d'Arc", "description": "", "imageFilename": "JEANNE_D_ARC.webp", "color": "#D8806C", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4150,7 +4475,7 @@
       </c>
       <c r="G50" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A50&amp;""", ""name"": """&amp;B50&amp;""", ""description"": """&amp;C50&amp;""", ""imageFilename"": """&amp;A50&amp;".webp"", ""color"": """&amp;D50&amp;""", ""group"": """&amp;E50&amp;"""},"</f>
-        <v>{"id": "LADY_NOIRE", "name": "Lady Noire", "description": "", "imageFilename": "LADY_NOIRE.webp", "color": "#252529", "group": "CHARACTER"},</v>
+        <v>{"id": "LADY_NOIRE", "name": "Lady Noire", "description": "", "imageFilename": "LADY_NOIRE.webp", "color": "#344527", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4168,7 +4493,7 @@
       </c>
       <c r="G51" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A51&amp;""", ""name"": """&amp;B51&amp;""", ""description"": """&amp;C51&amp;""", ""imageFilename"": """&amp;A51&amp;".webp"", ""color"": """&amp;D51&amp;""", ""group"": """&amp;E51&amp;"""},"</f>
-        <v>{"id": "MULTIMOUSE", "name": "Multimouse", "description": "", "imageFilename": "MULTIMOUSE.webp", "color": "#938089", "group": "CHARACTER"},</v>
+        <v>{"id": "MULTIMOUSE", "name": "Multimouse", "description": "", "imageFilename": "MULTIMOUSE.webp", "color": "#E9BBBD", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4241,7 +4566,7 @@
       </c>
       <c r="G55" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A55&amp;""", ""name"": """&amp;B55&amp;""", ""description"": """&amp;C55&amp;""", ""imageFilename"": """&amp;A55&amp;".webp"", ""color"": """&amp;D55&amp;""", ""group"": """&amp;E55&amp;"""},"</f>
-        <v>{"id": "DRAGON_BUG", "name": "Dragon Bug", "description": "", "imageFilename": "DRAGON_BUG.webp", "color": "#A25814", "group": "CHARACTER"},</v>
+        <v>{"id": "DRAGON_BUG", "name": "Dragon Bug", "description": "", "imageFilename": "DRAGON_BUG.webp", "color": "#C42726", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4711,7 +5036,7 @@
       </c>
       <c r="G81" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A81&amp;""", ""name"": """&amp;B81&amp;""", ""description"": """&amp;C81&amp;""", ""imageFilename"": """&amp;A81&amp;".webp"", ""color"": """&amp;D81&amp;""", ""group"": """&amp;E81&amp;"""},"</f>
-        <v>{"id": "GABRIEL_AGRESTE", "name": "Gabriel Agreste", "description": "", "imageFilename": "GABRIEL_AGRESTE.webp", "color": "#E8D2A3", "group": "CHARACTER"},</v>
+        <v>{"id": "GABRIEL_AGRESTE", "name": "Gabriel Agreste", "description": "", "imageFilename": "GABRIEL_AGRESTE.webp", "color": "#B0A4A5", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4839,7 +5164,7 @@
       </c>
       <c r="G88" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A88&amp;""", ""name"": """&amp;B88&amp;""", ""description"": """&amp;C88&amp;""", ""imageFilename"": """&amp;A88&amp;".webp"", ""color"": """&amp;D88&amp;""", ""group"": """&amp;E88&amp;"""},"</f>
-        <v>{"id": "QUEEN_BEE", "name": "Queen Bee", "description": "", "imageFilename": "QUEEN_BEE.webp", "color": "#F2E96B", "group": "CHARACTER"},</v>
+        <v>{"id": "QUEEN_BEE", "name": "Queen Bee", "description": "", "imageFilename": "QUEEN_BEE.webp", "color": "#F3F034", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5077,7 +5402,7 @@
       </c>
       <c r="G101" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A101&amp;""", ""name"": """&amp;B101&amp;""", ""description"": """&amp;C101&amp;""", ""imageFilename"": """&amp;A101&amp;".webp"", ""color"": """&amp;D101&amp;""", ""group"": """&amp;E101&amp;"""},"</f>
-        <v>{"id": "NINO_LAHIFFE", "name": "Nino Lahiffe", "description": "", "imageFilename": "NINO_LAHIFFE.webp", "color": "#174BE2", "group": "CHARACTER"},</v>
+        <v>{"id": "NINO_LAHIFFE", "name": "Nino Lahiffe", "description": "", "imageFilename": "NINO_LAHIFFE.webp", "color": "#255DF2", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5455,7 +5780,7 @@
       </c>
       <c r="G122" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A122&amp;""", ""name"": """&amp;B122&amp;""", ""description"": """&amp;C122&amp;""", ""imageFilename"": """&amp;A122&amp;".webp"", ""color"": """&amp;D122&amp;""", ""group"": """&amp;E122&amp;"""},"</f>
-        <v>{"id": "ALIX_KUBDEL", "name": "Alix Kubdel", "description": "", "imageFilename": "ALIX_KUBDEL.webp", "color": "#992122", "group": "CHARACTER"},</v>
+        <v>{"id": "ALIX_KUBDEL", "name": "Alix Kubdel", "description": "", "imageFilename": "ALIX_KUBDEL.webp", "color": "#AF283F", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5491,7 +5816,7 @@
       </c>
       <c r="G124" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A124&amp;""", ""name"": """&amp;B124&amp;""", ""description"": """&amp;C124&amp;""", ""imageFilename"": """&amp;A124&amp;".webp"", ""color"": """&amp;D124&amp;""", ""group"": """&amp;E124&amp;"""},"</f>
-        <v>{"id": "BUNNYX", "name": "Bunnyx", "description": "", "imageFilename": "BUNNYX.webp", "color": "#4289C5", "group": "CHARACTER"},</v>
+        <v>{"id": "BUNNYX_ADULT", "name": "Bunnyx (Adult)", "description": "", "imageFilename": "BUNNYX_ADULT.webp", "color": "#4289C5", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5851,7 +6176,7 @@
       </c>
       <c r="G144" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A144&amp;""", ""name"": """&amp;B144&amp;""", ""description"": """&amp;C144&amp;""", ""imageFilename"": """&amp;A144&amp;".webp"", ""color"": """&amp;D144&amp;""", ""group"": """&amp;E144&amp;"""},"</f>
-        <v>{"id": "MARC_ANCIEL", "name": "Marc Anciel", "description": "", "imageFilename": "MARC_ANCIEL.webp", "color": "#A20100", "group": "CHARACTER"},</v>
+        <v>{"id": "MARC_ANCIEL", "name": "Marc Anciel", "description": "", "imageFilename": "MARC_ANCIEL.webp", "color": "#C52927", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5941,7 +6266,7 @@
       </c>
       <c r="G149" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A149&amp;""", ""name"": """&amp;B149&amp;""", ""description"": """&amp;C149&amp;""", ""imageFilename"": """&amp;A149&amp;".webp"", ""color"": """&amp;D149&amp;""", ""group"": """&amp;E149&amp;"""},"</f>
-        <v>{"id": "VANISHER", "name": "Vanisher", "description": "", "imageFilename": "VANISHER.webp", "color": "#C33A36", "group": "CHARACTER"},</v>
+        <v>{"id": "VANISHER", "name": "Vanisher", "description": "", "imageFilename": "VANISHER.webp", "color": "#E57DC3", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5959,7 +6284,7 @@
       </c>
       <c r="G150" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A150&amp;""", ""name"": """&amp;B150&amp;""", ""description"": """&amp;C150&amp;""", ""imageFilename"": """&amp;A150&amp;".webp"", ""color"": """&amp;D150&amp;""", ""group"": """&amp;E150&amp;"""},"</f>
-        <v>{"id": "MIRACULER", "name": "Miraculer", "description": "", "imageFilename": "MIRACULER.webp", "color": "#930F56", "group": "CHARACTER"},</v>
+        <v>{"id": "MIRACULER", "name": "Miraculer", "description": "", "imageFilename": "MIRACULER.webp", "color": "#BE1374", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6139,7 +6464,7 @@
       </c>
       <c r="G160" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A160&amp;""", ""name"": """&amp;B160&amp;""", ""description"": """&amp;C160&amp;""", ""imageFilename"": """&amp;A160&amp;".webp"", ""color"": """&amp;D160&amp;""", ""group"": """&amp;E160&amp;"""},"</f>
-        <v>{"id": "OLYMPIA_HILL", "name": "Olympia Hill", "description": "", "imageFilename": "OLYMPIA_HILL.webp", "color": "#B28A22", "group": "CHARACTER"},</v>
+        <v>{"id": "OLYMPIA_HILL", "name": "Olympia Hill", "description": "", "imageFilename": "OLYMPIA_HILL.webp", "color": "#A37F1E", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6229,7 +6554,7 @@
       </c>
       <c r="G165" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A165&amp;""", ""name"": """&amp;B165&amp;""", ""description"": """&amp;C165&amp;""", ""imageFilename"": """&amp;A165&amp;".webp"", ""color"": """&amp;D165&amp;""", ""group"": """&amp;E165&amp;"""},"</f>
-        <v>{"id": "KNIGHTOWL", "name": "Knightowl", "description": "", "imageFilename": "KNIGHTOWL.webp", "color": "#735968", "group": "CHARACTER"},</v>
+        <v>{"id": "KNIGHTOWL", "name": "Knightowl", "description": "", "imageFilename": "KNIGHTOWL.webp", "color": "#53171E", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6463,7 +6788,7 @@
       </c>
       <c r="G178" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A178&amp;""", ""name"": """&amp;B178&amp;""", ""description"": """&amp;C178&amp;""", ""imageFilename"": """&amp;A178&amp;".webp"", ""color"": """&amp;D178&amp;""", ""group"": """&amp;E178&amp;"""},"</f>
-        <v>{"id": "FEI_WU", "name": "Fei Wu", "description": "", "imageFilename": "FEI_WU.webp", "color": "#B35F38", "group": "CHARACTER"},</v>
+        <v>{"id": "FEI_WU", "name": "Fei Wu", "description": "", "imageFilename": "FEI_WU.webp", "color": "#0B1A3C", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7597,7 +7922,7 @@
       </c>
       <c r="G241" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A241&amp;""", ""name"": """&amp;B241&amp;""", ""description"": """&amp;C241&amp;""", ""imageFilename"": """&amp;A241&amp;".webp"", ""color"": """&amp;D241&amp;""", ""group"": """&amp;E241&amp;"""},"</f>
-        <v>{"id": "ADRIEN_S_BODYGUARD", "name": "Adrien's Bodyguard", "description": "", "imageFilename": "ADRIEN_S_BODYGUARD.webp", "color": "#16133A", "group": "CHARACTER"},</v>
+        <v>{"id": "PLACIDE_IT", "name": "Placide I.T.", "description": "", "imageFilename": "PLACIDE_IT.webp", "color": "#16133A", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7705,7 +8030,7 @@
       </c>
       <c r="G247" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A247&amp;""", ""name"": """&amp;B247&amp;""", ""description"": """&amp;C247&amp;""", ""imageFilename"": """&amp;A247&amp;".webp"", ""color"": """&amp;D247&amp;""", ""group"": """&amp;E247&amp;"""},"</f>
-        <v>{"id": "MR__DAMOCLES", "name": "Mr. Damocles", "description": "", "imageFilename": "MR__DAMOCLES.webp", "color": "#9A7550", "group": "CHARACTER"},</v>
+        <v>{"id": "DENIS_DAMOCLES", "name": "Denis Damoclés", "description": "", "imageFilename": "DENIS_DAMOCLES.webp", "color": "#9A7550", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8011,7 +8336,7 @@
       </c>
       <c r="G264" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A264&amp;""", ""name"": """&amp;B264&amp;""", ""description"": """&amp;C264&amp;""", ""imageFilename"": """&amp;A264&amp;".webp"", ""color"": """&amp;D264&amp;""", ""group"": """&amp;E264&amp;"""},"</f>
-        <v>{"id": "HEART_HUNTER", "name": "Heart Hunter", "description": "", "imageFilename": "HEART_HUNTER.webp", "color": "#FCB9C7", "group": "CHARACTER"},</v>
+        <v>{"id": "HEART_HUNTER", "name": "Heart Hunter", "description": "", "imageFilename": "HEART_HUNTER.webp", "color": "#FF9DA3", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8065,7 +8390,7 @@
       </c>
       <c r="G267" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A267&amp;""", ""name"": """&amp;B267&amp;""", ""description"": """&amp;C267&amp;""", ""imageFilename"": """&amp;A267&amp;".webp"", ""color"": """&amp;D267&amp;""", ""group"": """&amp;E267&amp;"""},"</f>
-        <v>{"id": "SANTA_CLAUS", "name": "Santa Claus", "description": "", "imageFilename": "SANTA_CLAUS.webp", "color": "#C32851", "group": "CHARACTER"},</v>
+        <v>{"id": "SANTA_CLAUS", "name": "Santa Claus", "description": "", "imageFilename": "SANTA_CLAUS.webp", "color": "#DC0000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8407,7 +8732,7 @@
       </c>
       <c r="G286" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A286&amp;""", ""name"": """&amp;B286&amp;""", ""description"": """&amp;C286&amp;""", ""imageFilename"": """&amp;A286&amp;".webp"", ""color"": """&amp;D286&amp;""", ""group"": """&amp;E286&amp;"""},"</f>
-        <v>{"id": "MS__MENDELEIEV", "name": "Ms. Mendeleiev", "description": "", "imageFilename": "MS__MENDELEIEV.webp", "color": "#47153D", "group": "CHARACTER"},</v>
+        <v>{"id": "OLGA_MENDELEIEV", "name": "Olga Mendeleiev", "description": "", "imageFilename": "OLGA_MENDELEIEV.webp", "color": "#47153D", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8461,7 +8786,7 @@
       </c>
       <c r="G289" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A289&amp;""", ""name"": """&amp;B289&amp;""", ""description"": """&amp;C289&amp;""", ""imageFilename"": """&amp;A289&amp;".webp"", ""color"": """&amp;D289&amp;""", ""group"": """&amp;E289&amp;"""},"</f>
-        <v>{"id": "DORMANT_SENTIMONSTER", "name": "Dormant Sentimonster", "description": "", "imageFilename": "DORMANT_SENTIMONSTER.webp", "color": "#0D3EC2", "group": "CHARACTER"},</v>
+        <v>{"id": "DORMANT_SENTIMONSTER", "name": "Dormant Sentimonster", "description": "", "imageFilename": "DORMANT_SENTIMONSTER.webp", "color": "#0935D9", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8497,7 +8822,7 @@
       </c>
       <c r="G291" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A291&amp;""", ""name"": """&amp;B291&amp;""", ""description"": """&amp;C291&amp;""", ""imageFilename"": """&amp;A291&amp;".webp"", ""color"": """&amp;D291&amp;""", ""group"": """&amp;E291&amp;"""},"</f>
-        <v>{"id": "TOMOE_TSURUGI", "name": "Tomoe Tsurugi", "description": "", "imageFilename": "TOMOE_TSURUGI.webp", "color": "#ECE7DF", "group": "CHARACTER"},</v>
+        <v>{"id": "TOMOE_TSURUGI", "name": "Tomoe Tsurugi", "description": "", "imageFilename": "TOMOE_TSURUGI.webp", "color": "#A9A9AD", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8641,7 +8966,7 @@
       </c>
       <c r="G299" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A299&amp;""", ""name"": """&amp;B299&amp;""", ""description"": """&amp;C299&amp;""", ""imageFilename"": """&amp;A299&amp;".webp"", ""color"": """&amp;D299&amp;""", ""group"": """&amp;E299&amp;"""},"</f>
-        <v>{"id": "ALEC_CATALDI", "name": "Alec Cataldi", "description": "", "imageFilename": "ALEC_CATALDI.webp", "color": "#E4A778", "group": "CHARACTER"},</v>
+        <v>{"id": "ALEC_CATALDI", "name": "Alec Cataldi", "description": "", "imageFilename": "ALEC_CATALDI.webp", "color": "#CC875B", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8659,7 +8984,7 @@
       </c>
       <c r="G300" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A300&amp;""", ""name"": """&amp;B300&amp;""", ""description"": """&amp;C300&amp;""", ""imageFilename"": """&amp;A300&amp;".webp"", ""color"": """&amp;D300&amp;""", ""group"": """&amp;E300&amp;"""},"</f>
-        <v>{"id": "WISHMAKER", "name": "Wishmaker", "description": "", "imageFilename": "WISHMAKER.webp", "color": "#14130D", "group": "CHARACTER"},</v>
+        <v>{"id": "WISHMAKER", "name": "Wishmaker", "description": "", "imageFilename": "WISHMAKER.webp", "color": "#2E251C", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8695,7 +9020,7 @@
       </c>
       <c r="G302" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A302&amp;""", ""name"": """&amp;B302&amp;""", ""description"": """&amp;C302&amp;""", ""imageFilename"": """&amp;A302&amp;".webp"", ""color"": """&amp;D302&amp;""", ""group"": """&amp;E302&amp;"""},"</f>
-        <v>{"id": "QILIN", "name": "Qilin", "description": "", "imageFilename": "QILIN.webp", "color": "#5DB684", "group": "CHARACTER"},</v>
+        <v>{"id": "QILIN", "name": "Qilin", "description": "", "imageFilename": "QILIN.webp", "color": "#588575", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8803,7 +9128,7 @@
       </c>
       <c r="G308" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A308&amp;""", ""name"": """&amp;B308&amp;""", ""description"": """&amp;C308&amp;""", ""imageFilename"": """&amp;A308&amp;".webp"", ""color"": """&amp;D308&amp;""", ""group"": """&amp;E308&amp;"""},"</f>
-        <v>{"id": "KING_CASH", "name": "King Cash", "description": "", "imageFilename": "KING_CASH.webp", "color": "#847560", "group": "CHARACTER"},</v>
+        <v>{"id": "KING_CASH", "name": "King Cash", "description": "", "imageFilename": "KING_CASH.webp", "color": "#E9AD2C", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8899,7 +9224,7 @@
       </c>
       <c r="G313" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A313&amp;""", ""name"": """&amp;B313&amp;""", ""description"": """&amp;C313&amp;""", ""imageFilename"": """&amp;A313&amp;".webp"", ""color"": """&amp;D313&amp;""", ""group"": """&amp;E313&amp;"""},"</f>
-        <v>{"id": "FANG_AKUMATIZED", "name": "Fang (Akumatized)", "description": "", "imageFilename": "FANG_AKUMATIZED.webp", "color": "#973E63", "group": "CHARACTER"},</v>
+        <v>{"id": "FANG_AKUMATIZED", "name": "Fang (Akumatized)", "description": "", "imageFilename": "FANG_AKUMATIZED.webp", "color": "#6A3761", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8936,6 +9261,582 @@
       <c r="G315" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A315&amp;""", ""name"": """&amp;B315&amp;""", ""description"": """&amp;C315&amp;""", ""imageFilename"": """&amp;A315&amp;".webp"", ""color"": """&amp;D315&amp;""", ""group"": """&amp;E315&amp;"""},"</f>
         <v>{"id": "ALBERT_AKUMATIZED", "name": "Albert (Akumatized)", "description": "", "imageFilename": "ALBERT_AKUMATIZED.webp", "color": "#D89A13", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G316" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A316&amp;""", ""name"": """&amp;B316&amp;""", ""description"": """&amp;C316&amp;""", ""imageFilename"": """&amp;A316&amp;".webp"", ""color"": """&amp;D316&amp;""", ""group"": """&amp;E316&amp;"""},"</f>
+        <v>{"id": "ADA", "name": "A.D.A.", "description": "", "imageFilename": "ADA.webp", "color": "#83D3DB", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G317" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A317&amp;""", ""name"": """&amp;B317&amp;""", ""description"": """&amp;C317&amp;""", ""imageFilename"": """&amp;A317&amp;".webp"", ""color"": """&amp;D317&amp;""", ""group"": """&amp;E317&amp;"""},"</f>
+        <v>{"id": "BUGFIGHTER", "name": "Bugfighter", "description": "", "imageFilename": "BUGFIGHTER.webp", "color": "#FBA6CC", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G318" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A318&amp;""", ""name"": """&amp;B318&amp;""", ""description"": """&amp;C318&amp;""", ""imageFilename"": """&amp;A318&amp;".webp"", ""color"": """&amp;D318&amp;""", ""group"": """&amp;E318&amp;"""},"</f>
+        <v>{"id": "RABBIT_NOIR", "name": "Rabbit Noir", "description": "", "imageFilename": "RABBIT_NOIR.webp", "color": "#4ACED0", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G319" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A319&amp;""", ""name"": """&amp;B319&amp;""", ""description"": """&amp;C319&amp;""", ""imageFilename"": """&amp;A319&amp;".webp"", ""color"": """&amp;D319&amp;""", ""group"": """&amp;E319&amp;"""},"</f>
+        <v>{"id": "BUNNYX", "name": "Bunnyx", "description": "", "imageFilename": "BUNNYX.webp", "color": "#47BDFA", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G320" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A320&amp;""", ""name"": """&amp;B320&amp;""", ""description"": """&amp;C320&amp;""", ""imageFilename"": """&amp;A320&amp;".webp"", ""color"": """&amp;D320&amp;""", ""group"": """&amp;E320&amp;"""},"</f>
+        <v>{"id": "CANIGIRL", "name": "Canigirl", "description": "", "imageFilename": "CANIGIRL.webp", "color": "#844733", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G321" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A321&amp;""", ""name"": """&amp;B321&amp;""", ""description"": """&amp;C321&amp;""", ""imageFilename"": """&amp;A321&amp;".webp"", ""color"": """&amp;D321&amp;""", ""group"": """&amp;E321&amp;"""},"</f>
+        <v>{"id": "BUNNY_DOG", "name": "Bunny Dog", "description": "", "imageFilename": "BUNNY_DOG.webp", "color": "#8CC4C0", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G322" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A322&amp;""", ""name"": """&amp;B322&amp;""", ""description"": """&amp;C322&amp;""", ""imageFilename"": """&amp;A322&amp;".webp"", ""color"": """&amp;D322&amp;""", ""group"": """&amp;E322&amp;"""},"</f>
+        <v>{"id": "GOLD_RECORD", "name": "Gold Record", "description": "", "imageFilename": "GOLD_RECORD.webp", "color": "#AF9B2C", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G323" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A323&amp;""", ""name"": """&amp;B323&amp;""", ""description"": """&amp;C323&amp;""", ""imageFilename"": """&amp;A323&amp;".webp"", ""color"": """&amp;D323&amp;""", ""group"": """&amp;E323&amp;"""},"</f>
+        <v>{"id": "MISS_SANS_CULOTTE", "name": "Miss Sans-Culotte", "description": "", "imageFilename": "MISS_SANS_CULOTTE.webp", "color": "#E7CE97", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G324" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A324&amp;""", ""name"": """&amp;B324&amp;""", ""description"": """&amp;C324&amp;""", ""imageFilename"": """&amp;A324&amp;".webp"", ""color"": """&amp;D324&amp;""", ""group"": """&amp;E324&amp;"""},"</f>
+        <v>{"id": "SOLE_DESTROYER", "name": "Sole Destroyer", "description": "", "imageFilename": "SOLE_DESTROYER.webp", "color": "#F1C243", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G325" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A325&amp;""", ""name"": """&amp;B325&amp;""", ""description"": """&amp;C325&amp;""", ""imageFilename"": """&amp;A325&amp;".webp"", ""color"": """&amp;D325&amp;""", ""group"": """&amp;E325&amp;"""},"</f>
+        <v>{"id": "QUEEN_MAYOR", "name": "Queen Mayor", "description": "", "imageFilename": "QUEEN_MAYOR.webp", "color": "#937F3B", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G326" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A326&amp;""", ""name"": """&amp;B326&amp;""", ""description"": """&amp;C326&amp;""", ""imageFilename"": """&amp;A326&amp;".webp"", ""color"": """&amp;D326&amp;""", ""group"": """&amp;E326&amp;"""},"</f>
+        <v>{"id": "DARKER_OWL", "name": "Darker Owl", "description": "", "imageFilename": "DARKER_OWL.webp", "color": "#B6573C", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G327" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A327&amp;""", ""name"": """&amp;B327&amp;""", ""description"": """&amp;C327&amp;""", ""imageFilename"": """&amp;A327&amp;".webp"", ""color"": """&amp;D327&amp;""", ""group"": """&amp;E327&amp;"""},"</f>
+        <v>{"id": "ARGOS", "name": "Argos", "description": "", "imageFilename": "ARGOS.webp", "color": "#261274", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G328" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A328&amp;""", ""name"": """&amp;B328&amp;""", ""description"": """&amp;C328&amp;""", ""imageFilename"": """&amp;A328&amp;".webp"", ""color"": """&amp;D328&amp;""", ""group"": """&amp;E328&amp;"""},"</f>
+        <v>{"id": "GIMMI", "name": "Gimmi", "description": "", "imageFilename": "GIMMI.webp", "color": "#FF91FE", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B329" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G329" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A329&amp;""", ""name"": """&amp;B329&amp;""", ""description"": """&amp;C329&amp;""", ""imageFilename"": """&amp;A329&amp;".webp"", ""color"": """&amp;D329&amp;""", ""group"": """&amp;E329&amp;"""},"</f>
+        <v>{"id": "MONARCH_PRE_RINGS", "name": "Monarch (Pre-Rings)", "description": "", "imageFilename": "MONARCH_PRE_RINGS.webp", "color": "#9399A3", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G330" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A330&amp;""", ""name"": """&amp;B330&amp;""", ""description"": """&amp;C330&amp;""", ""imageFilename"": """&amp;A330&amp;".webp"", ""color"": """&amp;D330&amp;""", ""group"": """&amp;E330&amp;"""},"</f>
+        <v>{"id": "MONARCH", "name": "Monarch", "description": "", "imageFilename": "MONARCH.webp", "color": "#696191", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G331" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A331&amp;""", ""name"": """&amp;B331&amp;""", ""description"": """&amp;C331&amp;""", ""imageFilename"": """&amp;A331&amp;".webp"", ""color"": """&amp;D331&amp;""", ""group"": """&amp;E331&amp;"""},"</f>
+        <v>{"id": "MONARBUG", "name": "Monarbug", "description": "", "imageFilename": "MONARBUG.webp", "color": "#983644", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G332" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A332&amp;""", ""name"": """&amp;B332&amp;""", ""description"": """&amp;C332&amp;""", ""imageFilename"": """&amp;A332&amp;".webp"", ""color"": """&amp;D332&amp;""", ""group"": """&amp;E332&amp;"""},"</f>
+        <v>{"id": "NIGHTORMENTOR", "name": "Nightormentor", "description": "", "imageFilename": "NIGHTORMENTOR.webp", "color": "#FC7EF6", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G333" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A333&amp;""", ""name"": """&amp;B333&amp;""", ""description"": """&amp;C333&amp;""", ""imageFilename"": """&amp;A333&amp;".webp"", ""color"": """&amp;D333&amp;""", ""group"": """&amp;E333&amp;"""},"</f>
+        <v>{"id": "DARK_HUMOR", "name": "Dark Humor", "description": "", "imageFilename": "DARK_HUMOR.webp", "color": "#D41231", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G334" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A334&amp;""", ""name"": """&amp;B334&amp;""", ""description"": """&amp;C334&amp;""", ""imageFilename"": """&amp;A334&amp;".webp"", ""color"": """&amp;D334&amp;""", ""group"": """&amp;E334&amp;"""},"</f>
+        <v>{"id": "KOUKI", "name": "Kouki", "description": "", "imageFilename": "KOUKI.webp", "color": "#B16D22", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G335" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A335&amp;""", ""name"": """&amp;B335&amp;""", ""description"": """&amp;C335&amp;""", ""imageFilename"": """&amp;A335&amp;".webp"", ""color"": """&amp;D335&amp;""", ""group"": """&amp;E335&amp;"""},"</f>
+        <v>{"id": "KIKU", "name": "Kiku", "description": "", "imageFilename": "KIKU.webp", "color": "#DEAF32", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G336" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A336&amp;""", ""name"": """&amp;B336&amp;""", ""description"": """&amp;C336&amp;""", ""imageFilename"": """&amp;A336&amp;".webp"", ""color"": """&amp;D336&amp;""", ""group"": """&amp;E336&amp;"""},"</f>
+        <v>{"id": "RYUKOMORI", "name": "Ryukomori", "description": "", "imageFilename": "RYUKOMORI.webp", "color": "#6799FA", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G337" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A337&amp;""", ""name"": """&amp;B337&amp;""", ""description"": """&amp;C337&amp;""", ""imageFilename"": """&amp;A337&amp;".webp"", ""color"": """&amp;D337&amp;""", ""group"": """&amp;E337&amp;"""},"</f>
+        <v>{"id": "CERISE", "name": "Cerise", "description": "", "imageFilename": "CERISE.webp", "color": "#682D37", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G338" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A338&amp;""", ""name"": """&amp;B338&amp;""", ""description"": """&amp;C338&amp;""", ""imageFilename"": """&amp;A338&amp;".webp"", ""color"": """&amp;D338&amp;""", ""group"": """&amp;E338&amp;"""},"</f>
+        <v>{"id": "HOAXER", "name": "Hoaxer", "description": "", "imageFilename": "HOAXER.webp", "color": "#F71F19", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G339" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A339&amp;""", ""name"": """&amp;B339&amp;""", ""description"": """&amp;C339&amp;""", ""imageFilename"": """&amp;A339&amp;".webp"", ""color"": """&amp;D339&amp;""", ""group"": """&amp;E339&amp;"""},"</f>
+        <v>{"id": "BUG_NOIRE", "name": "Bug Noire", "description": "", "imageFilename": "BUG_NOIRE.webp", "color": "#8E604C", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G340" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A340&amp;""", ""name"": """&amp;B340&amp;""", ""description"": """&amp;C340&amp;""", ""imageFilename"": """&amp;A340&amp;".webp"", ""color"": """&amp;D340&amp;""", ""group"": """&amp;E340&amp;"""},"</f>
+        <v>{"id": "SAFARI", "name": "Safari", "description": "", "imageFilename": "SAFARI.webp", "color": "#895FBB", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G341" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A341&amp;""", ""name"": """&amp;B341&amp;""", ""description"": """&amp;C341&amp;""", ""imageFilename"": """&amp;A341&amp;".webp"", ""color"": """&amp;D341&amp;""", ""group"": """&amp;E341&amp;"""},"</f>
+        <v>{"id": "PLAGG_REVEALED", "name": "Plagg (Revealed)", "description": "", "imageFilename": "PLAGG_REVEALED.webp", "color": "#B3CE17", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G342" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A342&amp;""", ""name"": """&amp;B342&amp;""", ""description"": """&amp;C342&amp;""", ""imageFilename"": """&amp;A342&amp;".webp"", ""color"": """&amp;D342&amp;""", ""group"": """&amp;E342&amp;"""},"</f>
+        <v>{"id": "TIKKI_REVEALED", "name": "Tikki (Revealed)", "description": "", "imageFilename": "TIKKI_REVEALED.webp", "color": "#D83564", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G343" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A343&amp;""", ""name"": """&amp;B343&amp;""", ""description"": """&amp;C343&amp;""", ""imageFilename"": """&amp;A343&amp;".webp"", ""color"": """&amp;D343&amp;""", ""group"": """&amp;E343&amp;"""},"</f>
+        <v>{"id": "MATAGI_GOZEN", "name": "Matagi Gozen", "description": "", "imageFilename": "MATAGI_GOZEN.webp", "color": "#D4302E", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G344" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A344&amp;""", ""name"": """&amp;B344&amp;""", ""description"": """&amp;C344&amp;""", ""imageFilename"": """&amp;A344&amp;".webp"", ""color"": """&amp;D344&amp;""", ""group"": """&amp;E344&amp;"""},"</f>
+        <v>{"id": "VERONIQUE", "name": "Véronique", "description": "", "imageFilename": "VERONIQUE.webp", "color": "#572D09", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G345" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A345&amp;""", ""name"": """&amp;B345&amp;""", ""description"": """&amp;C345&amp;""", ""imageFilename"": """&amp;A345&amp;".webp"", ""color"": """&amp;D345&amp;""", ""group"": """&amp;E345&amp;"""},"</f>
+        <v>{"id": "MANIPULA", "name": "Manipula", "description": "", "imageFilename": "MANIPULA.webp", "color": "#AB9619", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G346" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A346&amp;""", ""name"": """&amp;B346&amp;""", ""description"": """&amp;C346&amp;""", ""imageFilename"": """&amp;A346&amp;".webp"", ""color"": """&amp;D346&amp;""", ""group"": """&amp;E346&amp;"""},"</f>
+        <v>{"id": "KITTY_NOIRE", "name": "Kitty Noire", "description": "", "imageFilename": "KITTY_NOIRE.webp", "color": "#DEE647", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G347" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A347&amp;""", ""name"": """&amp;B347&amp;""", ""description"": """&amp;C347&amp;""", ""imageFilename"": """&amp;A347&amp;".webp"", ""color"": """&amp;D347&amp;""", ""group"": """&amp;E347&amp;"""},"</f>
+        <v>{"id": "SCARLET_FATE", "name": "Scarlet Fate", "description": "", "imageFilename": "SCARLET_FATE.webp", "color": "#E6383C", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="1097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8977,11 +9878,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ396"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A314" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G396" activeCellId="0" sqref="G396"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A386" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G395" activeCellId="0" sqref="G395"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="23.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="13.89"/>
@@ -8992,19 +9893,19 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>962</v>
+        <v>1058</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>963</v>
+        <v>1059</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>964</v>
+        <v>1060</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>965</v>
+        <v>1061</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>966</v>
+        <v>1062</v>
       </c>
       <c r="AMJ1" s="2"/>
     </row>
@@ -9018,7 +9919,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F2" s="0"/>
       <c r="G2" s="0" t="str">
@@ -9037,7 +9938,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F3" s="0"/>
       <c r="G3" s="0" t="str">
@@ -9056,7 +9957,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F4" s="0"/>
       <c r="G4" s="0" t="str">
@@ -9075,7 +9976,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F5" s="0"/>
       <c r="G5" s="0" t="str">
@@ -9094,7 +9995,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F6" s="0"/>
       <c r="G6" s="0" t="str">
@@ -9113,7 +10014,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="0" t="str">
@@ -9132,7 +10033,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F8" s="0"/>
       <c r="G8" s="0" t="str">
@@ -9151,7 +10052,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F9" s="0"/>
       <c r="G9" s="0" t="str">
@@ -9170,7 +10071,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0" t="str">
@@ -9189,7 +10090,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0" t="str">
@@ -9208,7 +10109,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F12" s="0"/>
       <c r="G12" s="0" t="str">
@@ -9227,7 +10128,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F13" s="0"/>
       <c r="G13" s="0" t="str">
@@ -9246,7 +10147,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F14" s="0"/>
       <c r="G14" s="0" t="str">
@@ -9265,7 +10166,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F15" s="0"/>
       <c r="G15" s="0" t="str">
@@ -9284,7 +10185,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F16" s="0"/>
       <c r="G16" s="0" t="str">
@@ -9303,7 +10204,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F17" s="0"/>
       <c r="G17" s="0" t="str">
@@ -9322,7 +10223,7 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F18" s="0"/>
       <c r="G18" s="0" t="str">
@@ -9341,7 +10242,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F19" s="0"/>
       <c r="G19" s="0" t="str">
@@ -9360,7 +10261,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F20" s="0"/>
       <c r="G20" s="0" t="str">
@@ -9379,7 +10280,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F21" s="0"/>
       <c r="G21" s="0" t="str">
@@ -9398,7 +10299,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F22" s="0"/>
       <c r="G22" s="0" t="str">
@@ -9417,7 +10318,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F23" s="0"/>
       <c r="G23" s="0" t="str">
@@ -9436,7 +10337,7 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F24" s="0"/>
       <c r="G24" s="0" t="str">
@@ -9455,7 +10356,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F25" s="0"/>
       <c r="G25" s="0" t="str">
@@ -9474,7 +10375,7 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F26" s="0"/>
       <c r="G26" s="0" t="str">
@@ -9493,7 +10394,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F27" s="0"/>
       <c r="G27" s="0" t="str">
@@ -9512,7 +10413,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F28" s="0"/>
       <c r="G28" s="0" t="str">
@@ -9531,7 +10432,7 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F29" s="0"/>
       <c r="G29" s="0" t="str">
@@ -9550,7 +10451,7 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0" t="str">
@@ -9569,7 +10470,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F31" s="0"/>
       <c r="G31" s="0" t="str">
@@ -9588,7 +10489,7 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F32" s="0"/>
       <c r="G32" s="0" t="str">
@@ -9607,7 +10508,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F33" s="0"/>
       <c r="G33" s="0" t="str">
@@ -9626,7 +10527,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="0" t="str">
@@ -9645,7 +10546,7 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F35" s="0"/>
       <c r="G35" s="0" t="str">
@@ -9664,7 +10565,7 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F36" s="0"/>
       <c r="G36" s="0" t="str">
@@ -9683,7 +10584,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F37" s="0"/>
       <c r="G37" s="0" t="str">
@@ -9702,7 +10603,7 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F38" s="0"/>
       <c r="G38" s="0" t="str">
@@ -9721,7 +10622,7 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F39" s="0"/>
       <c r="G39" s="0" t="str">
@@ -9740,7 +10641,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F40" s="0"/>
       <c r="G40" s="0" t="str">
@@ -9759,7 +10660,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F41" s="0"/>
       <c r="G41" s="0" t="str">
@@ -9778,7 +10679,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F42" s="0"/>
       <c r="G42" s="0" t="str">
@@ -9797,7 +10698,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F43" s="0"/>
       <c r="G43" s="0" t="str">
@@ -9816,7 +10717,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F44" s="0"/>
       <c r="G44" s="0" t="str">
@@ -9835,7 +10736,7 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F45" s="0"/>
       <c r="G45" s="0" t="str">
@@ -9854,7 +10755,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F46" s="0"/>
       <c r="G46" s="0" t="str">
@@ -9873,7 +10774,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F47" s="0"/>
       <c r="G47" s="0" t="str">
@@ -9892,7 +10793,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F48" s="0"/>
       <c r="G48" s="0" t="str">
@@ -9911,7 +10812,7 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F49" s="0"/>
       <c r="G49" s="0" t="str">
@@ -9930,7 +10831,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F50" s="0"/>
       <c r="G50" s="0" t="str">
@@ -9949,7 +10850,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F51" s="0"/>
       <c r="G51" s="0" t="str">
@@ -9968,7 +10869,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F52" s="0"/>
       <c r="G52" s="0" t="str">
@@ -9987,7 +10888,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F53" s="0"/>
       <c r="G53" s="0" t="str">
@@ -10006,7 +10907,7 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F54" s="0"/>
       <c r="G54" s="0" t="str">
@@ -10025,7 +10926,7 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F55" s="0"/>
       <c r="G55" s="0" t="str">
@@ -10044,7 +10945,7 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F56" s="0"/>
       <c r="G56" s="0" t="str">
@@ -10063,7 +10964,7 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F57" s="0"/>
       <c r="G57" s="0" t="str">
@@ -10080,7 +10981,7 @@
         <v>154</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G58" s="0" t="str">
         <f aca="false">IF(E58="","","{""sourceId"": """&amp;A58&amp;""", ""targetId"": """&amp;B58&amp;""", ""shortDescription"": """&amp;C58&amp;""", ""fullDescriptionHtml"": """&amp;D58&amp;""", ""direction"": """&amp;E58&amp;"""},")</f>
@@ -10095,7 +10996,7 @@
         <v>160</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G59" s="0" t="str">
         <f aca="false">IF(E59="","","{""sourceId"": """&amp;A59&amp;""", ""targetId"": """&amp;B59&amp;""", ""shortDescription"": """&amp;C59&amp;""", ""fullDescriptionHtml"": """&amp;D59&amp;""", ""direction"": """&amp;E59&amp;"""},")</f>
@@ -10110,7 +11011,7 @@
         <v>175</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G60" s="0" t="str">
         <f aca="false">IF(E60="","","{""sourceId"": """&amp;A60&amp;""", ""targetId"": """&amp;B60&amp;""", ""shortDescription"": """&amp;C60&amp;""", ""fullDescriptionHtml"": """&amp;D60&amp;""", ""direction"": """&amp;E60&amp;"""},")</f>
@@ -10125,7 +11026,7 @@
         <v>178</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G61" s="0" t="str">
         <f aca="false">IF(E61="","","{""sourceId"": """&amp;A61&amp;""", ""targetId"": """&amp;B61&amp;""", ""shortDescription"": """&amp;C61&amp;""", ""fullDescriptionHtml"": """&amp;D61&amp;""", ""direction"": """&amp;E61&amp;"""},")</f>
@@ -10140,7 +11041,7 @@
         <v>181</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G62" s="0" t="str">
         <f aca="false">IF(E62="","","{""sourceId"": """&amp;A62&amp;""", ""targetId"": """&amp;B62&amp;""", ""shortDescription"": """&amp;C62&amp;""", ""fullDescriptionHtml"": """&amp;D62&amp;""", ""direction"": """&amp;E62&amp;"""},")</f>
@@ -10155,7 +11056,7 @@
         <v>184</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G63" s="0" t="str">
         <f aca="false">IF(E63="","","{""sourceId"": """&amp;A63&amp;""", ""targetId"": """&amp;B63&amp;""", ""shortDescription"": """&amp;C63&amp;""", ""fullDescriptionHtml"": """&amp;D63&amp;""", ""direction"": """&amp;E63&amp;"""},")</f>
@@ -10170,7 +11071,7 @@
         <v>187</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G64" s="0" t="str">
         <f aca="false">IF(E64="","","{""sourceId"": """&amp;A64&amp;""", ""targetId"": """&amp;B64&amp;""", ""shortDescription"": """&amp;C64&amp;""", ""fullDescriptionHtml"": """&amp;D64&amp;""", ""direction"": """&amp;E64&amp;"""},")</f>
@@ -10185,7 +11086,7 @@
         <v>208</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G65" s="0" t="str">
         <f aca="false">IF(E65="","","{""sourceId"": """&amp;A65&amp;""", ""targetId"": """&amp;B65&amp;""", ""shortDescription"": """&amp;C65&amp;""", ""fullDescriptionHtml"": """&amp;D65&amp;""", ""direction"": """&amp;E65&amp;"""},")</f>
@@ -10200,7 +11101,7 @@
         <v>244</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G66" s="0" t="str">
         <f aca="false">IF(E66="","","{""sourceId"": """&amp;A66&amp;""", ""targetId"": """&amp;B66&amp;""", ""shortDescription"": """&amp;C66&amp;""", ""fullDescriptionHtml"": """&amp;D66&amp;""", ""direction"": """&amp;E66&amp;"""},")</f>
@@ -10215,7 +11116,7 @@
         <v>205</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G67" s="0" t="str">
         <f aca="false">IF(E67="","","{""sourceId"": """&amp;A67&amp;""", ""targetId"": """&amp;B67&amp;""", ""shortDescription"": """&amp;C67&amp;""", ""fullDescriptionHtml"": """&amp;D67&amp;""", ""direction"": """&amp;E67&amp;"""},")</f>
@@ -10230,7 +11131,7 @@
         <v>214</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G68" s="0" t="str">
         <f aca="false">IF(E68="","","{""sourceId"": """&amp;A68&amp;""", ""targetId"": """&amp;B68&amp;""", ""shortDescription"": """&amp;C68&amp;""", ""fullDescriptionHtml"": """&amp;D68&amp;""", ""direction"": """&amp;E68&amp;"""},")</f>
@@ -10245,7 +11146,7 @@
         <v>217</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G69" s="0" t="str">
         <f aca="false">IF(E69="","","{""sourceId"": """&amp;A69&amp;""", ""targetId"": """&amp;B69&amp;""", ""shortDescription"": """&amp;C69&amp;""", ""fullDescriptionHtml"": """&amp;D69&amp;""", ""direction"": """&amp;E69&amp;"""},")</f>
@@ -10260,7 +11161,7 @@
         <v>163</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G70" s="0" t="str">
         <f aca="false">IF(E70="","","{""sourceId"": """&amp;A70&amp;""", ""targetId"": """&amp;B70&amp;""", ""shortDescription"": """&amp;C70&amp;""", ""fullDescriptionHtml"": """&amp;D70&amp;""", ""direction"": """&amp;E70&amp;"""},")</f>
@@ -10275,7 +11176,7 @@
         <v>172</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G71" s="0" t="str">
         <f aca="false">IF(E71="","","{""sourceId"": """&amp;A71&amp;""", ""targetId"": """&amp;B71&amp;""", ""shortDescription"": """&amp;C71&amp;""", ""fullDescriptionHtml"": """&amp;D71&amp;""", ""direction"": """&amp;E71&amp;"""},")</f>
@@ -10290,7 +11191,7 @@
         <v>268</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G72" s="0" t="str">
         <f aca="false">IF(E72="","","{""sourceId"": """&amp;A72&amp;""", ""targetId"": """&amp;B72&amp;""", ""shortDescription"": """&amp;C72&amp;""", ""fullDescriptionHtml"": """&amp;D72&amp;""", ""direction"": """&amp;E72&amp;"""},")</f>
@@ -10305,7 +11206,7 @@
         <v>259</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G73" s="0" t="str">
         <f aca="false">IF(E73="","","{""sourceId"": """&amp;A73&amp;""", ""targetId"": """&amp;B73&amp;""", ""shortDescription"": """&amp;C73&amp;""", ""fullDescriptionHtml"": """&amp;D73&amp;""", ""direction"": """&amp;E73&amp;"""},")</f>
@@ -10320,7 +11221,7 @@
         <v>262</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G74" s="0" t="str">
         <f aca="false">IF(E74="","","{""sourceId"": """&amp;A74&amp;""", ""targetId"": """&amp;B74&amp;""", ""shortDescription"": """&amp;C74&amp;""", ""fullDescriptionHtml"": """&amp;D74&amp;""", ""direction"": """&amp;E74&amp;"""},")</f>
@@ -10335,7 +11236,7 @@
         <v>268</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G75" s="0" t="str">
         <f aca="false">IF(E75="","","{""sourceId"": """&amp;A75&amp;""", ""targetId"": """&amp;B75&amp;""", ""shortDescription"": """&amp;C75&amp;""", ""fullDescriptionHtml"": """&amp;D75&amp;""", ""direction"": """&amp;E75&amp;"""},")</f>
@@ -10350,7 +11251,7 @@
         <v>238</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G76" s="0" t="str">
         <f aca="false">IF(E76="","","{""sourceId"": """&amp;A76&amp;""", ""targetId"": """&amp;B76&amp;""", ""shortDescription"": """&amp;C76&amp;""", ""fullDescriptionHtml"": """&amp;D76&amp;""", ""direction"": """&amp;E76&amp;"""},")</f>
@@ -10365,7 +11266,7 @@
         <v>241</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G77" s="0" t="str">
         <f aca="false">IF(E77="","","{""sourceId"": """&amp;A77&amp;""", ""targetId"": """&amp;B77&amp;""", ""shortDescription"": """&amp;C77&amp;""", ""fullDescriptionHtml"": """&amp;D77&amp;""", ""direction"": """&amp;E77&amp;"""},")</f>
@@ -10380,7 +11281,7 @@
         <v>169</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G78" s="0" t="str">
         <f aca="false">IF(E78="","","{""sourceId"": """&amp;A78&amp;""", ""targetId"": """&amp;B78&amp;""", ""shortDescription"": """&amp;C78&amp;""", ""fullDescriptionHtml"": """&amp;D78&amp;""", ""direction"": """&amp;E78&amp;"""},")</f>
@@ -10395,7 +11296,7 @@
         <v>277</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G79" s="0" t="str">
         <f aca="false">IF(E79="","","{""sourceId"": """&amp;A79&amp;""", ""targetId"": """&amp;B79&amp;""", ""shortDescription"": """&amp;C79&amp;""", ""fullDescriptionHtml"": """&amp;D79&amp;""", ""direction"": """&amp;E79&amp;"""},")</f>
@@ -10410,7 +11311,7 @@
         <v>298</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G80" s="0" t="str">
         <f aca="false">IF(E80="","","{""sourceId"": """&amp;A80&amp;""", ""targetId"": """&amp;B80&amp;""", ""shortDescription"": """&amp;C80&amp;""", ""fullDescriptionHtml"": """&amp;D80&amp;""", ""direction"": """&amp;E80&amp;"""},")</f>
@@ -10425,7 +11326,7 @@
         <v>181</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G81" s="0" t="str">
         <f aca="false">IF(E81="","","{""sourceId"": """&amp;A81&amp;""", ""targetId"": """&amp;B81&amp;""", ""shortDescription"": """&amp;C81&amp;""", ""fullDescriptionHtml"": """&amp;D81&amp;""", ""direction"": """&amp;E81&amp;"""},")</f>
@@ -10440,7 +11341,7 @@
         <v>307</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G82" s="0" t="str">
         <f aca="false">IF(E82="","","{""sourceId"": """&amp;A82&amp;""", ""targetId"": """&amp;B82&amp;""", ""shortDescription"": """&amp;C82&amp;""", ""fullDescriptionHtml"": """&amp;D82&amp;""", ""direction"": """&amp;E82&amp;"""},")</f>
@@ -10455,7 +11356,7 @@
         <v>319</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G83" s="0" t="str">
         <f aca="false">IF(E83="","","{""sourceId"": """&amp;A83&amp;""", ""targetId"": """&amp;B83&amp;""", ""shortDescription"": """&amp;C83&amp;""", ""fullDescriptionHtml"": """&amp;D83&amp;""", ""direction"": """&amp;E83&amp;"""},")</f>
@@ -10470,7 +11371,7 @@
         <v>334</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G84" s="0" t="str">
         <f aca="false">IF(E84="","","{""sourceId"": """&amp;A84&amp;""", ""targetId"": """&amp;B84&amp;""", ""shortDescription"": """&amp;C84&amp;""", ""fullDescriptionHtml"": """&amp;D84&amp;""", ""direction"": """&amp;E84&amp;"""},")</f>
@@ -10485,7 +11386,7 @@
         <v>262</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G85" s="0" t="str">
         <f aca="false">IF(E85="","","{""sourceId"": """&amp;A85&amp;""", ""targetId"": """&amp;B85&amp;""", ""shortDescription"": """&amp;C85&amp;""", ""fullDescriptionHtml"": """&amp;D85&amp;""", ""direction"": """&amp;E85&amp;"""},")</f>
@@ -10500,7 +11401,7 @@
         <v>268</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G86" s="0" t="str">
         <f aca="false">IF(E86="","","{""sourceId"": """&amp;A86&amp;""", ""targetId"": """&amp;B86&amp;""", ""shortDescription"": """&amp;C86&amp;""", ""fullDescriptionHtml"": """&amp;D86&amp;""", ""direction"": """&amp;E86&amp;"""},")</f>
@@ -10515,7 +11416,7 @@
         <v>310</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G87" s="0" t="str">
         <f aca="false">IF(E87="","","{""sourceId"": """&amp;A87&amp;""", ""targetId"": """&amp;B87&amp;""", ""shortDescription"": """&amp;C87&amp;""", ""fullDescriptionHtml"": """&amp;D87&amp;""", ""direction"": """&amp;E87&amp;"""},")</f>
@@ -10530,7 +11431,7 @@
         <v>340</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G88" s="0" t="str">
         <f aca="false">IF(E88="","","{""sourceId"": """&amp;A88&amp;""", ""targetId"": """&amp;B88&amp;""", ""shortDescription"": """&amp;C88&amp;""", ""fullDescriptionHtml"": """&amp;D88&amp;""", ""direction"": """&amp;E88&amp;"""},")</f>
@@ -10545,7 +11446,7 @@
         <v>166</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G89" s="0" t="str">
         <f aca="false">IF(E89="","","{""sourceId"": """&amp;A89&amp;""", ""targetId"": """&amp;B89&amp;""", ""shortDescription"": """&amp;C89&amp;""", ""fullDescriptionHtml"": """&amp;D89&amp;""", ""direction"": """&amp;E89&amp;"""},")</f>
@@ -10560,7 +11461,7 @@
         <v>169</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G90" s="0" t="str">
         <f aca="false">IF(E90="","","{""sourceId"": """&amp;A90&amp;""", ""targetId"": """&amp;B90&amp;""", ""shortDescription"": """&amp;C90&amp;""", ""fullDescriptionHtml"": """&amp;D90&amp;""", ""direction"": """&amp;E90&amp;"""},")</f>
@@ -10575,7 +11476,7 @@
         <v>172</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G91" s="0" t="str">
         <f aca="false">IF(E91="","","{""sourceId"": """&amp;A91&amp;""", ""targetId"": """&amp;B91&amp;""", ""shortDescription"": """&amp;C91&amp;""", ""fullDescriptionHtml"": """&amp;D91&amp;""", ""direction"": """&amp;E91&amp;"""},")</f>
@@ -10590,7 +11491,7 @@
         <v>175</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G92" s="0" t="str">
         <f aca="false">IF(E92="","","{""sourceId"": """&amp;A92&amp;""", ""targetId"": """&amp;B92&amp;""", ""shortDescription"": """&amp;C92&amp;""", ""fullDescriptionHtml"": """&amp;D92&amp;""", ""direction"": """&amp;E92&amp;"""},")</f>
@@ -10605,7 +11506,7 @@
         <v>355</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G93" s="0" t="str">
         <f aca="false">IF(E93="","","{""sourceId"": """&amp;A93&amp;""", ""targetId"": """&amp;B93&amp;""", ""shortDescription"": """&amp;C93&amp;""", ""fullDescriptionHtml"": """&amp;D93&amp;""", ""direction"": """&amp;E93&amp;"""},")</f>
@@ -10620,7 +11521,7 @@
         <v>364</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G94" s="0" t="str">
         <f aca="false">IF(E94="","","{""sourceId"": """&amp;A94&amp;""", ""targetId"": """&amp;B94&amp;""", ""shortDescription"": """&amp;C94&amp;""", ""fullDescriptionHtml"": """&amp;D94&amp;""", ""direction"": """&amp;E94&amp;"""},")</f>
@@ -10635,7 +11536,7 @@
         <v>373</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G95" s="0" t="str">
         <f aca="false">IF(E95="","","{""sourceId"": """&amp;A95&amp;""", ""targetId"": """&amp;B95&amp;""", ""shortDescription"": """&amp;C95&amp;""", ""fullDescriptionHtml"": """&amp;D95&amp;""", ""direction"": """&amp;E95&amp;"""},")</f>
@@ -10650,7 +11551,7 @@
         <v>187</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G96" s="0" t="str">
         <f aca="false">IF(E96="","","{""sourceId"": """&amp;A96&amp;""", ""targetId"": """&amp;B96&amp;""", ""shortDescription"": """&amp;C96&amp;""", ""fullDescriptionHtml"": """&amp;D96&amp;""", ""direction"": """&amp;E96&amp;"""},")</f>
@@ -10662,10 +11563,10 @@
         <v>63</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>385</v>
+        <v>971</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G97" s="0" t="str">
         <f aca="false">IF(E97="","","{""sourceId"": """&amp;A97&amp;""", ""targetId"": """&amp;B97&amp;""", ""shortDescription"": """&amp;C97&amp;""", ""fullDescriptionHtml"": """&amp;D97&amp;""", ""direction"": """&amp;E97&amp;"""},")</f>
@@ -10680,7 +11581,7 @@
         <v>178</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G98" s="0" t="str">
         <f aca="false">IF(E98="","","{""sourceId"": """&amp;A98&amp;""", ""targetId"": """&amp;B98&amp;""", ""shortDescription"": """&amp;C98&amp;""", ""fullDescriptionHtml"": """&amp;D98&amp;""", ""direction"": """&amp;E98&amp;"""},")</f>
@@ -10695,7 +11596,7 @@
         <v>394</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G99" s="0" t="str">
         <f aca="false">IF(E99="","","{""sourceId"": """&amp;A99&amp;""", ""targetId"": """&amp;B99&amp;""", ""shortDescription"": """&amp;C99&amp;""", ""fullDescriptionHtml"": """&amp;D99&amp;""", ""direction"": """&amp;E99&amp;"""},")</f>
@@ -10710,7 +11611,7 @@
         <v>211</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G100" s="0" t="str">
         <f aca="false">IF(E100="","","{""sourceId"": """&amp;A100&amp;""", ""targetId"": """&amp;B100&amp;""", ""shortDescription"": """&amp;C100&amp;""", ""fullDescriptionHtml"": """&amp;D100&amp;""", ""direction"": """&amp;E100&amp;"""},")</f>
@@ -10725,7 +11626,7 @@
         <v>214</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G101" s="0" t="str">
         <f aca="false">IF(E101="","","{""sourceId"": """&amp;A101&amp;""", ""targetId"": """&amp;B101&amp;""", ""shortDescription"": """&amp;C101&amp;""", ""fullDescriptionHtml"": """&amp;D101&amp;""", ""direction"": """&amp;E101&amp;"""},")</f>
@@ -10740,7 +11641,7 @@
         <v>409</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G102" s="0" t="str">
         <f aca="false">IF(E102="","","{""sourceId"": """&amp;A102&amp;""", ""targetId"": """&amp;B102&amp;""", ""shortDescription"": """&amp;C102&amp;""", ""fullDescriptionHtml"": """&amp;D102&amp;""", ""direction"": """&amp;E102&amp;"""},")</f>
@@ -10755,7 +11656,7 @@
         <v>184</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G103" s="0" t="str">
         <f aca="false">IF(E103="","","{""sourceId"": """&amp;A103&amp;""", ""targetId"": """&amp;B103&amp;""", ""shortDescription"": """&amp;C103&amp;""", ""fullDescriptionHtml"": """&amp;D103&amp;""", ""direction"": """&amp;E103&amp;"""},")</f>
@@ -10770,7 +11671,7 @@
         <v>187</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G104" s="0" t="str">
         <f aca="false">IF(E104="","","{""sourceId"": """&amp;A104&amp;""", ""targetId"": """&amp;B104&amp;""", ""shortDescription"": """&amp;C104&amp;""", ""fullDescriptionHtml"": """&amp;D104&amp;""", ""direction"": """&amp;E104&amp;"""},")</f>
@@ -10785,7 +11686,7 @@
         <v>421</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G105" s="0" t="str">
         <f aca="false">IF(E105="","","{""sourceId"": """&amp;A105&amp;""", ""targetId"": """&amp;B105&amp;""", ""shortDescription"": """&amp;C105&amp;""", ""fullDescriptionHtml"": """&amp;D105&amp;""", ""direction"": """&amp;E105&amp;"""},")</f>
@@ -10800,7 +11701,7 @@
         <v>430</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G106" s="0" t="str">
         <f aca="false">IF(E106="","","{""sourceId"": """&amp;A106&amp;""", ""targetId"": """&amp;B106&amp;""", ""shortDescription"": """&amp;C106&amp;""", ""fullDescriptionHtml"": """&amp;D106&amp;""", ""direction"": """&amp;E106&amp;"""},")</f>
@@ -10815,7 +11716,7 @@
         <v>439</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G107" s="0" t="str">
         <f aca="false">IF(E107="","","{""sourceId"": """&amp;A107&amp;""", ""targetId"": """&amp;B107&amp;""", ""shortDescription"": """&amp;C107&amp;""", ""fullDescriptionHtml"": """&amp;D107&amp;""", ""direction"": """&amp;E107&amp;"""},")</f>
@@ -10830,7 +11731,7 @@
         <v>448</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G108" s="0" t="str">
         <f aca="false">IF(E108="","","{""sourceId"": """&amp;A108&amp;""", ""targetId"": """&amp;B108&amp;""", ""shortDescription"": """&amp;C108&amp;""", ""fullDescriptionHtml"": """&amp;D108&amp;""", ""direction"": """&amp;E108&amp;"""},")</f>
@@ -10845,7 +11746,7 @@
         <v>349</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G109" s="0" t="str">
         <f aca="false">IF(E109="","","{""sourceId"": """&amp;A109&amp;""", ""targetId"": """&amp;B109&amp;""", ""shortDescription"": """&amp;C109&amp;""", ""fullDescriptionHtml"": """&amp;D109&amp;""", ""direction"": """&amp;E109&amp;"""},")</f>
@@ -10860,7 +11761,7 @@
         <v>457</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G110" s="0" t="str">
         <f aca="false">IF(E110="","","{""sourceId"": """&amp;A110&amp;""", ""targetId"": """&amp;B110&amp;""", ""shortDescription"": """&amp;C110&amp;""", ""fullDescriptionHtml"": """&amp;D110&amp;""", ""direction"": """&amp;E110&amp;"""},")</f>
@@ -10875,7 +11776,7 @@
         <v>469</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G111" s="0" t="str">
         <f aca="false">IF(E111="","","{""sourceId"": """&amp;A111&amp;""", ""targetId"": """&amp;B111&amp;""", ""shortDescription"": """&amp;C111&amp;""", ""fullDescriptionHtml"": """&amp;D111&amp;""", ""direction"": """&amp;E111&amp;"""},")</f>
@@ -10892,7 +11793,7 @@
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F112" s="0"/>
       <c r="G112" s="0" t="str">
@@ -10911,7 +11812,7 @@
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F113" s="0"/>
       <c r="G113" s="0" t="str">
@@ -10930,7 +11831,7 @@
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F114" s="0"/>
       <c r="G114" s="0" t="str">
@@ -10949,7 +11850,7 @@
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F115" s="0"/>
       <c r="G115" s="0" t="str">
@@ -10968,7 +11869,7 @@
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F116" s="0"/>
       <c r="G116" s="0" t="str">
@@ -10987,7 +11888,7 @@
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F117" s="0"/>
       <c r="G117" s="0" t="str">
@@ -11006,7 +11907,7 @@
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F118" s="0"/>
       <c r="G118" s="0" t="str">
@@ -11025,7 +11926,7 @@
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F119" s="0"/>
       <c r="G119" s="0" t="str">
@@ -11044,7 +11945,7 @@
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F120" s="0"/>
       <c r="G120" s="0" t="str">
@@ -11063,7 +11964,7 @@
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F121" s="0"/>
       <c r="G121" s="0" t="str">
@@ -11082,7 +11983,7 @@
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F122" s="0"/>
       <c r="G122" s="0" t="str">
@@ -11101,7 +12002,7 @@
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F123" s="0"/>
       <c r="G123" s="0" t="str">
@@ -11120,7 +12021,7 @@
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F124" s="0"/>
       <c r="G124" s="0" t="str">
@@ -11139,7 +12040,7 @@
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F125" s="0"/>
       <c r="G125" s="0" t="str">
@@ -11158,7 +12059,7 @@
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F126" s="0"/>
       <c r="G126" s="0" t="str">
@@ -11177,7 +12078,7 @@
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F127" s="0"/>
       <c r="G127" s="0" t="str">
@@ -11196,7 +12097,7 @@
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F128" s="0"/>
       <c r="G128" s="0" t="str">
@@ -11215,7 +12116,7 @@
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F129" s="0"/>
       <c r="G129" s="0" t="str">
@@ -11234,7 +12135,7 @@
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F130" s="0"/>
       <c r="G130" s="0" t="str">
@@ -11253,7 +12154,7 @@
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F131" s="0"/>
       <c r="G131" s="0" t="str">
@@ -11272,7 +12173,7 @@
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F132" s="0"/>
       <c r="G132" s="0" t="str">
@@ -11291,7 +12192,7 @@
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F133" s="0"/>
       <c r="G133" s="0" t="str">
@@ -11310,7 +12211,7 @@
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F134" s="0"/>
       <c r="G134" s="0" t="str">
@@ -11329,7 +12230,7 @@
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F135" s="0"/>
       <c r="G135" s="0" t="str">
@@ -11348,7 +12249,7 @@
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F136" s="0"/>
       <c r="G136" s="0" t="str">
@@ -11367,7 +12268,7 @@
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F137" s="0"/>
       <c r="G137" s="0" t="str">
@@ -11386,7 +12287,7 @@
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F138" s="0"/>
       <c r="G138" s="0" t="str">
@@ -11405,7 +12306,7 @@
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F139" s="0"/>
       <c r="G139" s="0" t="str">
@@ -11424,7 +12325,7 @@
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F140" s="0"/>
       <c r="G140" s="0" t="str">
@@ -11443,7 +12344,7 @@
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F141" s="0"/>
       <c r="G141" s="0" t="str">
@@ -11462,7 +12363,7 @@
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F142" s="0"/>
       <c r="G142" s="0" t="str">
@@ -11481,7 +12382,7 @@
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F143" s="0"/>
       <c r="G143" s="0" t="str">
@@ -11500,7 +12401,7 @@
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F144" s="0"/>
       <c r="G144" s="0" t="str">
@@ -11519,7 +12420,7 @@
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F145" s="0"/>
       <c r="G145" s="0" t="str">
@@ -11538,7 +12439,7 @@
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F146" s="0"/>
       <c r="G146" s="0" t="str">
@@ -11557,7 +12458,7 @@
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F147" s="0"/>
       <c r="G147" s="0" t="str">
@@ -11576,7 +12477,7 @@
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F148" s="0"/>
       <c r="G148" s="0" t="str">
@@ -11595,7 +12496,7 @@
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F149" s="0"/>
       <c r="G149" s="0" t="str">
@@ -11614,7 +12515,7 @@
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F150" s="0"/>
       <c r="G150" s="0" t="str">
@@ -11633,7 +12534,7 @@
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F151" s="0"/>
       <c r="G151" s="0" t="str">
@@ -11652,7 +12553,7 @@
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F152" s="0"/>
       <c r="G152" s="0" t="str">
@@ -11671,7 +12572,7 @@
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F153" s="0"/>
       <c r="G153" s="0" t="str">
@@ -11690,7 +12591,7 @@
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F154" s="0"/>
       <c r="G154" s="0" t="str">
@@ -11709,7 +12610,7 @@
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F155" s="0"/>
       <c r="G155" s="0" t="str">
@@ -11728,7 +12629,7 @@
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F156" s="0"/>
       <c r="G156" s="0" t="str">
@@ -11747,7 +12648,7 @@
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F157" s="0"/>
       <c r="G157" s="0" t="str">
@@ -11766,7 +12667,7 @@
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F158" s="0"/>
       <c r="G158" s="0" t="str">
@@ -11785,7 +12686,7 @@
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F159" s="0"/>
       <c r="G159" s="0" t="str">
@@ -11804,7 +12705,7 @@
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F160" s="0"/>
       <c r="G160" s="0" t="str">
@@ -11823,7 +12724,7 @@
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F161" s="0"/>
       <c r="G161" s="0" t="str">
@@ -11842,7 +12743,7 @@
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F162" s="0"/>
       <c r="G162" s="0" t="str">
@@ -11861,7 +12762,7 @@
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F163" s="0"/>
       <c r="G163" s="0" t="str">
@@ -11880,7 +12781,7 @@
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F164" s="0"/>
       <c r="G164" s="0" t="str">
@@ -11899,7 +12800,7 @@
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F165" s="0"/>
       <c r="G165" s="0" t="str">
@@ -11918,7 +12819,7 @@
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F166" s="0"/>
       <c r="G166" s="0" t="str">
@@ -11937,7 +12838,7 @@
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F167" s="0"/>
       <c r="G167" s="0" t="str">
@@ -11956,7 +12857,7 @@
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F168" s="0"/>
       <c r="G168" s="0" t="str">
@@ -11975,7 +12876,7 @@
       <c r="C169" s="0"/>
       <c r="D169" s="0"/>
       <c r="E169" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G169" s="0" t="str">
         <f aca="false">IF(E169="","","{""sourceId"": """&amp;A169&amp;""", ""targetId"": """&amp;B169&amp;""", ""shortDescription"": """&amp;C169&amp;""", ""fullDescriptionHtml"": """&amp;D169&amp;""", ""direction"": """&amp;E169&amp;"""},")</f>
@@ -11992,7 +12893,7 @@
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F170" s="0"/>
       <c r="G170" s="0" t="str">
@@ -12011,7 +12912,7 @@
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F171" s="0"/>
       <c r="G171" s="0" t="str">
@@ -12030,7 +12931,7 @@
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F172" s="0"/>
       <c r="G172" s="0" t="str">
@@ -12049,7 +12950,7 @@
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F173" s="0"/>
       <c r="G173" s="0" t="str">
@@ -12068,7 +12969,7 @@
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F174" s="0"/>
       <c r="G174" s="0" t="str">
@@ -12087,7 +12988,7 @@
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F175" s="0"/>
       <c r="G175" s="0" t="str">
@@ -12106,7 +13007,7 @@
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F176" s="0"/>
       <c r="G176" s="0" t="str">
@@ -12125,7 +13026,7 @@
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F177" s="0"/>
       <c r="G177" s="0" t="str">
@@ -12144,7 +13045,7 @@
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F178" s="0"/>
       <c r="G178" s="0" t="str">
@@ -12163,7 +13064,7 @@
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F179" s="0"/>
       <c r="G179" s="0" t="str">
@@ -12177,12 +13078,12 @@
         <v>382</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>385</v>
+        <v>971</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F180" s="0"/>
       <c r="G180" s="0" t="str">
@@ -12201,7 +13102,7 @@
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F181" s="0"/>
       <c r="G181" s="0" t="str">
@@ -12220,7 +13121,7 @@
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F182" s="0"/>
       <c r="G182" s="0" t="str">
@@ -12239,7 +13140,7 @@
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F183" s="0"/>
       <c r="G183" s="0" t="str">
@@ -12258,7 +13159,7 @@
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F184" s="0"/>
       <c r="G184" s="0" t="str">
@@ -12277,7 +13178,7 @@
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F185" s="0"/>
       <c r="G185" s="0" t="str">
@@ -12296,7 +13197,7 @@
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F186" s="0"/>
       <c r="G186" s="0" t="str">
@@ -12315,7 +13216,7 @@
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F187" s="0"/>
       <c r="G187" s="0" t="str">
@@ -12334,7 +13235,7 @@
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F188" s="0"/>
       <c r="G188" s="0" t="str">
@@ -12353,7 +13254,7 @@
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F189" s="0"/>
       <c r="G189" s="0" t="str">
@@ -12372,7 +13273,7 @@
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F190" s="0"/>
       <c r="G190" s="0" t="str">
@@ -12391,7 +13292,7 @@
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F191" s="0"/>
       <c r="G191" s="0" t="str">
@@ -12410,7 +13311,7 @@
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F192" s="0"/>
       <c r="G192" s="0" t="str">
@@ -12429,7 +13330,7 @@
       <c r="C193" s="0"/>
       <c r="D193" s="0"/>
       <c r="E193" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G193" s="0" t="str">
         <f aca="false">IF(E193="","","{""sourceId"": """&amp;A193&amp;""", ""targetId"": """&amp;B193&amp;""", ""shortDescription"": """&amp;C193&amp;""", ""fullDescriptionHtml"": """&amp;D193&amp;""", ""direction"": """&amp;E193&amp;"""},")</f>
@@ -12446,7 +13347,7 @@
       <c r="C194" s="0"/>
       <c r="D194" s="0"/>
       <c r="E194" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G194" s="0" t="str">
         <f aca="false">IF(E194="","","{""sourceId"": """&amp;A194&amp;""", ""targetId"": """&amp;B194&amp;""", ""shortDescription"": """&amp;C194&amp;""", ""fullDescriptionHtml"": """&amp;D194&amp;""", ""direction"": """&amp;E194&amp;"""},")</f>
@@ -12463,7 +13364,7 @@
       <c r="C195" s="0"/>
       <c r="D195" s="0"/>
       <c r="E195" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G195" s="0" t="str">
         <f aca="false">IF(E195="","","{""sourceId"": """&amp;A195&amp;""", ""targetId"": """&amp;B195&amp;""", ""shortDescription"": """&amp;C195&amp;""", ""fullDescriptionHtml"": """&amp;D195&amp;""", ""direction"": """&amp;E195&amp;"""},")</f>
@@ -12480,7 +13381,7 @@
       <c r="C196" s="0"/>
       <c r="D196" s="0"/>
       <c r="E196" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="G196" s="0" t="str">
         <f aca="false">IF(E196="","","{""sourceId"": """&amp;A196&amp;""", ""targetId"": """&amp;B196&amp;""", ""shortDescription"": """&amp;C196&amp;""", ""fullDescriptionHtml"": """&amp;D196&amp;""", ""direction"": """&amp;E196&amp;"""},")</f>
@@ -12497,7 +13398,7 @@
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F197" s="0"/>
       <c r="G197" s="0" t="str">
@@ -12516,7 +13417,7 @@
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F198" s="0"/>
       <c r="G198" s="0" t="str">
@@ -12535,7 +13436,7 @@
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F199" s="0"/>
       <c r="G199" s="0" t="str">
@@ -12554,7 +13455,7 @@
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F200" s="0"/>
       <c r="G200" s="0" t="str">
@@ -12573,7 +13474,7 @@
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F201" s="0"/>
       <c r="G201" s="0" t="str">
@@ -12592,7 +13493,7 @@
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F202" s="0"/>
       <c r="G202" s="0" t="str">
@@ -12611,7 +13512,7 @@
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F203" s="0"/>
       <c r="G203" s="0" t="str">
@@ -12630,7 +13531,7 @@
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F204" s="0"/>
       <c r="G204" s="0" t="str">
@@ -12649,7 +13550,7 @@
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F205" s="0"/>
       <c r="G205" s="0" t="str">
@@ -12668,7 +13569,7 @@
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F206" s="0"/>
       <c r="G206" s="0" t="str">
@@ -12687,7 +13588,7 @@
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F207" s="0"/>
       <c r="G207" s="0" t="str">
@@ -12706,7 +13607,7 @@
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F208" s="0"/>
       <c r="G208" s="0" t="str">
@@ -12725,7 +13626,7 @@
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F209" s="0"/>
       <c r="G209" s="0" t="str">
@@ -12744,7 +13645,7 @@
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F210" s="0"/>
       <c r="G210" s="0" t="str">
@@ -12763,7 +13664,7 @@
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F211" s="0"/>
       <c r="G211" s="0" t="str">
@@ -12782,7 +13683,7 @@
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F212" s="0"/>
       <c r="G212" s="0" t="str">
@@ -12801,7 +13702,7 @@
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F213" s="0"/>
       <c r="G213" s="0" t="str">
@@ -12820,7 +13721,7 @@
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F214" s="0"/>
       <c r="G214" s="0" t="str">
@@ -12839,7 +13740,7 @@
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F215" s="0"/>
       <c r="G215" s="0" t="str">
@@ -12858,7 +13759,7 @@
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F216" s="0"/>
       <c r="G216" s="0" t="str">
@@ -12877,7 +13778,7 @@
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F217" s="0"/>
       <c r="G217" s="0" t="str">
@@ -12896,7 +13797,7 @@
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F218" s="0"/>
       <c r="G218" s="0" t="str">
@@ -12915,7 +13816,7 @@
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F219" s="0"/>
       <c r="G219" s="0" t="str">
@@ -12934,7 +13835,7 @@
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F220" s="0"/>
       <c r="G220" s="0" t="str">
@@ -12953,7 +13854,7 @@
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F221" s="0"/>
       <c r="G221" s="0" t="str">
@@ -12972,7 +13873,7 @@
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F222" s="0"/>
       <c r="G222" s="0" t="str">
@@ -12991,7 +13892,7 @@
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F223" s="0"/>
       <c r="G223" s="0" t="str">
@@ -13010,7 +13911,7 @@
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F224" s="0"/>
       <c r="G224" s="0" t="str">
@@ -13029,7 +13930,7 @@
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F225" s="0"/>
       <c r="G225" s="0" t="str">
@@ -13048,7 +13949,7 @@
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F226" s="0"/>
       <c r="G226" s="0" t="str">
@@ -13067,7 +13968,7 @@
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F227" s="0"/>
       <c r="G227" s="0" t="str">
@@ -13086,7 +13987,7 @@
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F228" s="0"/>
       <c r="G228" s="0" t="str">
@@ -13105,7 +14006,7 @@
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F229" s="0"/>
       <c r="G229" s="0" t="str">
@@ -13124,7 +14025,7 @@
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F230" s="0"/>
       <c r="G230" s="0" t="str">
@@ -13143,7 +14044,7 @@
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F231" s="0"/>
       <c r="G231" s="0" t="str">
@@ -13162,7 +14063,7 @@
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F232" s="0"/>
       <c r="G232" s="0" t="str">
@@ -13181,7 +14082,7 @@
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F233" s="0"/>
       <c r="G233" s="0" t="str">
@@ -13200,7 +14101,7 @@
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F234" s="0"/>
       <c r="G234" s="0" t="str">
@@ -13219,12 +14120,12 @@
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F235" s="0"/>
       <c r="G235" s="0" t="str">
         <f aca="false">IF(E235="","","{""sourceId"": """&amp;A235&amp;""", ""targetId"": """&amp;B235&amp;""", ""shortDescription"": """&amp;C235&amp;""", ""fullDescriptionHtml"": """&amp;D235&amp;""", ""direction"": """&amp;E235&amp;"""},")</f>
-        <v>{"sourceId": "ADRIEN_S_BODYGUARD", "targetId": "GORIZILLA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "PLACIDE_IT", "targetId": "GORIZILLA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ235" s="2"/>
     </row>
@@ -13238,7 +14139,7 @@
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F236" s="0"/>
       <c r="G236" s="0" t="str">
@@ -13257,7 +14158,7 @@
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F237" s="0"/>
       <c r="G237" s="0" t="str">
@@ -13276,12 +14177,12 @@
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F238" s="0"/>
       <c r="G238" s="0" t="str">
         <f aca="false">IF(E238="","","{""sourceId"": """&amp;A238&amp;""", ""targetId"": """&amp;B238&amp;""", ""shortDescription"": """&amp;C238&amp;""", ""fullDescriptionHtml"": """&amp;D238&amp;""", ""direction"": """&amp;E238&amp;"""},")</f>
-        <v>{"sourceId": "MR__DAMOCLES", "targetId": "DARK_OWL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "DENIS_DAMOCLES", "targetId": "DARK_OWL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ238" s="2"/>
     </row>
@@ -13295,12 +14196,12 @@
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F239" s="0"/>
       <c r="G239" s="0" t="str">
         <f aca="false">IF(E239="","","{""sourceId"": """&amp;A239&amp;""", ""targetId"": """&amp;B239&amp;""", ""shortDescription"": """&amp;C239&amp;""", ""fullDescriptionHtml"": """&amp;D239&amp;""", ""direction"": """&amp;E239&amp;"""},")</f>
-        <v>{"sourceId": "MR__DAMOCLES", "targetId": "THE_OWL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "DENIS_DAMOCLES", "targetId": "THE_OWL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ239" s="2"/>
     </row>
@@ -13314,7 +14215,7 @@
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F240" s="0"/>
       <c r="G240" s="0" t="str">
@@ -13333,7 +14234,7 @@
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
       <c r="E241" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F241" s="0"/>
       <c r="G241" s="0" t="str">
@@ -13352,7 +14253,7 @@
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F242" s="0"/>
       <c r="G242" s="0" t="str">
@@ -13371,7 +14272,7 @@
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
       <c r="E243" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F243" s="0"/>
       <c r="G243" s="0" t="str">
@@ -13390,7 +14291,7 @@
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F244" s="0"/>
       <c r="G244" s="0" t="str">
@@ -13409,7 +14310,7 @@
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F245" s="0"/>
       <c r="G245" s="0" t="str">
@@ -13428,7 +14329,7 @@
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F246" s="0"/>
       <c r="G246" s="0" t="str">
@@ -13447,7 +14348,7 @@
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F247" s="0"/>
       <c r="G247" s="0" t="str">
@@ -13466,7 +14367,7 @@
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F248" s="0"/>
       <c r="G248" s="0" t="str">
@@ -13485,7 +14386,7 @@
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F249" s="0"/>
       <c r="G249" s="0" t="str">
@@ -13504,7 +14405,7 @@
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F250" s="0"/>
       <c r="G250" s="0" t="str">
@@ -13523,7 +14424,7 @@
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F251" s="0"/>
       <c r="G251" s="0" t="str">
@@ -13542,7 +14443,7 @@
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
       <c r="E252" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F252" s="0"/>
       <c r="G252" s="0" t="str">
@@ -13561,7 +14462,7 @@
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F253" s="0"/>
       <c r="G253" s="0" t="str">
@@ -13580,7 +14481,7 @@
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F254" s="0"/>
       <c r="G254" s="0" t="str">
@@ -13599,7 +14500,7 @@
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F255" s="0"/>
       <c r="G255" s="0" t="str">
@@ -13618,7 +14519,7 @@
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
       <c r="E256" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F256" s="0"/>
       <c r="G256" s="0" t="str">
@@ -13637,7 +14538,7 @@
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
       <c r="E257" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F257" s="0"/>
       <c r="G257" s="0" t="str">
@@ -13656,7 +14557,7 @@
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F258" s="0"/>
       <c r="G258" s="0" t="str">
@@ -13675,7 +14576,7 @@
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
       <c r="E259" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F259" s="0"/>
       <c r="G259" s="0" t="str">
@@ -13694,7 +14595,7 @@
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F260" s="0"/>
       <c r="G260" s="0" t="str">
@@ -13713,7 +14614,7 @@
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F261" s="0"/>
       <c r="G261" s="0" t="str">
@@ -13732,7 +14633,7 @@
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
       <c r="E262" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F262" s="0"/>
       <c r="G262" s="0" t="str">
@@ -13751,7 +14652,7 @@
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
       <c r="E263" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F263" s="0"/>
       <c r="G263" s="0" t="str">
@@ -13770,7 +14671,7 @@
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
       <c r="E264" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F264" s="0"/>
       <c r="G264" s="0" t="str">
@@ -13789,7 +14690,7 @@
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
       <c r="E265" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F265" s="0"/>
       <c r="G265" s="0" t="str">
@@ -13808,7 +14709,7 @@
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F266" s="0"/>
       <c r="G266" s="0" t="str">
@@ -13827,12 +14728,12 @@
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F267" s="0"/>
       <c r="G267" s="0" t="str">
         <f aca="false">IF(E267="","","{""sourceId"": """&amp;A267&amp;""", ""targetId"": """&amp;B267&amp;""", ""shortDescription"": """&amp;C267&amp;""", ""fullDescriptionHtml"": """&amp;D267&amp;""", ""direction"": """&amp;E267&amp;"""},")</f>
-        <v>{"sourceId": "MS__MENDELEIEV", "targetId": "KWAMIBUSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "OLGA_MENDELEIEV", "targetId": "KWAMIBUSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ267" s="2"/>
     </row>
@@ -13846,7 +14747,7 @@
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
       <c r="E268" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F268" s="0"/>
       <c r="G268" s="0" t="str">
@@ -13865,7 +14766,7 @@
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
       <c r="E269" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F269" s="0"/>
       <c r="G269" s="0" t="str">
@@ -13884,7 +14785,7 @@
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
       <c r="E270" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F270" s="0"/>
       <c r="G270" s="0" t="str">
@@ -13903,7 +14804,7 @@
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F271" s="0"/>
       <c r="G271" s="0" t="str">
@@ -13922,7 +14823,7 @@
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F272" s="0"/>
       <c r="G272" s="0" t="str">
@@ -13941,7 +14842,7 @@
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F273" s="0"/>
       <c r="G273" s="0" t="str">
@@ -13960,7 +14861,7 @@
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F274" s="0"/>
       <c r="G274" s="0" t="str">
@@ -13979,7 +14880,7 @@
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F275" s="0"/>
       <c r="G275" s="0" t="str">
@@ -13998,7 +14899,7 @@
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F276" s="0"/>
       <c r="G276" s="0" t="str">
@@ -14017,7 +14918,7 @@
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F277" s="0"/>
       <c r="G277" s="0" t="str">
@@ -14036,7 +14937,7 @@
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F278" s="0"/>
       <c r="G278" s="0" t="str">
@@ -14055,7 +14956,7 @@
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F279" s="0"/>
       <c r="G279" s="0" t="str">
@@ -14074,7 +14975,7 @@
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F280" s="0"/>
       <c r="G280" s="0" t="str">
@@ -14093,7 +14994,7 @@
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F281" s="0"/>
       <c r="G281" s="0" t="str">
@@ -14112,7 +15013,7 @@
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
       <c r="E282" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F282" s="0"/>
       <c r="G282" s="0" t="str">
@@ -14131,7 +15032,7 @@
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
       <c r="E283" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F283" s="0"/>
       <c r="G283" s="0" t="str">
@@ -14150,7 +15051,7 @@
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F284" s="0"/>
       <c r="G284" s="0" t="str">
@@ -14169,7 +15070,7 @@
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F285" s="0"/>
       <c r="G285" s="0" t="str">
@@ -14188,7 +15089,7 @@
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F286" s="0"/>
       <c r="G286" s="0" t="str">
@@ -14207,7 +15108,7 @@
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F287" s="0"/>
       <c r="G287" s="0" t="str">
@@ -14226,7 +15127,7 @@
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F288" s="0"/>
       <c r="G288" s="0" t="str">
@@ -14245,7 +15146,7 @@
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F289" s="0"/>
       <c r="G289" s="0" t="str">
@@ -14264,7 +15165,7 @@
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F290" s="0"/>
       <c r="G290" s="0" t="str">
@@ -14283,7 +15184,7 @@
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F291" s="0"/>
       <c r="G291" s="0" t="str">
@@ -14302,7 +15203,7 @@
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F292" s="0"/>
       <c r="G292" s="0" t="str">
@@ -14321,7 +15222,7 @@
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F293" s="0"/>
       <c r="G293" s="0" t="str">
@@ -14340,7 +15241,7 @@
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F294" s="0"/>
       <c r="G294" s="0" t="str">
@@ -14359,7 +15260,7 @@
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F295" s="0"/>
       <c r="G295" s="0" t="str">
@@ -14378,7 +15279,7 @@
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F296" s="0"/>
       <c r="G296" s="0" t="str">
@@ -14397,7 +15298,7 @@
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F297" s="0"/>
       <c r="G297" s="0" t="str">
@@ -14416,7 +15317,7 @@
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="F298" s="0"/>
       <c r="G298" s="0" t="str">
@@ -14435,7 +15336,7 @@
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F299" s="0"/>
       <c r="G299" s="0" t="str">
@@ -14454,7 +15355,7 @@
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F300" s="0"/>
       <c r="G300" s="0" t="str">
@@ -14473,7 +15374,7 @@
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F301" s="0"/>
       <c r="G301" s="0" t="str">
@@ -14492,7 +15393,7 @@
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F302" s="0"/>
       <c r="G302" s="0" t="str">
@@ -14511,7 +15412,7 @@
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F303" s="0"/>
       <c r="G303" s="0" t="str">
@@ -14530,7 +15431,7 @@
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F304" s="0"/>
       <c r="G304" s="0" t="str">
@@ -14549,7 +15450,7 @@
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F305" s="0"/>
       <c r="G305" s="0" t="str">
@@ -14568,7 +15469,7 @@
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F306" s="0"/>
       <c r="G306" s="0" t="str">
@@ -14587,7 +15488,7 @@
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F307" s="0"/>
       <c r="G307" s="0" t="str">
@@ -14606,7 +15507,7 @@
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F308" s="0"/>
       <c r="G308" s="0" t="str">
@@ -14625,7 +15526,7 @@
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F309" s="0"/>
       <c r="G309" s="0" t="str">
@@ -14644,7 +15545,7 @@
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F310" s="0"/>
       <c r="G310" s="0" t="str">
@@ -14663,7 +15564,7 @@
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F311" s="0"/>
       <c r="G311" s="0" t="str">
@@ -14682,7 +15583,7 @@
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F312" s="0"/>
       <c r="G312" s="0" t="str">
@@ -14701,7 +15602,7 @@
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F313" s="0"/>
       <c r="G313" s="0" t="str">
@@ -14720,7 +15621,7 @@
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F314" s="0"/>
       <c r="G314" s="0" t="str">
@@ -14739,7 +15640,7 @@
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F315" s="0"/>
       <c r="G315" s="0" t="str">
@@ -14758,7 +15659,7 @@
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F316" s="0"/>
       <c r="G316" s="0" t="str">
@@ -14777,7 +15678,7 @@
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F317" s="0"/>
       <c r="G317" s="0" t="str">
@@ -14796,7 +15697,7 @@
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F318" s="0"/>
       <c r="G318" s="0" t="str">
@@ -14815,7 +15716,7 @@
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F319" s="0"/>
       <c r="G319" s="0" t="str">
@@ -14834,7 +15735,7 @@
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F320" s="0"/>
       <c r="G320" s="0" t="str">
@@ -14853,7 +15754,7 @@
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F321" s="0"/>
       <c r="G321" s="0" t="str">
@@ -14872,7 +15773,7 @@
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F322" s="0"/>
       <c r="G322" s="0" t="str">
@@ -14891,7 +15792,7 @@
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F323" s="0"/>
       <c r="G323" s="0" t="str">
@@ -14910,7 +15811,7 @@
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F324" s="0"/>
       <c r="G324" s="0" t="str">
@@ -14929,7 +15830,7 @@
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F325" s="0"/>
       <c r="G325" s="0" t="str">
@@ -14948,7 +15849,7 @@
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F326" s="0"/>
       <c r="G326" s="0" t="str">
@@ -14967,7 +15868,7 @@
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F327" s="0"/>
       <c r="G327" s="0" t="str">
@@ -14986,7 +15887,7 @@
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F328" s="0"/>
       <c r="G328" s="0" t="str">
@@ -15005,7 +15906,7 @@
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F329" s="0"/>
       <c r="G329" s="0" t="str">
@@ -15024,7 +15925,7 @@
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F330" s="0"/>
       <c r="G330" s="0" t="str">
@@ -15043,7 +15944,7 @@
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F331" s="0"/>
       <c r="G331" s="0" t="str">
@@ -15062,7 +15963,7 @@
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
       <c r="E332" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F332" s="0"/>
       <c r="G332" s="0" t="str">
@@ -15081,7 +15982,7 @@
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F333" s="0"/>
       <c r="G333" s="0" t="str">
@@ -15100,7 +16001,7 @@
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
       <c r="E334" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F334" s="0"/>
       <c r="G334" s="0" t="str">
@@ -15119,7 +16020,7 @@
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F335" s="0"/>
       <c r="G335" s="0" t="str">
@@ -15138,7 +16039,7 @@
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F336" s="0"/>
       <c r="G336" s="0" t="str">
@@ -15157,7 +16058,7 @@
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F337" s="0"/>
       <c r="G337" s="0" t="str">
@@ -15176,7 +16077,7 @@
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
       <c r="E338" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F338" s="0"/>
       <c r="G338" s="0" t="str">
@@ -15195,7 +16096,7 @@
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F339" s="0"/>
       <c r="G339" s="0" t="str">
@@ -15214,7 +16115,7 @@
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F340" s="0"/>
       <c r="G340" s="0" t="str">
@@ -15233,7 +16134,7 @@
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F341" s="0"/>
       <c r="G341" s="0" t="str">
@@ -15252,7 +16153,7 @@
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F342" s="0"/>
       <c r="G342" s="0" t="str">
@@ -15271,7 +16172,7 @@
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F343" s="0"/>
       <c r="G343" s="0" t="str">
@@ -15290,7 +16191,7 @@
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F344" s="0"/>
       <c r="G344" s="0" t="str">
@@ -15309,7 +16210,7 @@
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F345" s="0"/>
       <c r="G345" s="0" t="str">
@@ -15328,7 +16229,7 @@
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F346" s="0"/>
       <c r="G346" s="0" t="str">
@@ -15347,7 +16248,7 @@
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F347" s="0"/>
       <c r="G347" s="0" t="str">
@@ -15366,7 +16267,7 @@
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F348" s="0"/>
       <c r="G348" s="0" t="str">
@@ -15385,7 +16286,7 @@
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F349" s="0"/>
       <c r="G349" s="0" t="str">
@@ -15404,7 +16305,7 @@
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F350" s="0"/>
       <c r="G350" s="0" t="str">
@@ -15423,7 +16324,7 @@
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
       <c r="E351" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F351" s="0"/>
       <c r="G351" s="0" t="str">
@@ -15442,7 +16343,7 @@
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
       <c r="E352" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F352" s="0"/>
       <c r="G352" s="0" t="str">
@@ -15461,7 +16362,7 @@
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
       <c r="E353" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F353" s="0"/>
       <c r="G353" s="0" t="str">
@@ -15480,7 +16381,7 @@
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
       <c r="E354" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F354" s="0"/>
       <c r="G354" s="0" t="str">
@@ -15499,7 +16400,7 @@
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
       <c r="E355" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F355" s="0"/>
       <c r="G355" s="0" t="str">
@@ -15518,7 +16419,7 @@
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F356" s="0"/>
       <c r="G356" s="0" t="str">
@@ -15537,7 +16438,7 @@
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F357" s="0"/>
       <c r="G357" s="0" t="str">
@@ -15556,7 +16457,7 @@
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
       <c r="E358" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F358" s="0"/>
       <c r="G358" s="0" t="str">
@@ -15575,7 +16476,7 @@
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
       <c r="E359" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F359" s="0"/>
       <c r="G359" s="0" t="str">
@@ -15594,7 +16495,7 @@
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
       <c r="E360" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F360" s="0"/>
       <c r="G360" s="0" t="str">
@@ -15613,7 +16514,7 @@
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
       <c r="E361" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F361" s="0"/>
       <c r="G361" s="0" t="str">
@@ -15632,7 +16533,7 @@
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F362" s="0"/>
       <c r="G362" s="0" t="str">
@@ -15651,7 +16552,7 @@
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F363" s="0"/>
       <c r="G363" s="0" t="str">
@@ -15670,7 +16571,7 @@
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F364" s="0"/>
       <c r="G364" s="0" t="str">
@@ -15689,7 +16590,7 @@
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
       <c r="E365" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F365" s="0"/>
       <c r="G365" s="0" t="str">
@@ -15708,7 +16609,7 @@
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
       <c r="E366" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F366" s="0"/>
       <c r="G366" s="0" t="str">
@@ -15727,7 +16628,7 @@
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
       <c r="E367" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F367" s="0"/>
       <c r="G367" s="0" t="str">
@@ -15746,7 +16647,7 @@
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
       <c r="E368" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F368" s="0"/>
       <c r="G368" s="0" t="str">
@@ -15765,7 +16666,7 @@
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
       <c r="E369" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F369" s="0"/>
       <c r="G369" s="0" t="str">
@@ -15784,7 +16685,7 @@
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
       <c r="E370" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F370" s="0"/>
       <c r="G370" s="0" t="str">
@@ -15803,7 +16704,7 @@
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
       <c r="E371" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F371" s="0"/>
       <c r="G371" s="0" t="str">
@@ -15822,7 +16723,7 @@
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F372" s="0"/>
       <c r="G372" s="0" t="str">
@@ -15841,7 +16742,7 @@
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
       <c r="E373" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F373" s="0"/>
       <c r="G373" s="0" t="str">
@@ -15860,7 +16761,7 @@
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F374" s="0"/>
       <c r="G374" s="0" t="str">
@@ -15879,7 +16780,7 @@
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
       <c r="E375" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F375" s="0"/>
       <c r="G375" s="0" t="str">
@@ -15898,7 +16799,7 @@
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
       <c r="E376" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F376" s="0"/>
       <c r="G376" s="0" t="str">
@@ -15917,7 +16818,7 @@
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
       <c r="E377" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F377" s="0"/>
       <c r="G377" s="0" t="str">
@@ -15936,7 +16837,7 @@
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
       <c r="E378" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F378" s="0"/>
       <c r="G378" s="0" t="str">
@@ -15955,7 +16856,7 @@
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
       <c r="E379" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F379" s="0"/>
       <c r="G379" s="0" t="str">
@@ -15974,7 +16875,7 @@
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
       <c r="E380" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F380" s="0"/>
       <c r="G380" s="0" t="str">
@@ -15993,7 +16894,7 @@
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
       <c r="E381" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F381" s="0"/>
       <c r="G381" s="0" t="str">
@@ -16012,7 +16913,7 @@
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
       <c r="E382" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F382" s="0"/>
       <c r="G382" s="0" t="str">
@@ -16031,7 +16932,7 @@
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
       <c r="E383" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F383" s="0"/>
       <c r="G383" s="0" t="str">
@@ -16050,7 +16951,7 @@
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
       <c r="E384" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F384" s="0"/>
       <c r="G384" s="0" t="str">
@@ -16069,7 +16970,7 @@
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
       <c r="E385" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F385" s="0"/>
       <c r="G385" s="0" t="str">
@@ -16088,7 +16989,7 @@
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
       <c r="E386" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F386" s="0"/>
       <c r="G386" s="0" t="str">
@@ -16107,7 +17008,7 @@
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
       <c r="E387" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F387" s="0"/>
       <c r="G387" s="0" t="str">
@@ -16126,7 +17027,7 @@
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
       <c r="E388" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F388" s="0"/>
       <c r="G388" s="0" t="str">
@@ -16145,7 +17046,7 @@
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
       <c r="E389" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F389" s="0"/>
       <c r="G389" s="0" t="str">
@@ -16164,7 +17065,7 @@
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
       <c r="E390" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F390" s="0"/>
       <c r="G390" s="0" t="str">
@@ -16183,7 +17084,7 @@
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
       <c r="E391" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F391" s="0"/>
       <c r="G391" s="0" t="str">
@@ -16202,7 +17103,7 @@
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
       <c r="E392" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F392" s="0"/>
       <c r="G392" s="0" t="str">
@@ -16221,7 +17122,7 @@
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
       <c r="E393" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F393" s="0"/>
       <c r="G393" s="0" t="str">
@@ -16240,7 +17141,7 @@
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
       <c r="E394" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F394" s="0"/>
       <c r="G394" s="0" t="str">
@@ -16259,7 +17160,7 @@
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
       <c r="E395" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
       <c r="F395" s="0"/>
       <c r="G395" s="0" t="str">

--- a/data/Network Graph Data.xlsx
+++ b/data/Network Graph Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="1073">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -827,10 +827,10 @@
     <t xml:space="preserve">#960101</t>
   </si>
   <si>
-    <t xml:space="preserve">SHADOWNOIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadownoir</t>
+    <t xml:space="preserve">SHADOW_NOIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadow Noir</t>
   </si>
   <si>
     <t xml:space="preserve">#524259</t>
@@ -3355,7 +3355,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3394,6 +3394,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -3479,7 +3483,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ1103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A334" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A320" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A349" activeCellId="0" sqref="A349"/>
     </sheetView>
   </sheetViews>
@@ -5120,7 +5124,7 @@
       </c>
       <c r="G85" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A85&amp;""", ""name"": """&amp;B85&amp;""", ""description"": """&amp;C85&amp;""", ""imageFilename"": """&amp;A85&amp;".webp"", ""color"": """&amp;D85&amp;""", ""group"": """&amp;E85&amp;"""},"</f>
-        <v>{"id": "SHADOWNOIR", "name": "Shadownoir", "description": "", "imageFilename": "SHADOWNOIR.webp", "color": "#524259", "group": "CHARACTER"},</v>
+        <v>{"id": "SHADOW_NOIR", "name": "Shadow Noir", "description": "", "imageFilename": "SHADOW_NOIR.webp", "color": "#524259", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9927,9 +9931,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ474"/>
+  <dimension ref="A1:AMJ473"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A453" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A458" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A475" activeCellId="0" sqref="A475"/>
     </sheetView>
   </sheetViews>
@@ -11232,7 +11236,7 @@
       </c>
       <c r="G71" s="0" t="str">
         <f aca="false">IF(E71="","","{""sourceId"": """&amp;A71&amp;""", ""targetId"": """&amp;B71&amp;""", ""shortDescription"": """&amp;C71&amp;""", ""fullDescriptionHtml"": """&amp;D71&amp;""", ""direction"": """&amp;E71&amp;"""},")</f>
-        <v>{"sourceId": "PLAGG", "targetId": "SHADOWNOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "PLAGG", "targetId": "SHADOW_NOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11277,7 +11281,7 @@
       </c>
       <c r="G74" s="0" t="str">
         <f aca="false">IF(E74="","","{""sourceId"": """&amp;A74&amp;""", ""targetId"": """&amp;B74&amp;""", ""shortDescription"": """&amp;C74&amp;""", ""fullDescriptionHtml"": """&amp;D74&amp;""", ""direction"": """&amp;E74&amp;"""},")</f>
-        <v>{"sourceId": "NOOROO", "targetId": "SHADOWNOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NOOROO", "targetId": "SHADOW_NOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11442,7 +11446,7 @@
       </c>
       <c r="G85" s="0" t="str">
         <f aca="false">IF(E85="","","{""sourceId"": """&amp;A85&amp;""", ""targetId"": """&amp;B85&amp;""", ""shortDescription"": """&amp;C85&amp;""", ""fullDescriptionHtml"": """&amp;D85&amp;""", ""direction"": """&amp;E85&amp;"""},")</f>
-        <v>{"sourceId": "DUUSU", "targetId": "SHADOWNOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "DUUSU", "targetId": "SHADOW_NOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12886,7 +12890,7 @@
     </row>
     <row r="167" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>268</v>
@@ -12899,7 +12903,7 @@
       <c r="F167" s="0"/>
       <c r="G167" s="0" t="str">
         <f aca="false">IF(E167="","","{""sourceId"": """&amp;A167&amp;""", ""targetId"": """&amp;B167&amp;""", ""shortDescription"": """&amp;C167&amp;""", ""fullDescriptionHtml"": """&amp;D167&amp;""", ""direction"": """&amp;E167&amp;"""},")</f>
-        <v>{"sourceId": "GABRIEL_AGRESTE", "targetId": "SHADOWNOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "SHADOW_MOTH", "targetId": "SHADOW_NOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ167" s="2"/>
     </row>
@@ -14338,8 +14342,8 @@
       <c r="AMJ243" s="2"/>
     </row>
     <row r="244" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="6" t="s">
-        <v>274</v>
+      <c r="A244" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="B244" s="6" t="s">
         <v>283</v>
@@ -14352,7 +14356,7 @@
       <c r="F244" s="0"/>
       <c r="G244" s="0" t="str">
         <f aca="false">IF(E244="","","{""sourceId"": """&amp;A244&amp;""", ""targetId"": """&amp;B244&amp;""", ""shortDescription"": """&amp;C244&amp;""", ""fullDescriptionHtml"": """&amp;D244&amp;""", ""direction"": """&amp;E244&amp;"""},")</f>
-        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "QUEEN_WASP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "QUEEN_BEE", "targetId": "QUEEN_WASP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ244" s="2"/>
     </row>
@@ -14927,8 +14931,8 @@
       <c r="AMJ274" s="2"/>
     </row>
     <row r="275" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="6" t="s">
-        <v>274</v>
+      <c r="A275" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="B275" s="6" t="s">
         <v>286</v>
@@ -14941,7 +14945,7 @@
       <c r="F275" s="0"/>
       <c r="G275" s="0" t="str">
         <f aca="false">IF(E275="","","{""sourceId"": """&amp;A275&amp;""", ""targetId"": """&amp;B275&amp;""", ""shortDescription"": """&amp;C275&amp;""", ""fullDescriptionHtml"": """&amp;D275&amp;""", ""direction"": """&amp;E275&amp;"""},")</f>
-        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "MIRACLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "QUEEN_BEE", "targetId": "MIRACLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ275" s="2"/>
     </row>
@@ -17927,8 +17931,8 @@
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="6" t="s">
-        <v>256</v>
+      <c r="A443" s="1" t="s">
+        <v>1005</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>1008</v>
@@ -17938,12 +17942,12 @@
       </c>
       <c r="G443" s="0" t="str">
         <f aca="false">IF(E443="","","{""sourceId"": """&amp;A443&amp;""", ""targetId"": """&amp;B443&amp;""", ""shortDescription"": """&amp;C443&amp;""", ""fullDescriptionHtml"": """&amp;D443&amp;""", ""direction"": """&amp;E443&amp;"""},")</f>
-        <v>{"sourceId": "GABRIEL_AGRESTE", "targetId": "MONARBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MONARCH", "targetId": "MONARBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="1" t="s">
-        <v>1005</v>
+      <c r="A444" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>1008</v>
@@ -17953,12 +17957,12 @@
       </c>
       <c r="G444" s="0" t="str">
         <f aca="false">IF(E444="","","{""sourceId"": """&amp;A444&amp;""", ""targetId"": """&amp;B444&amp;""", ""shortDescription"": """&amp;C444&amp;""", ""fullDescriptionHtml"": """&amp;D444&amp;""", ""direction"": """&amp;E444&amp;"""},")</f>
-        <v>{"sourceId": "MONARCH", "targetId": "MONARBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NOOROO", "targetId": "MONARBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="8" t="s">
-        <v>31</v>
+      <c r="A445" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>1008</v>
@@ -17968,57 +17972,57 @@
       </c>
       <c r="G445" s="0" t="str">
         <f aca="false">IF(E445="","","{""sourceId"": """&amp;A445&amp;""", ""targetId"": """&amp;B445&amp;""", ""shortDescription"": """&amp;C445&amp;""", ""fullDescriptionHtml"": """&amp;D445&amp;""", ""direction"": """&amp;E445&amp;"""},")</f>
-        <v>{"sourceId": "NOOROO", "targetId": "MONARBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "TIKKI", "targetId": "MONARBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="10" t="s">
-        <v>22</v>
+      <c r="A446" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="E446" s="2" t="s">
         <v>1071</v>
       </c>
       <c r="G446" s="0" t="str">
         <f aca="false">IF(E446="","","{""sourceId"": """&amp;A446&amp;""", ""targetId"": """&amp;B446&amp;""", ""shortDescription"": """&amp;C446&amp;""", ""fullDescriptionHtml"": """&amp;D446&amp;""", ""direction"": """&amp;E446&amp;"""},")</f>
-        <v>{"sourceId": "TIKKI", "targetId": "MONARBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "GABRIEL_AGRESTE", "targetId": "NIGHTORMENTOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>1011</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G447" s="0" t="str">
         <f aca="false">IF(E447="","","{""sourceId"": """&amp;A447&amp;""", ""targetId"": """&amp;B447&amp;""", ""shortDescription"": """&amp;C447&amp;""", ""fullDescriptionHtml"": """&amp;D447&amp;""", ""direction"": """&amp;E447&amp;"""},")</f>
-        <v>{"sourceId": "GABRIEL_AGRESTE", "targetId": "NIGHTORMENTOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "NIGHTORMENTOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="6" t="s">
-        <v>18</v>
+      <c r="A448" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>1011</v>
+        <v>1056</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G448" s="0" t="str">
         <f aca="false">IF(E448="","","{""sourceId"": """&amp;A448&amp;""", ""targetId"": """&amp;B448&amp;""", ""shortDescription"": """&amp;C448&amp;""", ""fullDescriptionHtml"": """&amp;D448&amp;""", ""direction"": """&amp;E448&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "NIGHTORMENTOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "JEANNE_D_ARC", "targetId": "SCARLET_FATE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="1" t="s">
-        <v>154</v>
+      <c r="A449" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>1056</v>
@@ -18028,162 +18032,162 @@
       </c>
       <c r="G449" s="0" t="str">
         <f aca="false">IF(E449="","","{""sourceId"": """&amp;A449&amp;""", ""targetId"": """&amp;B449&amp;""", ""shortDescription"": """&amp;C449&amp;""", ""fullDescriptionHtml"": """&amp;D449&amp;""", ""direction"": """&amp;E449&amp;"""},")</f>
-        <v>{"sourceId": "JEANNE_D_ARC", "targetId": "SCARLET_FATE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "TIKKI", "targetId": "SCARLET_FATE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="8" t="s">
-        <v>22</v>
+      <c r="A450" s="6" t="s">
+        <v>391</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1056</v>
+        <v>1023</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>1071</v>
       </c>
       <c r="G450" s="0" t="str">
         <f aca="false">IF(E450="","","{""sourceId"": """&amp;A450&amp;""", ""targetId"": """&amp;B450&amp;""", ""shortDescription"": """&amp;C450&amp;""", ""fullDescriptionHtml"": """&amp;D450&amp;""", ""direction"": """&amp;E450&amp;"""},")</f>
-        <v>{"sourceId": "TIKKI", "targetId": "SCARLET_FATE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "RYUKOMORI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
-        <v>391</v>
+        <v>18</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G451" s="0" t="str">
         <f aca="false">IF(E451="","","{""sourceId"": """&amp;A451&amp;""", ""targetId"": """&amp;B451&amp;""", ""shortDescription"": """&amp;C451&amp;""", ""fullDescriptionHtml"": """&amp;D451&amp;""", ""direction"": """&amp;E451&amp;"""},")</f>
-        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "RYUKOMORI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "RYUKOMORI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
-        <v>18</v>
+        <v>436</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G452" s="0" t="str">
         <f aca="false">IF(E452="","","{""sourceId"": """&amp;A452&amp;""", ""targetId"": """&amp;B452&amp;""", ""shortDescription"": """&amp;C452&amp;""", ""fullDescriptionHtml"": """&amp;D452&amp;""", ""direction"": """&amp;E452&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "RYUKOMORI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "LE_CHIEN_KIM_ATURE", "targetId": "DARK_HUMOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
-        <v>436</v>
+        <v>18</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>1014</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G453" s="0" t="str">
         <f aca="false">IF(E453="","","{""sourceId"": """&amp;A453&amp;""", ""targetId"": """&amp;B453&amp;""", ""shortDescription"": """&amp;C453&amp;""", ""fullDescriptionHtml"": """&amp;D453&amp;""", ""direction"": """&amp;E453&amp;"""},")</f>
-        <v>{"sourceId": "LE_CHIEN_KIM_ATURE", "targetId": "DARK_HUMOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "DARK_HUMOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="6" t="s">
-        <v>18</v>
+      <c r="A454" s="1" t="s">
+        <v>1017</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G454" s="0" t="str">
         <f aca="false">IF(E454="","","{""sourceId"": """&amp;A454&amp;""", ""targetId"": """&amp;B454&amp;""", ""shortDescription"": """&amp;C454&amp;""", ""fullDescriptionHtml"": """&amp;D454&amp;""", ""direction"": """&amp;E454&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "DARK_HUMOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "KOUKI", "targetId": "KIKU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="1" t="s">
-        <v>1017</v>
+      <c r="A455" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>1020</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G455" s="0" t="str">
         <f aca="false">IF(E455="","","{""sourceId"": """&amp;A455&amp;""", ""targetId"": """&amp;B455&amp;""", ""shortDescription"": """&amp;C455&amp;""", ""fullDescriptionHtml"": """&amp;D455&amp;""", ""direction"": """&amp;E455&amp;"""},")</f>
-        <v>{"sourceId": "KOUKI", "targetId": "KIKU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "KIKU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B456" s="1" t="s">
-        <v>1020</v>
+      <c r="A456" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B456" s="8" t="s">
+        <v>679</v>
       </c>
       <c r="E456" s="2" t="s">
         <v>1070</v>
       </c>
       <c r="G456" s="0" t="str">
         <f aca="false">IF(E456="","","{""sourceId"": """&amp;A456&amp;""", ""targetId"": """&amp;B456&amp;""", ""shortDescription"": """&amp;C456&amp;""", ""fullDescriptionHtml"": """&amp;D456&amp;""", ""direction"": """&amp;E456&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "KIKU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "CERISE", "targetId": "LILA_ROSSI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B457" s="8" t="s">
+      <c r="A457" s="8" t="s">
         <v>679</v>
       </c>
+      <c r="B457" s="1" t="s">
+        <v>1029</v>
+      </c>
       <c r="E457" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G457" s="0" t="str">
         <f aca="false">IF(E457="","","{""sourceId"": """&amp;A457&amp;""", ""targetId"": """&amp;B457&amp;""", ""shortDescription"": """&amp;C457&amp;""", ""fullDescriptionHtml"": """&amp;D457&amp;""", ""direction"": """&amp;E457&amp;"""},")</f>
-        <v>{"sourceId": "CERISE", "targetId": "LILA_ROSSI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "LILA_ROSSI", "targetId": "HOAXER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="8" t="s">
-        <v>679</v>
+      <c r="A458" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>1029</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G458" s="0" t="str">
         <f aca="false">IF(E458="","","{""sourceId"": """&amp;A458&amp;""", ""targetId"": """&amp;B458&amp;""", ""shortDescription"": """&amp;C458&amp;""", ""fullDescriptionHtml"": """&amp;D458&amp;""", ""direction"": """&amp;E458&amp;"""},")</f>
-        <v>{"sourceId": "LILA_ROSSI", "targetId": "HOAXER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "HOAXER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G459" s="0" t="str">
         <f aca="false">IF(E459="","","{""sourceId"": """&amp;A459&amp;""", ""targetId"": """&amp;B459&amp;""", ""shortDescription"": """&amp;C459&amp;""", ""fullDescriptionHtml"": """&amp;D459&amp;""", ""direction"": """&amp;E459&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "HOAXER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "MARINETTE_DUPAIN_CHENG", "targetId": "BUG_NOIRE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="6" t="s">
-        <v>157</v>
+      <c r="A460" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>1032</v>
@@ -18193,12 +18197,12 @@
       </c>
       <c r="G460" s="0" t="str">
         <f aca="false">IF(E460="","","{""sourceId"": """&amp;A460&amp;""", ""targetId"": """&amp;B460&amp;""", ""shortDescription"": """&amp;C460&amp;""", ""fullDescriptionHtml"": """&amp;D460&amp;""", ""direction"": """&amp;E460&amp;"""},")</f>
-        <v>{"sourceId": "MARINETTE_DUPAIN_CHENG", "targetId": "BUG_NOIRE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "TIKKI", "targetId": "BUG_NOIRE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>1032</v>
@@ -18208,82 +18212,82 @@
       </c>
       <c r="G461" s="0" t="str">
         <f aca="false">IF(E461="","","{""sourceId"": """&amp;A461&amp;""", ""targetId"": """&amp;B461&amp;""", ""shortDescription"": """&amp;C461&amp;""", ""fullDescriptionHtml"": """&amp;D461&amp;""", ""direction"": """&amp;E461&amp;"""},")</f>
-        <v>{"sourceId": "TIKKI", "targetId": "BUG_NOIRE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "PLAGG", "targetId": "BUG_NOIRE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="8" t="s">
-        <v>27</v>
+      <c r="A462" s="6" t="s">
+        <v>337</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="E462" s="2" t="s">
         <v>1071</v>
       </c>
       <c r="G462" s="0" t="str">
         <f aca="false">IF(E462="","","{""sourceId"": """&amp;A462&amp;""", ""targetId"": """&amp;B462&amp;""", ""shortDescription"": """&amp;C462&amp;""", ""fullDescriptionHtml"": """&amp;D462&amp;""", ""direction"": """&amp;E462&amp;"""},")</f>
-        <v>{"sourceId": "PLAGG", "targetId": "BUG_NOIRE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NATHALIE_SANCOEUR", "targetId": "SAFARI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6" t="s">
-        <v>337</v>
+        <v>18</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>1035</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G463" s="0" t="str">
         <f aca="false">IF(E463="","","{""sourceId"": """&amp;A463&amp;""", ""targetId"": """&amp;B463&amp;""", ""shortDescription"": """&amp;C463&amp;""", ""fullDescriptionHtml"": """&amp;D463&amp;""", ""direction"": """&amp;E463&amp;"""},")</f>
-        <v>{"sourceId": "NATHALIE_SANCOEUR", "targetId": "SAFARI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "SAFARI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="6" t="s">
-        <v>18</v>
+      <c r="A464" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G464" s="0" t="str">
         <f aca="false">IF(E464="","","{""sourceId"": """&amp;A464&amp;""", ""targetId"": """&amp;B464&amp;""", ""shortDescription"": """&amp;C464&amp;""", ""fullDescriptionHtml"": """&amp;D464&amp;""", ""direction"": """&amp;E464&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "SAFARI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "PLAGG", "targetId": "PLAGG_REVEALED", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="10" t="s">
-        <v>27</v>
+      <c r="A465" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="E465" s="2" t="s">
         <v>1071</v>
       </c>
       <c r="G465" s="0" t="str">
         <f aca="false">IF(E465="","","{""sourceId"": """&amp;A465&amp;""", ""targetId"": """&amp;B465&amp;""", ""shortDescription"": """&amp;C465&amp;""", ""fullDescriptionHtml"": """&amp;D465&amp;""", ""direction"": """&amp;E465&amp;"""},")</f>
-        <v>{"sourceId": "PLAGG", "targetId": "PLAGG_REVEALED", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "TIKKI", "targetId": "TIKKI_REVEALED", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="10" t="s">
-        <v>22</v>
+      <c r="A466" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G466" s="0" t="str">
         <f aca="false">IF(E466="","","{""sourceId"": """&amp;A466&amp;""", ""targetId"": """&amp;B466&amp;""", ""shortDescription"": """&amp;C466&amp;""", ""fullDescriptionHtml"": """&amp;D466&amp;""", ""direction"": """&amp;E466&amp;"""},")</f>
-        <v>{"sourceId": "TIKKI", "targetId": "TIKKI_REVEALED", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "KWAMI", "targetId": "PLAGG_REVEALED", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18291,94 +18295,94 @@
         <v>5</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="E467" s="2" t="s">
         <v>1070</v>
       </c>
       <c r="G467" s="0" t="str">
         <f aca="false">IF(E467="","","{""sourceId"": """&amp;A467&amp;""", ""targetId"": """&amp;B467&amp;""", ""shortDescription"": """&amp;C467&amp;""", ""fullDescriptionHtml"": """&amp;D467&amp;""", ""direction"": """&amp;E467&amp;"""},")</f>
-        <v>{"sourceId": "KWAMI", "targetId": "PLAGG_REVEALED", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "KWAMI", "targetId": "TIKKI_REVEALED", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="6" t="s">
-        <v>5</v>
+      <c r="A468" s="8" t="s">
+        <v>886</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G468" s="0" t="str">
         <f aca="false">IF(E468="","","{""sourceId"": """&amp;A468&amp;""", ""targetId"": """&amp;B468&amp;""", ""shortDescription"": """&amp;C468&amp;""", ""fullDescriptionHtml"": """&amp;D468&amp;""", ""direction"": """&amp;E468&amp;"""},")</f>
-        <v>{"sourceId": "KWAMI", "targetId": "TIKKI_REVEALED", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "TOMOE_TSURUGI", "targetId": "MATAGI_GOZEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="8" t="s">
-        <v>886</v>
+      <c r="A469" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>1044</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G469" s="0" t="str">
         <f aca="false">IF(E469="","","{""sourceId"": """&amp;A469&amp;""", ""targetId"": """&amp;B469&amp;""", ""shortDescription"": """&amp;C469&amp;""", ""fullDescriptionHtml"": """&amp;D469&amp;""", ""direction"": """&amp;E469&amp;"""},")</f>
-        <v>{"sourceId": "TOMOE_TSURUGI", "targetId": "MATAGI_GOZEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "MATAGI_GOZEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="6" t="s">
-        <v>18</v>
+      <c r="A470" s="1" t="s">
+        <v>1047</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G470" s="0" t="str">
         <f aca="false">IF(E470="","","{""sourceId"": """&amp;A470&amp;""", ""targetId"": """&amp;B470&amp;""", ""shortDescription"": """&amp;C470&amp;""", ""fullDescriptionHtml"": """&amp;D470&amp;""", ""direction"": """&amp;E470&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "MATAGI_GOZEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "VERONIQUE", "targetId": "MANIPULA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="1" t="s">
-        <v>1047</v>
+      <c r="A471" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>1050</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G471" s="0" t="str">
         <f aca="false">IF(E471="","","{""sourceId"": """&amp;A471&amp;""", ""targetId"": """&amp;B471&amp;""", ""shortDescription"": """&amp;C471&amp;""", ""fullDescriptionHtml"": """&amp;D471&amp;""", ""direction"": """&amp;E471&amp;"""},")</f>
-        <v>{"sourceId": "VERONIQUE", "targetId": "MANIPULA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "MANIPULA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
-        <v>18</v>
+        <v>295</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G472" s="0" t="str">
         <f aca="false">IF(E472="","","{""sourceId"": """&amp;A472&amp;""", ""targetId"": """&amp;B472&amp;""", ""shortDescription"": """&amp;C472&amp;""", ""fullDescriptionHtml"": """&amp;D472&amp;""", ""direction"": """&amp;E472&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "MANIPULA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "ZOE_LEE", "targetId": "KITTY_NOIRE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="6" t="s">
-        <v>295</v>
+      <c r="A473" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>1053</v>
@@ -18388,21 +18392,6 @@
       </c>
       <c r="G473" s="0" t="str">
         <f aca="false">IF(E473="","","{""sourceId"": """&amp;A473&amp;""", ""targetId"": """&amp;B473&amp;""", ""shortDescription"": """&amp;C473&amp;""", ""fullDescriptionHtml"": """&amp;D473&amp;""", ""direction"": """&amp;E473&amp;"""},")</f>
-        <v>{"sourceId": "ZOE_LEE", "targetId": "KITTY_NOIRE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
-      </c>
-    </row>
-    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B474" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E474" s="2" t="s">
-        <v>1071</v>
-      </c>
-      <c r="G474" s="0" t="str">
-        <f aca="false">IF(E474="","","{""sourceId"": """&amp;A474&amp;""", ""targetId"": """&amp;B474&amp;""", ""shortDescription"": """&amp;C474&amp;""", ""fullDescriptionHtml"": """&amp;D474&amp;""", ""direction"": """&amp;E474&amp;"""},")</f>
         <v>{"sourceId": "PLAGG", "targetId": "KITTY_NOIRE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>

--- a/data/Network Graph Data.xlsx
+++ b/data/Network Graph Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="1078">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -3218,6 +3218,24 @@
     <t xml:space="preserve">#F9E79E</t>
   </si>
   <si>
+    <t xml:space="preserve">GILBERT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gilbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#A98570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRACULIZED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miraculized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#A78366</t>
+  </si>
+  <si>
     <t xml:space="preserve">SourceID</t>
   </si>
   <si>
@@ -3237,25 +3255,6 @@
   </si>
   <si>
     <t xml:space="preserve">DIRECTED</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">BUNNYX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_ADULT</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -3266,7 +3265,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3294,11 +3293,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3355,7 +3349,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3396,11 +3390,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3483,11 +3473,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ1103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A320" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A349" activeCellId="0" sqref="A349"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A339" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A351" activeCellId="0" sqref="A351"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.81"/>
@@ -9892,6 +9882,42 @@
       <c r="G349" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A349&amp;""", ""name"": """&amp;B349&amp;""", ""description"": """&amp;C349&amp;""", ""imageFilename"": """&amp;A349&amp;".webp"", ""color"": """&amp;D349&amp;""", ""group"": """&amp;E349&amp;"""},"</f>
         <v>{"id": "KING_OF_PLASTIC", "name": "King of Plastic", "description": "", "imageFilename": "KING_OF_PLASTIC.webp", "color": "#F9E79E", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G350" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A350&amp;""", ""name"": """&amp;B350&amp;""", ""description"": """&amp;C350&amp;""", ""imageFilename"": """&amp;A350&amp;".webp"", ""color"": """&amp;D350&amp;""", ""group"": """&amp;E350&amp;"""},"</f>
+        <v>{"id": "GILBERT", "name": "Gilbert", "description": "", "imageFilename": "GILBERT.webp", "color": "#A98570", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B351" s="0" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G351" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A351&amp;""", ""name"": """&amp;B351&amp;""", ""description"": """&amp;C351&amp;""", ""imageFilename"": """&amp;A351&amp;".webp"", ""color"": """&amp;D351&amp;""", ""group"": """&amp;E351&amp;"""},"</f>
+        <v>{"id": "MIRACULIZED", "name": "Miraculized", "description": "", "imageFilename": "MIRACULIZED.webp", "color": "#A78366", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="1097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9931,13 +9957,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ473"/>
+  <dimension ref="A1:AMJ477"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A458" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A475" activeCellId="0" sqref="A475"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A462" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A478" activeCellId="0" sqref="A478"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.81"/>
@@ -9949,19 +9975,19 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="AMJ1" s="2"/>
     </row>
@@ -9975,7 +10001,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F2" s="0"/>
       <c r="G2" s="0" t="str">
@@ -9994,7 +10020,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F3" s="0"/>
       <c r="G3" s="0" t="str">
@@ -10013,7 +10039,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F4" s="0"/>
       <c r="G4" s="0" t="str">
@@ -10032,7 +10058,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F5" s="0"/>
       <c r="G5" s="0" t="str">
@@ -10051,7 +10077,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F6" s="0"/>
       <c r="G6" s="0" t="str">
@@ -10070,7 +10096,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="0" t="str">
@@ -10089,7 +10115,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F8" s="0"/>
       <c r="G8" s="0" t="str">
@@ -10108,7 +10134,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F9" s="0"/>
       <c r="G9" s="0" t="str">
@@ -10127,7 +10153,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0" t="str">
@@ -10146,7 +10172,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0" t="str">
@@ -10165,7 +10191,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F12" s="0"/>
       <c r="G12" s="0" t="str">
@@ -10184,7 +10210,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F13" s="0"/>
       <c r="G13" s="0" t="str">
@@ -10203,7 +10229,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F14" s="0"/>
       <c r="G14" s="0" t="str">
@@ -10222,7 +10248,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F15" s="0"/>
       <c r="G15" s="0" t="str">
@@ -10241,7 +10267,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F16" s="0"/>
       <c r="G16" s="0" t="str">
@@ -10260,7 +10286,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F17" s="0"/>
       <c r="G17" s="0" t="str">
@@ -10279,7 +10305,7 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F18" s="0"/>
       <c r="G18" s="0" t="str">
@@ -10298,7 +10324,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F19" s="0"/>
       <c r="G19" s="0" t="str">
@@ -10317,7 +10343,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F20" s="0"/>
       <c r="G20" s="0" t="str">
@@ -10336,7 +10362,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F21" s="0"/>
       <c r="G21" s="0" t="str">
@@ -10355,7 +10381,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F22" s="0"/>
       <c r="G22" s="0" t="str">
@@ -10374,7 +10400,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F23" s="0"/>
       <c r="G23" s="0" t="str">
@@ -10393,7 +10419,7 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F24" s="0"/>
       <c r="G24" s="0" t="str">
@@ -10412,7 +10438,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F25" s="0"/>
       <c r="G25" s="0" t="str">
@@ -10431,7 +10457,7 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F26" s="0"/>
       <c r="G26" s="0" t="str">
@@ -10450,7 +10476,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F27" s="0"/>
       <c r="G27" s="0" t="str">
@@ -10469,7 +10495,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F28" s="0"/>
       <c r="G28" s="0" t="str">
@@ -10488,7 +10514,7 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F29" s="0"/>
       <c r="G29" s="0" t="str">
@@ -10507,7 +10533,7 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0" t="str">
@@ -10526,7 +10552,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F31" s="0"/>
       <c r="G31" s="0" t="str">
@@ -10545,7 +10571,7 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F32" s="0"/>
       <c r="G32" s="0" t="str">
@@ -10564,7 +10590,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F33" s="0"/>
       <c r="G33" s="0" t="str">
@@ -10583,7 +10609,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="0" t="str">
@@ -10602,7 +10628,7 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F35" s="0"/>
       <c r="G35" s="0" t="str">
@@ -10621,7 +10647,7 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F36" s="0"/>
       <c r="G36" s="0" t="str">
@@ -10640,7 +10666,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F37" s="0"/>
       <c r="G37" s="0" t="str">
@@ -10659,7 +10685,7 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F38" s="0"/>
       <c r="G38" s="0" t="str">
@@ -10678,7 +10704,7 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F39" s="0"/>
       <c r="G39" s="0" t="str">
@@ -10697,7 +10723,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F40" s="0"/>
       <c r="G40" s="0" t="str">
@@ -10716,7 +10742,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F41" s="0"/>
       <c r="G41" s="0" t="str">
@@ -10735,7 +10761,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F42" s="0"/>
       <c r="G42" s="0" t="str">
@@ -10754,7 +10780,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F43" s="0"/>
       <c r="G43" s="0" t="str">
@@ -10773,7 +10799,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F44" s="0"/>
       <c r="G44" s="0" t="str">
@@ -10792,7 +10818,7 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F45" s="0"/>
       <c r="G45" s="0" t="str">
@@ -10811,7 +10837,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F46" s="0"/>
       <c r="G46" s="0" t="str">
@@ -10830,7 +10856,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F47" s="0"/>
       <c r="G47" s="0" t="str">
@@ -10849,7 +10875,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F48" s="0"/>
       <c r="G48" s="0" t="str">
@@ -10868,7 +10894,7 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F49" s="0"/>
       <c r="G49" s="0" t="str">
@@ -10887,7 +10913,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F50" s="0"/>
       <c r="G50" s="0" t="str">
@@ -10906,7 +10932,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F51" s="0"/>
       <c r="G51" s="0" t="str">
@@ -10925,7 +10951,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F52" s="0"/>
       <c r="G52" s="0" t="str">
@@ -10944,7 +10970,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F53" s="0"/>
       <c r="G53" s="0" t="str">
@@ -10963,7 +10989,7 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F54" s="0"/>
       <c r="G54" s="0" t="str">
@@ -10982,7 +11008,7 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F55" s="0"/>
       <c r="G55" s="0" t="str">
@@ -11001,7 +11027,7 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F56" s="0"/>
       <c r="G56" s="0" t="str">
@@ -11020,7 +11046,7 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F57" s="0"/>
       <c r="G57" s="0" t="str">
@@ -11037,7 +11063,7 @@
         <v>160</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G58" s="0" t="str">
         <f aca="false">IF(E58="","","{""sourceId"": """&amp;A58&amp;""", ""targetId"": """&amp;B58&amp;""", ""shortDescription"": """&amp;C58&amp;""", ""fullDescriptionHtml"": """&amp;D58&amp;""", ""direction"": """&amp;E58&amp;"""},")</f>
@@ -11052,7 +11078,7 @@
         <v>175</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G59" s="0" t="str">
         <f aca="false">IF(E59="","","{""sourceId"": """&amp;A59&amp;""", ""targetId"": """&amp;B59&amp;""", ""shortDescription"": """&amp;C59&amp;""", ""fullDescriptionHtml"": """&amp;D59&amp;""", ""direction"": """&amp;E59&amp;"""},")</f>
@@ -11067,7 +11093,7 @@
         <v>178</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G60" s="0" t="str">
         <f aca="false">IF(E60="","","{""sourceId"": """&amp;A60&amp;""", ""targetId"": """&amp;B60&amp;""", ""shortDescription"": """&amp;C60&amp;""", ""fullDescriptionHtml"": """&amp;D60&amp;""", ""direction"": """&amp;E60&amp;"""},")</f>
@@ -11082,7 +11108,7 @@
         <v>181</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G61" s="0" t="str">
         <f aca="false">IF(E61="","","{""sourceId"": """&amp;A61&amp;""", ""targetId"": """&amp;B61&amp;""", ""shortDescription"": """&amp;C61&amp;""", ""fullDescriptionHtml"": """&amp;D61&amp;""", ""direction"": """&amp;E61&amp;"""},")</f>
@@ -11097,7 +11123,7 @@
         <v>184</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G62" s="0" t="str">
         <f aca="false">IF(E62="","","{""sourceId"": """&amp;A62&amp;""", ""targetId"": """&amp;B62&amp;""", ""shortDescription"": """&amp;C62&amp;""", ""fullDescriptionHtml"": """&amp;D62&amp;""", ""direction"": """&amp;E62&amp;"""},")</f>
@@ -11112,7 +11138,7 @@
         <v>187</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G63" s="0" t="str">
         <f aca="false">IF(E63="","","{""sourceId"": """&amp;A63&amp;""", ""targetId"": """&amp;B63&amp;""", ""shortDescription"": """&amp;C63&amp;""", ""fullDescriptionHtml"": """&amp;D63&amp;""", ""direction"": """&amp;E63&amp;"""},")</f>
@@ -11127,7 +11153,7 @@
         <v>208</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G64" s="0" t="str">
         <f aca="false">IF(E64="","","{""sourceId"": """&amp;A64&amp;""", ""targetId"": """&amp;B64&amp;""", ""shortDescription"": """&amp;C64&amp;""", ""fullDescriptionHtml"": """&amp;D64&amp;""", ""direction"": """&amp;E64&amp;"""},")</f>
@@ -11142,7 +11168,7 @@
         <v>244</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G65" s="0" t="str">
         <f aca="false">IF(E65="","","{""sourceId"": """&amp;A65&amp;""", ""targetId"": """&amp;B65&amp;""", ""shortDescription"": """&amp;C65&amp;""", ""fullDescriptionHtml"": """&amp;D65&amp;""", ""direction"": """&amp;E65&amp;"""},")</f>
@@ -11157,7 +11183,7 @@
         <v>205</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G66" s="0" t="str">
         <f aca="false">IF(E66="","","{""sourceId"": """&amp;A66&amp;""", ""targetId"": """&amp;B66&amp;""", ""shortDescription"": """&amp;C66&amp;""", ""fullDescriptionHtml"": """&amp;D66&amp;""", ""direction"": """&amp;E66&amp;"""},")</f>
@@ -11172,7 +11198,7 @@
         <v>214</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G67" s="0" t="str">
         <f aca="false">IF(E67="","","{""sourceId"": """&amp;A67&amp;""", ""targetId"": """&amp;B67&amp;""", ""shortDescription"": """&amp;C67&amp;""", ""fullDescriptionHtml"": """&amp;D67&amp;""", ""direction"": """&amp;E67&amp;"""},")</f>
@@ -11187,7 +11213,7 @@
         <v>217</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G68" s="0" t="str">
         <f aca="false">IF(E68="","","{""sourceId"": """&amp;A68&amp;""", ""targetId"": """&amp;B68&amp;""", ""shortDescription"": """&amp;C68&amp;""", ""fullDescriptionHtml"": """&amp;D68&amp;""", ""direction"": """&amp;E68&amp;"""},")</f>
@@ -11202,7 +11228,7 @@
         <v>163</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G69" s="0" t="str">
         <f aca="false">IF(E69="","","{""sourceId"": """&amp;A69&amp;""", ""targetId"": """&amp;B69&amp;""", ""shortDescription"": """&amp;C69&amp;""", ""fullDescriptionHtml"": """&amp;D69&amp;""", ""direction"": """&amp;E69&amp;"""},")</f>
@@ -11217,7 +11243,7 @@
         <v>172</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G70" s="0" t="str">
         <f aca="false">IF(E70="","","{""sourceId"": """&amp;A70&amp;""", ""targetId"": """&amp;B70&amp;""", ""shortDescription"": """&amp;C70&amp;""", ""fullDescriptionHtml"": """&amp;D70&amp;""", ""direction"": """&amp;E70&amp;"""},")</f>
@@ -11232,7 +11258,7 @@
         <v>268</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G71" s="0" t="str">
         <f aca="false">IF(E71="","","{""sourceId"": """&amp;A71&amp;""", ""targetId"": """&amp;B71&amp;""", ""shortDescription"": """&amp;C71&amp;""", ""fullDescriptionHtml"": """&amp;D71&amp;""", ""direction"": """&amp;E71&amp;"""},")</f>
@@ -11247,7 +11273,7 @@
         <v>259</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G72" s="0" t="str">
         <f aca="false">IF(E72="","","{""sourceId"": """&amp;A72&amp;""", ""targetId"": """&amp;B72&amp;""", ""shortDescription"": """&amp;C72&amp;""", ""fullDescriptionHtml"": """&amp;D72&amp;""", ""direction"": """&amp;E72&amp;"""},")</f>
@@ -11262,7 +11288,7 @@
         <v>262</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G73" s="0" t="str">
         <f aca="false">IF(E73="","","{""sourceId"": """&amp;A73&amp;""", ""targetId"": """&amp;B73&amp;""", ""shortDescription"": """&amp;C73&amp;""", ""fullDescriptionHtml"": """&amp;D73&amp;""", ""direction"": """&amp;E73&amp;"""},")</f>
@@ -11277,7 +11303,7 @@
         <v>268</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G74" s="0" t="str">
         <f aca="false">IF(E74="","","{""sourceId"": """&amp;A74&amp;""", ""targetId"": """&amp;B74&amp;""", ""shortDescription"": """&amp;C74&amp;""", ""fullDescriptionHtml"": """&amp;D74&amp;""", ""direction"": """&amp;E74&amp;"""},")</f>
@@ -11292,7 +11318,7 @@
         <v>238</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G75" s="0" t="str">
         <f aca="false">IF(E75="","","{""sourceId"": """&amp;A75&amp;""", ""targetId"": """&amp;B75&amp;""", ""shortDescription"": """&amp;C75&amp;""", ""fullDescriptionHtml"": """&amp;D75&amp;""", ""direction"": """&amp;E75&amp;"""},")</f>
@@ -11307,7 +11333,7 @@
         <v>241</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G76" s="0" t="str">
         <f aca="false">IF(E76="","","{""sourceId"": """&amp;A76&amp;""", ""targetId"": """&amp;B76&amp;""", ""shortDescription"": """&amp;C76&amp;""", ""fullDescriptionHtml"": """&amp;D76&amp;""", ""direction"": """&amp;E76&amp;"""},")</f>
@@ -11322,7 +11348,7 @@
         <v>169</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G77" s="0" t="str">
         <f aca="false">IF(E77="","","{""sourceId"": """&amp;A77&amp;""", ""targetId"": """&amp;B77&amp;""", ""shortDescription"": """&amp;C77&amp;""", ""fullDescriptionHtml"": """&amp;D77&amp;""", ""direction"": """&amp;E77&amp;"""},")</f>
@@ -11337,7 +11363,7 @@
         <v>277</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G78" s="0" t="str">
         <f aca="false">IF(E78="","","{""sourceId"": """&amp;A78&amp;""", ""targetId"": """&amp;B78&amp;""", ""shortDescription"": """&amp;C78&amp;""", ""fullDescriptionHtml"": """&amp;D78&amp;""", ""direction"": """&amp;E78&amp;"""},")</f>
@@ -11352,7 +11378,7 @@
         <v>298</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G79" s="0" t="str">
         <f aca="false">IF(E79="","","{""sourceId"": """&amp;A79&amp;""", ""targetId"": """&amp;B79&amp;""", ""shortDescription"": """&amp;C79&amp;""", ""fullDescriptionHtml"": """&amp;D79&amp;""", ""direction"": """&amp;E79&amp;"""},")</f>
@@ -11367,7 +11393,7 @@
         <v>181</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G80" s="0" t="str">
         <f aca="false">IF(E80="","","{""sourceId"": """&amp;A80&amp;""", ""targetId"": """&amp;B80&amp;""", ""shortDescription"": """&amp;C80&amp;""", ""fullDescriptionHtml"": """&amp;D80&amp;""", ""direction"": """&amp;E80&amp;"""},")</f>
@@ -11382,7 +11408,7 @@
         <v>307</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G81" s="0" t="str">
         <f aca="false">IF(E81="","","{""sourceId"": """&amp;A81&amp;""", ""targetId"": """&amp;B81&amp;""", ""shortDescription"": """&amp;C81&amp;""", ""fullDescriptionHtml"": """&amp;D81&amp;""", ""direction"": """&amp;E81&amp;"""},")</f>
@@ -11397,7 +11423,7 @@
         <v>319</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G82" s="0" t="str">
         <f aca="false">IF(E82="","","{""sourceId"": """&amp;A82&amp;""", ""targetId"": """&amp;B82&amp;""", ""shortDescription"": """&amp;C82&amp;""", ""fullDescriptionHtml"": """&amp;D82&amp;""", ""direction"": """&amp;E82&amp;"""},")</f>
@@ -11412,7 +11438,7 @@
         <v>334</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G83" s="0" t="str">
         <f aca="false">IF(E83="","","{""sourceId"": """&amp;A83&amp;""", ""targetId"": """&amp;B83&amp;""", ""shortDescription"": """&amp;C83&amp;""", ""fullDescriptionHtml"": """&amp;D83&amp;""", ""direction"": """&amp;E83&amp;"""},")</f>
@@ -11427,7 +11453,7 @@
         <v>262</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G84" s="0" t="str">
         <f aca="false">IF(E84="","","{""sourceId"": """&amp;A84&amp;""", ""targetId"": """&amp;B84&amp;""", ""shortDescription"": """&amp;C84&amp;""", ""fullDescriptionHtml"": """&amp;D84&amp;""", ""direction"": """&amp;E84&amp;"""},")</f>
@@ -11442,7 +11468,7 @@
         <v>268</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G85" s="0" t="str">
         <f aca="false">IF(E85="","","{""sourceId"": """&amp;A85&amp;""", ""targetId"": """&amp;B85&amp;""", ""shortDescription"": """&amp;C85&amp;""", ""fullDescriptionHtml"": """&amp;D85&amp;""", ""direction"": """&amp;E85&amp;"""},")</f>
@@ -11457,7 +11483,7 @@
         <v>310</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G86" s="0" t="str">
         <f aca="false">IF(E86="","","{""sourceId"": """&amp;A86&amp;""", ""targetId"": """&amp;B86&amp;""", ""shortDescription"": """&amp;C86&amp;""", ""fullDescriptionHtml"": """&amp;D86&amp;""", ""direction"": """&amp;E86&amp;"""},")</f>
@@ -11472,7 +11498,7 @@
         <v>340</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G87" s="0" t="str">
         <f aca="false">IF(E87="","","{""sourceId"": """&amp;A87&amp;""", ""targetId"": """&amp;B87&amp;""", ""shortDescription"": """&amp;C87&amp;""", ""fullDescriptionHtml"": """&amp;D87&amp;""", ""direction"": """&amp;E87&amp;"""},")</f>
@@ -11487,7 +11513,7 @@
         <v>166</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G88" s="0" t="str">
         <f aca="false">IF(E88="","","{""sourceId"": """&amp;A88&amp;""", ""targetId"": """&amp;B88&amp;""", ""shortDescription"": """&amp;C88&amp;""", ""fullDescriptionHtml"": """&amp;D88&amp;""", ""direction"": """&amp;E88&amp;"""},")</f>
@@ -11502,7 +11528,7 @@
         <v>169</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G89" s="0" t="str">
         <f aca="false">IF(E89="","","{""sourceId"": """&amp;A89&amp;""", ""targetId"": """&amp;B89&amp;""", ""shortDescription"": """&amp;C89&amp;""", ""fullDescriptionHtml"": """&amp;D89&amp;""", ""direction"": """&amp;E89&amp;"""},")</f>
@@ -11517,7 +11543,7 @@
         <v>172</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G90" s="0" t="str">
         <f aca="false">IF(E90="","","{""sourceId"": """&amp;A90&amp;""", ""targetId"": """&amp;B90&amp;""", ""shortDescription"": """&amp;C90&amp;""", ""fullDescriptionHtml"": """&amp;D90&amp;""", ""direction"": """&amp;E90&amp;"""},")</f>
@@ -11532,7 +11558,7 @@
         <v>175</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G91" s="0" t="str">
         <f aca="false">IF(E91="","","{""sourceId"": """&amp;A91&amp;""", ""targetId"": """&amp;B91&amp;""", ""shortDescription"": """&amp;C91&amp;""", ""fullDescriptionHtml"": """&amp;D91&amp;""", ""direction"": """&amp;E91&amp;"""},")</f>
@@ -11547,7 +11573,7 @@
         <v>355</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G92" s="0" t="str">
         <f aca="false">IF(E92="","","{""sourceId"": """&amp;A92&amp;""", ""targetId"": """&amp;B92&amp;""", ""shortDescription"": """&amp;C92&amp;""", ""fullDescriptionHtml"": """&amp;D92&amp;""", ""direction"": """&amp;E92&amp;"""},")</f>
@@ -11562,7 +11588,7 @@
         <v>364</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G93" s="0" t="str">
         <f aca="false">IF(E93="","","{""sourceId"": """&amp;A93&amp;""", ""targetId"": """&amp;B93&amp;""", ""shortDescription"": """&amp;C93&amp;""", ""fullDescriptionHtml"": """&amp;D93&amp;""", ""direction"": """&amp;E93&amp;"""},")</f>
@@ -11577,7 +11603,7 @@
         <v>373</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G94" s="0" t="str">
         <f aca="false">IF(E94="","","{""sourceId"": """&amp;A94&amp;""", ""targetId"": """&amp;B94&amp;""", ""shortDescription"": """&amp;C94&amp;""", ""fullDescriptionHtml"": """&amp;D94&amp;""", ""direction"": """&amp;E94&amp;"""},")</f>
@@ -11592,7 +11618,7 @@
         <v>187</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G95" s="0" t="str">
         <f aca="false">IF(E95="","","{""sourceId"": """&amp;A95&amp;""", ""targetId"": """&amp;B95&amp;""", ""shortDescription"": """&amp;C95&amp;""", ""fullDescriptionHtml"": """&amp;D95&amp;""", ""direction"": """&amp;E95&amp;"""},")</f>
@@ -11604,10 +11630,10 @@
         <v>63</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>1072</v>
+        <v>385</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G96" s="0" t="str">
         <f aca="false">IF(E96="","","{""sourceId"": """&amp;A96&amp;""", ""targetId"": """&amp;B96&amp;""", ""shortDescription"": """&amp;C96&amp;""", ""fullDescriptionHtml"": """&amp;D96&amp;""", ""direction"": """&amp;E96&amp;"""},")</f>
@@ -11622,7 +11648,7 @@
         <v>178</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G97" s="0" t="str">
         <f aca="false">IF(E97="","","{""sourceId"": """&amp;A97&amp;""", ""targetId"": """&amp;B97&amp;""", ""shortDescription"": """&amp;C97&amp;""", ""fullDescriptionHtml"": """&amp;D97&amp;""", ""direction"": """&amp;E97&amp;"""},")</f>
@@ -11637,7 +11663,7 @@
         <v>394</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G98" s="0" t="str">
         <f aca="false">IF(E98="","","{""sourceId"": """&amp;A98&amp;""", ""targetId"": """&amp;B98&amp;""", ""shortDescription"": """&amp;C98&amp;""", ""fullDescriptionHtml"": """&amp;D98&amp;""", ""direction"": """&amp;E98&amp;"""},")</f>
@@ -11652,7 +11678,7 @@
         <v>211</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G99" s="0" t="str">
         <f aca="false">IF(E99="","","{""sourceId"": """&amp;A99&amp;""", ""targetId"": """&amp;B99&amp;""", ""shortDescription"": """&amp;C99&amp;""", ""fullDescriptionHtml"": """&amp;D99&amp;""", ""direction"": """&amp;E99&amp;"""},")</f>
@@ -11667,7 +11693,7 @@
         <v>214</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G100" s="0" t="str">
         <f aca="false">IF(E100="","","{""sourceId"": """&amp;A100&amp;""", ""targetId"": """&amp;B100&amp;""", ""shortDescription"": """&amp;C100&amp;""", ""fullDescriptionHtml"": """&amp;D100&amp;""", ""direction"": """&amp;E100&amp;"""},")</f>
@@ -11682,7 +11708,7 @@
         <v>409</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G101" s="0" t="str">
         <f aca="false">IF(E101="","","{""sourceId"": """&amp;A101&amp;""", ""targetId"": """&amp;B101&amp;""", ""shortDescription"": """&amp;C101&amp;""", ""fullDescriptionHtml"": """&amp;D101&amp;""", ""direction"": """&amp;E101&amp;"""},")</f>
@@ -11697,7 +11723,7 @@
         <v>184</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G102" s="0" t="str">
         <f aca="false">IF(E102="","","{""sourceId"": """&amp;A102&amp;""", ""targetId"": """&amp;B102&amp;""", ""shortDescription"": """&amp;C102&amp;""", ""fullDescriptionHtml"": """&amp;D102&amp;""", ""direction"": """&amp;E102&amp;"""},")</f>
@@ -11712,7 +11738,7 @@
         <v>187</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G103" s="0" t="str">
         <f aca="false">IF(E103="","","{""sourceId"": """&amp;A103&amp;""", ""targetId"": """&amp;B103&amp;""", ""shortDescription"": """&amp;C103&amp;""", ""fullDescriptionHtml"": """&amp;D103&amp;""", ""direction"": """&amp;E103&amp;"""},")</f>
@@ -11727,7 +11753,7 @@
         <v>421</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G104" s="0" t="str">
         <f aca="false">IF(E104="","","{""sourceId"": """&amp;A104&amp;""", ""targetId"": """&amp;B104&amp;""", ""shortDescription"": """&amp;C104&amp;""", ""fullDescriptionHtml"": """&amp;D104&amp;""", ""direction"": """&amp;E104&amp;"""},")</f>
@@ -11742,7 +11768,7 @@
         <v>430</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G105" s="0" t="str">
         <f aca="false">IF(E105="","","{""sourceId"": """&amp;A105&amp;""", ""targetId"": """&amp;B105&amp;""", ""shortDescription"": """&amp;C105&amp;""", ""fullDescriptionHtml"": """&amp;D105&amp;""", ""direction"": """&amp;E105&amp;"""},")</f>
@@ -11757,7 +11783,7 @@
         <v>439</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G106" s="0" t="str">
         <f aca="false">IF(E106="","","{""sourceId"": """&amp;A106&amp;""", ""targetId"": """&amp;B106&amp;""", ""shortDescription"": """&amp;C106&amp;""", ""fullDescriptionHtml"": """&amp;D106&amp;""", ""direction"": """&amp;E106&amp;"""},")</f>
@@ -11772,7 +11798,7 @@
         <v>448</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G107" s="0" t="str">
         <f aca="false">IF(E107="","","{""sourceId"": """&amp;A107&amp;""", ""targetId"": """&amp;B107&amp;""", ""shortDescription"": """&amp;C107&amp;""", ""fullDescriptionHtml"": """&amp;D107&amp;""", ""direction"": """&amp;E107&amp;"""},")</f>
@@ -11787,7 +11813,7 @@
         <v>349</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G108" s="0" t="str">
         <f aca="false">IF(E108="","","{""sourceId"": """&amp;A108&amp;""", ""targetId"": """&amp;B108&amp;""", ""shortDescription"": """&amp;C108&amp;""", ""fullDescriptionHtml"": """&amp;D108&amp;""", ""direction"": """&amp;E108&amp;"""},")</f>
@@ -11802,7 +11828,7 @@
         <v>457</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G109" s="0" t="str">
         <f aca="false">IF(E109="","","{""sourceId"": """&amp;A109&amp;""", ""targetId"": """&amp;B109&amp;""", ""shortDescription"": """&amp;C109&amp;""", ""fullDescriptionHtml"": """&amp;D109&amp;""", ""direction"": """&amp;E109&amp;"""},")</f>
@@ -11817,7 +11843,7 @@
         <v>469</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G110" s="0" t="str">
         <f aca="false">IF(E110="","","{""sourceId"": """&amp;A110&amp;""", ""targetId"": """&amp;B110&amp;""", ""shortDescription"": """&amp;C110&amp;""", ""fullDescriptionHtml"": """&amp;D110&amp;""", ""direction"": """&amp;E110&amp;"""},")</f>
@@ -11834,7 +11860,7 @@
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F111" s="0"/>
       <c r="G111" s="0" t="str">
@@ -11853,7 +11879,7 @@
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F112" s="0"/>
       <c r="G112" s="0" t="str">
@@ -11872,7 +11898,7 @@
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F113" s="0"/>
       <c r="G113" s="0" t="str">
@@ -11891,7 +11917,7 @@
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F114" s="0"/>
       <c r="G114" s="0" t="str">
@@ -11910,7 +11936,7 @@
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F115" s="0"/>
       <c r="G115" s="0" t="str">
@@ -11929,7 +11955,7 @@
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F116" s="0"/>
       <c r="G116" s="0" t="str">
@@ -11948,7 +11974,7 @@
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F117" s="0"/>
       <c r="G117" s="0" t="str">
@@ -11967,7 +11993,7 @@
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F118" s="0"/>
       <c r="G118" s="0" t="str">
@@ -11986,7 +12012,7 @@
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F119" s="0"/>
       <c r="G119" s="0" t="str">
@@ -12005,7 +12031,7 @@
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F120" s="0"/>
       <c r="G120" s="0" t="str">
@@ -12024,7 +12050,7 @@
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F121" s="0"/>
       <c r="G121" s="0" t="str">
@@ -12043,7 +12069,7 @@
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F122" s="0"/>
       <c r="G122" s="0" t="str">
@@ -12062,7 +12088,7 @@
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F123" s="0"/>
       <c r="G123" s="0" t="str">
@@ -12081,7 +12107,7 @@
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F124" s="0"/>
       <c r="G124" s="0" t="str">
@@ -12100,7 +12126,7 @@
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F125" s="0"/>
       <c r="G125" s="0" t="str">
@@ -12119,7 +12145,7 @@
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F126" s="0"/>
       <c r="G126" s="0" t="str">
@@ -12138,7 +12164,7 @@
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F127" s="0"/>
       <c r="G127" s="0" t="str">
@@ -12157,7 +12183,7 @@
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F128" s="0"/>
       <c r="G128" s="0" t="str">
@@ -12176,7 +12202,7 @@
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F129" s="0"/>
       <c r="G129" s="0" t="str">
@@ -12195,7 +12221,7 @@
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F130" s="0"/>
       <c r="G130" s="0" t="str">
@@ -12214,7 +12240,7 @@
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F131" s="0"/>
       <c r="G131" s="0" t="str">
@@ -12233,7 +12259,7 @@
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F132" s="0"/>
       <c r="G132" s="0" t="str">
@@ -12252,7 +12278,7 @@
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F133" s="0"/>
       <c r="G133" s="0" t="str">
@@ -12271,7 +12297,7 @@
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F134" s="0"/>
       <c r="G134" s="0" t="str">
@@ -12290,7 +12316,7 @@
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F135" s="0"/>
       <c r="G135" s="0" t="str">
@@ -12309,7 +12335,7 @@
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F136" s="0"/>
       <c r="G136" s="0" t="str">
@@ -12328,7 +12354,7 @@
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F137" s="0"/>
       <c r="G137" s="0" t="str">
@@ -12347,7 +12373,7 @@
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F138" s="0"/>
       <c r="G138" s="0" t="str">
@@ -12366,7 +12392,7 @@
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F139" s="0"/>
       <c r="G139" s="0" t="str">
@@ -12385,7 +12411,7 @@
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F140" s="0"/>
       <c r="G140" s="0" t="str">
@@ -12404,7 +12430,7 @@
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F141" s="0"/>
       <c r="G141" s="0" t="str">
@@ -12423,7 +12449,7 @@
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F142" s="0"/>
       <c r="G142" s="0" t="str">
@@ -12442,7 +12468,7 @@
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F143" s="0"/>
       <c r="G143" s="0" t="str">
@@ -12461,7 +12487,7 @@
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F144" s="0"/>
       <c r="G144" s="0" t="str">
@@ -12480,7 +12506,7 @@
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F145" s="0"/>
       <c r="G145" s="0" t="str">
@@ -12499,7 +12525,7 @@
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F146" s="0"/>
       <c r="G146" s="0" t="str">
@@ -12518,7 +12544,7 @@
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F147" s="0"/>
       <c r="G147" s="0" t="str">
@@ -12537,7 +12563,7 @@
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F148" s="0"/>
       <c r="G148" s="0" t="str">
@@ -12556,7 +12582,7 @@
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F149" s="0"/>
       <c r="G149" s="0" t="str">
@@ -12575,7 +12601,7 @@
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F150" s="0"/>
       <c r="G150" s="0" t="str">
@@ -12594,7 +12620,7 @@
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F151" s="0"/>
       <c r="G151" s="0" t="str">
@@ -12613,7 +12639,7 @@
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F152" s="0"/>
       <c r="G152" s="0" t="str">
@@ -12632,7 +12658,7 @@
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F153" s="0"/>
       <c r="G153" s="0" t="str">
@@ -12651,7 +12677,7 @@
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F154" s="0"/>
       <c r="G154" s="0" t="str">
@@ -12670,7 +12696,7 @@
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F155" s="0"/>
       <c r="G155" s="0" t="str">
@@ -12689,7 +12715,7 @@
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F156" s="0"/>
       <c r="G156" s="0" t="str">
@@ -12708,7 +12734,7 @@
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F157" s="0"/>
       <c r="G157" s="0" t="str">
@@ -12727,7 +12753,7 @@
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F158" s="0"/>
       <c r="G158" s="0" t="str">
@@ -12746,7 +12772,7 @@
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F159" s="0"/>
       <c r="G159" s="0" t="str">
@@ -12765,7 +12791,7 @@
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F160" s="0"/>
       <c r="G160" s="0" t="str">
@@ -12784,7 +12810,7 @@
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F161" s="0"/>
       <c r="G161" s="0" t="str">
@@ -12803,7 +12829,7 @@
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F162" s="0"/>
       <c r="G162" s="0" t="str">
@@ -12822,7 +12848,7 @@
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F163" s="0"/>
       <c r="G163" s="0" t="str">
@@ -12841,7 +12867,7 @@
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F164" s="0"/>
       <c r="G164" s="0" t="str">
@@ -12860,7 +12886,7 @@
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F165" s="0"/>
       <c r="G165" s="0" t="str">
@@ -12879,7 +12905,7 @@
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F166" s="0"/>
       <c r="G166" s="0" t="str">
@@ -12898,7 +12924,7 @@
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F167" s="0"/>
       <c r="G167" s="0" t="str">
@@ -12917,7 +12943,7 @@
       <c r="C168" s="0"/>
       <c r="D168" s="0"/>
       <c r="E168" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G168" s="0" t="str">
         <f aca="false">IF(E168="","","{""sourceId"": """&amp;A168&amp;""", ""targetId"": """&amp;B168&amp;""", ""shortDescription"": """&amp;C168&amp;""", ""fullDescriptionHtml"": """&amp;D168&amp;""", ""direction"": """&amp;E168&amp;"""},")</f>
@@ -12934,7 +12960,7 @@
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F169" s="0"/>
       <c r="G169" s="0" t="str">
@@ -12953,7 +12979,7 @@
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F170" s="0"/>
       <c r="G170" s="0" t="str">
@@ -12972,7 +12998,7 @@
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F171" s="0"/>
       <c r="G171" s="0" t="str">
@@ -12991,7 +13017,7 @@
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F172" s="0"/>
       <c r="G172" s="0" t="str">
@@ -13010,7 +13036,7 @@
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F173" s="0"/>
       <c r="G173" s="0" t="str">
@@ -13029,7 +13055,7 @@
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F174" s="0"/>
       <c r="G174" s="0" t="str">
@@ -13048,7 +13074,7 @@
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F175" s="0"/>
       <c r="G175" s="0" t="str">
@@ -13067,7 +13093,7 @@
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F176" s="0"/>
       <c r="G176" s="0" t="str">
@@ -13086,7 +13112,7 @@
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F177" s="0"/>
       <c r="G177" s="0" t="str">
@@ -13105,7 +13131,7 @@
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F178" s="0"/>
       <c r="G178" s="0" t="str">
@@ -13119,12 +13145,12 @@
         <v>382</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>1072</v>
+        <v>385</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F179" s="0"/>
       <c r="G179" s="0" t="str">
@@ -13143,7 +13169,7 @@
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F180" s="0"/>
       <c r="G180" s="0" t="str">
@@ -13162,7 +13188,7 @@
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F181" s="0"/>
       <c r="G181" s="0" t="str">
@@ -13181,7 +13207,7 @@
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F182" s="0"/>
       <c r="G182" s="0" t="str">
@@ -13200,7 +13226,7 @@
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F183" s="0"/>
       <c r="G183" s="0" t="str">
@@ -13219,7 +13245,7 @@
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F184" s="0"/>
       <c r="G184" s="0" t="str">
@@ -13238,7 +13264,7 @@
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F185" s="0"/>
       <c r="G185" s="0" t="str">
@@ -13257,7 +13283,7 @@
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F186" s="0"/>
       <c r="G186" s="0" t="str">
@@ -13276,7 +13302,7 @@
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F187" s="0"/>
       <c r="G187" s="0" t="str">
@@ -13295,7 +13321,7 @@
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F188" s="0"/>
       <c r="G188" s="0" t="str">
@@ -13314,7 +13340,7 @@
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F189" s="0"/>
       <c r="G189" s="0" t="str">
@@ -13333,7 +13359,7 @@
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F190" s="0"/>
       <c r="G190" s="0" t="str">
@@ -13352,7 +13378,7 @@
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F191" s="0"/>
       <c r="G191" s="0" t="str">
@@ -13371,7 +13397,7 @@
       <c r="C192" s="0"/>
       <c r="D192" s="0"/>
       <c r="E192" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G192" s="0" t="str">
         <f aca="false">IF(E192="","","{""sourceId"": """&amp;A192&amp;""", ""targetId"": """&amp;B192&amp;""", ""shortDescription"": """&amp;C192&amp;""", ""fullDescriptionHtml"": """&amp;D192&amp;""", ""direction"": """&amp;E192&amp;"""},")</f>
@@ -13388,7 +13414,7 @@
       <c r="C193" s="0"/>
       <c r="D193" s="0"/>
       <c r="E193" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G193" s="0" t="str">
         <f aca="false">IF(E193="","","{""sourceId"": """&amp;A193&amp;""", ""targetId"": """&amp;B193&amp;""", ""shortDescription"": """&amp;C193&amp;""", ""fullDescriptionHtml"": """&amp;D193&amp;""", ""direction"": """&amp;E193&amp;"""},")</f>
@@ -13405,7 +13431,7 @@
       <c r="C194" s="0"/>
       <c r="D194" s="0"/>
       <c r="E194" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G194" s="0" t="str">
         <f aca="false">IF(E194="","","{""sourceId"": """&amp;A194&amp;""", ""targetId"": """&amp;B194&amp;""", ""shortDescription"": """&amp;C194&amp;""", ""fullDescriptionHtml"": """&amp;D194&amp;""", ""direction"": """&amp;E194&amp;"""},")</f>
@@ -13422,7 +13448,7 @@
       <c r="C195" s="0"/>
       <c r="D195" s="0"/>
       <c r="E195" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G195" s="0" t="str">
         <f aca="false">IF(E195="","","{""sourceId"": """&amp;A195&amp;""", ""targetId"": """&amp;B195&amp;""", ""shortDescription"": """&amp;C195&amp;""", ""fullDescriptionHtml"": """&amp;D195&amp;""", ""direction"": """&amp;E195&amp;"""},")</f>
@@ -13439,7 +13465,7 @@
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F196" s="0"/>
       <c r="G196" s="0" t="str">
@@ -13458,7 +13484,7 @@
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F197" s="0"/>
       <c r="G197" s="0" t="str">
@@ -13477,7 +13503,7 @@
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F198" s="0"/>
       <c r="G198" s="0" t="str">
@@ -13496,7 +13522,7 @@
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F199" s="0"/>
       <c r="G199" s="0" t="str">
@@ -13515,7 +13541,7 @@
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F200" s="0"/>
       <c r="G200" s="0" t="str">
@@ -13534,7 +13560,7 @@
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F201" s="0"/>
       <c r="G201" s="0" t="str">
@@ -13553,7 +13579,7 @@
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F202" s="0"/>
       <c r="G202" s="0" t="str">
@@ -13572,7 +13598,7 @@
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F203" s="0"/>
       <c r="G203" s="0" t="str">
@@ -13591,7 +13617,7 @@
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F204" s="0"/>
       <c r="G204" s="0" t="str">
@@ -13610,7 +13636,7 @@
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F205" s="0"/>
       <c r="G205" s="0" t="str">
@@ -13629,7 +13655,7 @@
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F206" s="0"/>
       <c r="G206" s="0" t="str">
@@ -13648,7 +13674,7 @@
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F207" s="0"/>
       <c r="G207" s="0" t="str">
@@ -13667,7 +13693,7 @@
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F208" s="0"/>
       <c r="G208" s="0" t="str">
@@ -13686,7 +13712,7 @@
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F209" s="0"/>
       <c r="G209" s="0" t="str">
@@ -13705,7 +13731,7 @@
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F210" s="0"/>
       <c r="G210" s="0" t="str">
@@ -13724,7 +13750,7 @@
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F211" s="0"/>
       <c r="G211" s="0" t="str">
@@ -13743,7 +13769,7 @@
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F212" s="0"/>
       <c r="G212" s="0" t="str">
@@ -13762,7 +13788,7 @@
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F213" s="0"/>
       <c r="G213" s="0" t="str">
@@ -13781,7 +13807,7 @@
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F214" s="0"/>
       <c r="G214" s="0" t="str">
@@ -13800,7 +13826,7 @@
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F215" s="0"/>
       <c r="G215" s="0" t="str">
@@ -13819,7 +13845,7 @@
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F216" s="0"/>
       <c r="G216" s="0" t="str">
@@ -13838,7 +13864,7 @@
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F217" s="0"/>
       <c r="G217" s="0" t="str">
@@ -13857,7 +13883,7 @@
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F218" s="0"/>
       <c r="G218" s="0" t="str">
@@ -13876,7 +13902,7 @@
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F219" s="0"/>
       <c r="G219" s="0" t="str">
@@ -13895,7 +13921,7 @@
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F220" s="0"/>
       <c r="G220" s="0" t="str">
@@ -13914,7 +13940,7 @@
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F221" s="0"/>
       <c r="G221" s="0" t="str">
@@ -13933,7 +13959,7 @@
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F222" s="0"/>
       <c r="G222" s="0" t="str">
@@ -13952,7 +13978,7 @@
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F223" s="0"/>
       <c r="G223" s="0" t="str">
@@ -13971,7 +13997,7 @@
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F224" s="0"/>
       <c r="G224" s="0" t="str">
@@ -13990,7 +14016,7 @@
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F225" s="0"/>
       <c r="G225" s="0" t="str">
@@ -14009,7 +14035,7 @@
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F226" s="0"/>
       <c r="G226" s="0" t="str">
@@ -14028,7 +14054,7 @@
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F227" s="0"/>
       <c r="G227" s="0" t="str">
@@ -14047,7 +14073,7 @@
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F228" s="0"/>
       <c r="G228" s="0" t="str">
@@ -14066,7 +14092,7 @@
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F229" s="0"/>
       <c r="G229" s="0" t="str">
@@ -14085,7 +14111,7 @@
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F230" s="0"/>
       <c r="G230" s="0" t="str">
@@ -14104,7 +14130,7 @@
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F231" s="0"/>
       <c r="G231" s="0" t="str">
@@ -14123,7 +14149,7 @@
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F232" s="0"/>
       <c r="G232" s="0" t="str">
@@ -14142,7 +14168,7 @@
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F233" s="0"/>
       <c r="G233" s="0" t="str">
@@ -14161,7 +14187,7 @@
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F234" s="0"/>
       <c r="G234" s="0" t="str">
@@ -14180,7 +14206,7 @@
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F235" s="0"/>
       <c r="G235" s="0" t="str">
@@ -14199,7 +14225,7 @@
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F236" s="0"/>
       <c r="G236" s="0" t="str">
@@ -14218,7 +14244,7 @@
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F237" s="0"/>
       <c r="G237" s="0" t="str">
@@ -14237,7 +14263,7 @@
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F238" s="0"/>
       <c r="G238" s="0" t="str">
@@ -14256,7 +14282,7 @@
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F239" s="0"/>
       <c r="G239" s="0" t="str">
@@ -14275,7 +14301,7 @@
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F240" s="0"/>
       <c r="G240" s="0" t="str">
@@ -14294,7 +14320,7 @@
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
       <c r="E241" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F241" s="0"/>
       <c r="G241" s="0" t="str">
@@ -14313,7 +14339,7 @@
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F242" s="0"/>
       <c r="G242" s="0" t="str">
@@ -14332,7 +14358,7 @@
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
       <c r="E243" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F243" s="0"/>
       <c r="G243" s="0" t="str">
@@ -14342,7 +14368,7 @@
       <c r="AMJ243" s="2"/>
     </row>
     <row r="244" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="10" t="s">
+      <c r="A244" s="6" t="s">
         <v>277</v>
       </c>
       <c r="B244" s="6" t="s">
@@ -14351,7 +14377,7 @@
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F244" s="0"/>
       <c r="G244" s="0" t="str">
@@ -14370,7 +14396,7 @@
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F245" s="0"/>
       <c r="G245" s="0" t="str">
@@ -14389,7 +14415,7 @@
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F246" s="0"/>
       <c r="G246" s="0" t="str">
@@ -14408,7 +14434,7 @@
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F247" s="0"/>
       <c r="G247" s="0" t="str">
@@ -14427,7 +14453,7 @@
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F248" s="0"/>
       <c r="G248" s="0" t="str">
@@ -14446,7 +14472,7 @@
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F249" s="0"/>
       <c r="G249" s="0" t="str">
@@ -14465,7 +14491,7 @@
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F250" s="0"/>
       <c r="G250" s="0" t="str">
@@ -14484,7 +14510,7 @@
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F251" s="0"/>
       <c r="G251" s="0" t="str">
@@ -14503,7 +14529,7 @@
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
       <c r="E252" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F252" s="0"/>
       <c r="G252" s="0" t="str">
@@ -14522,7 +14548,7 @@
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F253" s="0"/>
       <c r="G253" s="0" t="str">
@@ -14541,7 +14567,7 @@
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F254" s="0"/>
       <c r="G254" s="0" t="str">
@@ -14560,7 +14586,7 @@
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F255" s="0"/>
       <c r="G255" s="0" t="str">
@@ -14579,7 +14605,7 @@
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
       <c r="E256" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F256" s="0"/>
       <c r="G256" s="0" t="str">
@@ -14598,7 +14624,7 @@
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
       <c r="E257" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F257" s="0"/>
       <c r="G257" s="0" t="str">
@@ -14617,7 +14643,7 @@
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F258" s="0"/>
       <c r="G258" s="0" t="str">
@@ -14636,7 +14662,7 @@
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
       <c r="E259" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F259" s="0"/>
       <c r="G259" s="0" t="str">
@@ -14655,7 +14681,7 @@
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F260" s="0"/>
       <c r="G260" s="0" t="str">
@@ -14674,7 +14700,7 @@
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F261" s="0"/>
       <c r="G261" s="0" t="str">
@@ -14693,7 +14719,7 @@
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
       <c r="E262" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F262" s="0"/>
       <c r="G262" s="0" t="str">
@@ -14712,7 +14738,7 @@
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
       <c r="E263" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F263" s="0"/>
       <c r="G263" s="0" t="str">
@@ -14731,7 +14757,7 @@
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
       <c r="E264" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F264" s="0"/>
       <c r="G264" s="0" t="str">
@@ -14750,7 +14776,7 @@
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
       <c r="E265" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F265" s="0"/>
       <c r="G265" s="0" t="str">
@@ -14769,7 +14795,7 @@
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F266" s="0"/>
       <c r="G266" s="0" t="str">
@@ -14788,7 +14814,7 @@
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F267" s="0"/>
       <c r="G267" s="0" t="str">
@@ -14807,7 +14833,7 @@
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
       <c r="E268" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F268" s="0"/>
       <c r="G268" s="0" t="str">
@@ -14826,7 +14852,7 @@
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
       <c r="E269" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F269" s="0"/>
       <c r="G269" s="0" t="str">
@@ -14845,7 +14871,7 @@
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
       <c r="E270" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F270" s="0"/>
       <c r="G270" s="0" t="str">
@@ -14864,7 +14890,7 @@
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F271" s="0"/>
       <c r="G271" s="0" t="str">
@@ -14883,7 +14909,7 @@
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F272" s="0"/>
       <c r="G272" s="0" t="str">
@@ -14902,7 +14928,7 @@
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F273" s="0"/>
       <c r="G273" s="0" t="str">
@@ -14921,7 +14947,7 @@
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F274" s="0"/>
       <c r="G274" s="0" t="str">
@@ -14931,7 +14957,7 @@
       <c r="AMJ274" s="2"/>
     </row>
     <row r="275" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="10" t="s">
+      <c r="A275" s="6" t="s">
         <v>277</v>
       </c>
       <c r="B275" s="6" t="s">
@@ -14940,7 +14966,7 @@
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F275" s="0"/>
       <c r="G275" s="0" t="str">
@@ -14959,7 +14985,7 @@
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F276" s="0"/>
       <c r="G276" s="0" t="str">
@@ -14978,7 +15004,7 @@
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F277" s="0"/>
       <c r="G277" s="0" t="str">
@@ -14997,7 +15023,7 @@
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F278" s="0"/>
       <c r="G278" s="0" t="str">
@@ -15016,7 +15042,7 @@
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F279" s="0"/>
       <c r="G279" s="0" t="str">
@@ -15035,7 +15061,7 @@
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F280" s="0"/>
       <c r="G280" s="0" t="str">
@@ -15054,7 +15080,7 @@
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F281" s="0"/>
       <c r="G281" s="0" t="str">
@@ -15073,7 +15099,7 @@
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
       <c r="E282" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F282" s="0"/>
       <c r="G282" s="0" t="str">
@@ -15092,7 +15118,7 @@
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
       <c r="E283" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F283" s="0"/>
       <c r="G283" s="0" t="str">
@@ -15111,7 +15137,7 @@
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F284" s="0"/>
       <c r="G284" s="0" t="str">
@@ -15130,7 +15156,7 @@
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F285" s="0"/>
       <c r="G285" s="0" t="str">
@@ -15149,7 +15175,7 @@
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F286" s="0"/>
       <c r="G286" s="0" t="str">
@@ -15168,7 +15194,7 @@
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F287" s="0"/>
       <c r="G287" s="0" t="str">
@@ -15187,7 +15213,7 @@
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F288" s="0"/>
       <c r="G288" s="0" t="str">
@@ -15206,7 +15232,7 @@
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F289" s="0"/>
       <c r="G289" s="0" t="str">
@@ -15225,7 +15251,7 @@
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F290" s="0"/>
       <c r="G290" s="0" t="str">
@@ -15244,7 +15270,7 @@
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F291" s="0"/>
       <c r="G291" s="0" t="str">
@@ -15263,7 +15289,7 @@
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F292" s="0"/>
       <c r="G292" s="0" t="str">
@@ -15282,7 +15308,7 @@
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F293" s="0"/>
       <c r="G293" s="0" t="str">
@@ -15301,7 +15327,7 @@
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F294" s="0"/>
       <c r="G294" s="0" t="str">
@@ -15320,7 +15346,7 @@
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F295" s="0"/>
       <c r="G295" s="0" t="str">
@@ -15339,7 +15365,7 @@
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F296" s="0"/>
       <c r="G296" s="0" t="str">
@@ -15358,7 +15384,7 @@
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="F297" s="0"/>
       <c r="G297" s="0" t="str">
@@ -15377,7 +15403,7 @@
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F298" s="0"/>
       <c r="G298" s="0" t="str">
@@ -15396,7 +15422,7 @@
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F299" s="0"/>
       <c r="G299" s="0" t="str">
@@ -15415,7 +15441,7 @@
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F300" s="0"/>
       <c r="G300" s="0" t="str">
@@ -15434,7 +15460,7 @@
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F301" s="0"/>
       <c r="G301" s="0" t="str">
@@ -15453,7 +15479,7 @@
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F302" s="0"/>
       <c r="G302" s="0" t="str">
@@ -15472,7 +15498,7 @@
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F303" s="0"/>
       <c r="G303" s="0" t="str">
@@ -15491,7 +15517,7 @@
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F304" s="0"/>
       <c r="G304" s="0" t="str">
@@ -15510,7 +15536,7 @@
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F305" s="0"/>
       <c r="G305" s="0" t="str">
@@ -15529,7 +15555,7 @@
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F306" s="0"/>
       <c r="G306" s="0" t="str">
@@ -15548,7 +15574,7 @@
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F307" s="0"/>
       <c r="G307" s="0" t="str">
@@ -15567,7 +15593,7 @@
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F308" s="0"/>
       <c r="G308" s="0" t="str">
@@ -15586,7 +15612,7 @@
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F309" s="0"/>
       <c r="G309" s="0" t="str">
@@ -15605,7 +15631,7 @@
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F310" s="0"/>
       <c r="G310" s="0" t="str">
@@ -15624,7 +15650,7 @@
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F311" s="0"/>
       <c r="G311" s="0" t="str">
@@ -15643,7 +15669,7 @@
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F312" s="0"/>
       <c r="G312" s="0" t="str">
@@ -15662,7 +15688,7 @@
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F313" s="0"/>
       <c r="G313" s="0" t="str">
@@ -15681,7 +15707,7 @@
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F314" s="0"/>
       <c r="G314" s="0" t="str">
@@ -15700,7 +15726,7 @@
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F315" s="0"/>
       <c r="G315" s="0" t="str">
@@ -15719,7 +15745,7 @@
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F316" s="0"/>
       <c r="G316" s="0" t="str">
@@ -15738,7 +15764,7 @@
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F317" s="0"/>
       <c r="G317" s="0" t="str">
@@ -15757,7 +15783,7 @@
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F318" s="0"/>
       <c r="G318" s="0" t="str">
@@ -15776,7 +15802,7 @@
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F319" s="0"/>
       <c r="G319" s="0" t="str">
@@ -15795,7 +15821,7 @@
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F320" s="0"/>
       <c r="G320" s="0" t="str">
@@ -15814,7 +15840,7 @@
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F321" s="0"/>
       <c r="G321" s="0" t="str">
@@ -15833,7 +15859,7 @@
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F322" s="0"/>
       <c r="G322" s="0" t="str">
@@ -15852,7 +15878,7 @@
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F323" s="0"/>
       <c r="G323" s="0" t="str">
@@ -15871,7 +15897,7 @@
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F324" s="0"/>
       <c r="G324" s="0" t="str">
@@ -15890,7 +15916,7 @@
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F325" s="0"/>
       <c r="G325" s="0" t="str">
@@ -15909,7 +15935,7 @@
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F326" s="0"/>
       <c r="G326" s="0" t="str">
@@ -15928,7 +15954,7 @@
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F327" s="0"/>
       <c r="G327" s="0" t="str">
@@ -15947,7 +15973,7 @@
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F328" s="0"/>
       <c r="G328" s="0" t="str">
@@ -15966,7 +15992,7 @@
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F329" s="0"/>
       <c r="G329" s="0" t="str">
@@ -15985,7 +16011,7 @@
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F330" s="0"/>
       <c r="G330" s="0" t="str">
@@ -16004,7 +16030,7 @@
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F331" s="0"/>
       <c r="G331" s="0" t="str">
@@ -16023,7 +16049,7 @@
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
       <c r="E332" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F332" s="0"/>
       <c r="G332" s="0" t="str">
@@ -16042,7 +16068,7 @@
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F333" s="0"/>
       <c r="G333" s="0" t="str">
@@ -16061,7 +16087,7 @@
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
       <c r="E334" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F334" s="0"/>
       <c r="G334" s="0" t="str">
@@ -16080,7 +16106,7 @@
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F335" s="0"/>
       <c r="G335" s="0" t="str">
@@ -16099,7 +16125,7 @@
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F336" s="0"/>
       <c r="G336" s="0" t="str">
@@ -16118,7 +16144,7 @@
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F337" s="0"/>
       <c r="G337" s="0" t="str">
@@ -16137,7 +16163,7 @@
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
       <c r="E338" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F338" s="0"/>
       <c r="G338" s="0" t="str">
@@ -16156,7 +16182,7 @@
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F339" s="0"/>
       <c r="G339" s="0" t="str">
@@ -16175,7 +16201,7 @@
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F340" s="0"/>
       <c r="G340" s="0" t="str">
@@ -16194,7 +16220,7 @@
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F341" s="0"/>
       <c r="G341" s="0" t="str">
@@ -16213,7 +16239,7 @@
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F342" s="0"/>
       <c r="G342" s="0" t="str">
@@ -16232,7 +16258,7 @@
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F343" s="0"/>
       <c r="G343" s="0" t="str">
@@ -16251,7 +16277,7 @@
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F344" s="0"/>
       <c r="G344" s="0" t="str">
@@ -16270,7 +16296,7 @@
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F345" s="0"/>
       <c r="G345" s="0" t="str">
@@ -16289,7 +16315,7 @@
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F346" s="0"/>
       <c r="G346" s="0" t="str">
@@ -16308,7 +16334,7 @@
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F347" s="0"/>
       <c r="G347" s="0" t="str">
@@ -16327,7 +16353,7 @@
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F348" s="0"/>
       <c r="G348" s="0" t="str">
@@ -16346,7 +16372,7 @@
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F349" s="0"/>
       <c r="G349" s="0" t="str">
@@ -16365,7 +16391,7 @@
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F350" s="0"/>
       <c r="G350" s="0" t="str">
@@ -16384,7 +16410,7 @@
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
       <c r="E351" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F351" s="0"/>
       <c r="G351" s="0" t="str">
@@ -16403,7 +16429,7 @@
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
       <c r="E352" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F352" s="0"/>
       <c r="G352" s="0" t="str">
@@ -16422,7 +16448,7 @@
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
       <c r="E353" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F353" s="0"/>
       <c r="G353" s="0" t="str">
@@ -16441,7 +16467,7 @@
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
       <c r="E354" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F354" s="0"/>
       <c r="G354" s="0" t="str">
@@ -16460,7 +16486,7 @@
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
       <c r="E355" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F355" s="0"/>
       <c r="G355" s="0" t="str">
@@ -16479,7 +16505,7 @@
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F356" s="0"/>
       <c r="G356" s="0" t="str">
@@ -16498,7 +16524,7 @@
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F357" s="0"/>
       <c r="G357" s="0" t="str">
@@ -16517,7 +16543,7 @@
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
       <c r="E358" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F358" s="0"/>
       <c r="G358" s="0" t="str">
@@ -16536,7 +16562,7 @@
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
       <c r="E359" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F359" s="0"/>
       <c r="G359" s="0" t="str">
@@ -16555,7 +16581,7 @@
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
       <c r="E360" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F360" s="0"/>
       <c r="G360" s="0" t="str">
@@ -16574,7 +16600,7 @@
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
       <c r="E361" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F361" s="0"/>
       <c r="G361" s="0" t="str">
@@ -16593,7 +16619,7 @@
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F362" s="0"/>
       <c r="G362" s="0" t="str">
@@ -16612,7 +16638,7 @@
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F363" s="0"/>
       <c r="G363" s="0" t="str">
@@ -16631,7 +16657,7 @@
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F364" s="0"/>
       <c r="G364" s="0" t="str">
@@ -16650,7 +16676,7 @@
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
       <c r="E365" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F365" s="0"/>
       <c r="G365" s="0" t="str">
@@ -16669,7 +16695,7 @@
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
       <c r="E366" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F366" s="0"/>
       <c r="G366" s="0" t="str">
@@ -16688,7 +16714,7 @@
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
       <c r="E367" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F367" s="0"/>
       <c r="G367" s="0" t="str">
@@ -16707,7 +16733,7 @@
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
       <c r="E368" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F368" s="0"/>
       <c r="G368" s="0" t="str">
@@ -16726,7 +16752,7 @@
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
       <c r="E369" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F369" s="0"/>
       <c r="G369" s="0" t="str">
@@ -16745,7 +16771,7 @@
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
       <c r="E370" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F370" s="0"/>
       <c r="G370" s="0" t="str">
@@ -16764,7 +16790,7 @@
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
       <c r="E371" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F371" s="0"/>
       <c r="G371" s="0" t="str">
@@ -16783,7 +16809,7 @@
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F372" s="0"/>
       <c r="G372" s="0" t="str">
@@ -16802,7 +16828,7 @@
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
       <c r="E373" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F373" s="0"/>
       <c r="G373" s="0" t="str">
@@ -16821,7 +16847,7 @@
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F374" s="0"/>
       <c r="G374" s="0" t="str">
@@ -16840,7 +16866,7 @@
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
       <c r="E375" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F375" s="0"/>
       <c r="G375" s="0" t="str">
@@ -16859,7 +16885,7 @@
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
       <c r="E376" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F376" s="0"/>
       <c r="G376" s="0" t="str">
@@ -16878,7 +16904,7 @@
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
       <c r="E377" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F377" s="0"/>
       <c r="G377" s="0" t="str">
@@ -16897,7 +16923,7 @@
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
       <c r="E378" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F378" s="0"/>
       <c r="G378" s="0" t="str">
@@ -16916,7 +16942,7 @@
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
       <c r="E379" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F379" s="0"/>
       <c r="G379" s="0" t="str">
@@ -16935,7 +16961,7 @@
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
       <c r="E380" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F380" s="0"/>
       <c r="G380" s="0" t="str">
@@ -16954,7 +16980,7 @@
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
       <c r="E381" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F381" s="0"/>
       <c r="G381" s="0" t="str">
@@ -16973,7 +16999,7 @@
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
       <c r="E382" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F382" s="0"/>
       <c r="G382" s="0" t="str">
@@ -16992,7 +17018,7 @@
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
       <c r="E383" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F383" s="0"/>
       <c r="G383" s="0" t="str">
@@ -17011,7 +17037,7 @@
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
       <c r="E384" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F384" s="0"/>
       <c r="G384" s="0" t="str">
@@ -17030,7 +17056,7 @@
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
       <c r="E385" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F385" s="0"/>
       <c r="G385" s="0" t="str">
@@ -17049,7 +17075,7 @@
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
       <c r="E386" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F386" s="0"/>
       <c r="G386" s="0" t="str">
@@ -17068,7 +17094,7 @@
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
       <c r="E387" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F387" s="0"/>
       <c r="G387" s="0" t="str">
@@ -17087,7 +17113,7 @@
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
       <c r="E388" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F388" s="0"/>
       <c r="G388" s="0" t="str">
@@ -17106,7 +17132,7 @@
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
       <c r="E389" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F389" s="0"/>
       <c r="G389" s="0" t="str">
@@ -17125,7 +17151,7 @@
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
       <c r="E390" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F390" s="0"/>
       <c r="G390" s="0" t="str">
@@ -17144,7 +17170,7 @@
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
       <c r="E391" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F391" s="0"/>
       <c r="G391" s="0" t="str">
@@ -17163,7 +17189,7 @@
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
       <c r="E392" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F392" s="0"/>
       <c r="G392" s="0" t="str">
@@ -17182,7 +17208,7 @@
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
       <c r="E393" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F393" s="0"/>
       <c r="G393" s="0" t="str">
@@ -17201,7 +17227,7 @@
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
       <c r="E394" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="F394" s="0"/>
       <c r="G394" s="0" t="str">
@@ -17218,7 +17244,7 @@
         <v>965</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G395" s="0" t="str">
         <f aca="false">IF(E395="","","{""sourceId"": """&amp;A395&amp;""", ""targetId"": """&amp;B395&amp;""", ""shortDescription"": """&amp;C395&amp;""", ""fullDescriptionHtml"": """&amp;D395&amp;""", ""direction"": """&amp;E395&amp;"""},")</f>
@@ -17233,7 +17259,7 @@
         <v>965</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="G396" s="0" t="str">
         <f aca="false">IF(E396="","","{""sourceId"": """&amp;A396&amp;""", ""targetId"": """&amp;B396&amp;""", ""shortDescription"": """&amp;C396&amp;""", ""fullDescriptionHtml"": """&amp;D396&amp;""", ""direction"": """&amp;E396&amp;"""},")</f>
@@ -17248,7 +17274,7 @@
         <v>968</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G397" s="0" t="str">
         <f aca="false">IF(E397="","","{""sourceId"": """&amp;A397&amp;""", ""targetId"": """&amp;B397&amp;""", ""shortDescription"": """&amp;C397&amp;""", ""fullDescriptionHtml"": """&amp;D397&amp;""", ""direction"": """&amp;E397&amp;"""},")</f>
@@ -17263,7 +17289,7 @@
         <v>968</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G398" s="0" t="str">
         <f aca="false">IF(E398="","","{""sourceId"": """&amp;A398&amp;""", ""targetId"": """&amp;B398&amp;""", ""shortDescription"": """&amp;C398&amp;""", ""fullDescriptionHtml"": """&amp;D398&amp;""", ""direction"": """&amp;E398&amp;"""},")</f>
@@ -17278,7 +17304,7 @@
         <v>968</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G399" s="0" t="str">
         <f aca="false">IF(E399="","","{""sourceId"": """&amp;A399&amp;""", ""targetId"": """&amp;B399&amp;""", ""shortDescription"": """&amp;C399&amp;""", ""fullDescriptionHtml"": """&amp;D399&amp;""", ""direction"": """&amp;E399&amp;"""},")</f>
@@ -17293,7 +17319,7 @@
         <v>971</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G400" s="0" t="str">
         <f aca="false">IF(E400="","","{""sourceId"": """&amp;A400&amp;""", ""targetId"": """&amp;B400&amp;""", ""shortDescription"": """&amp;C400&amp;""", ""fullDescriptionHtml"": """&amp;D400&amp;""", ""direction"": """&amp;E400&amp;"""},")</f>
@@ -17308,7 +17334,7 @@
         <v>971</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G401" s="0" t="str">
         <f aca="false">IF(E401="","","{""sourceId"": """&amp;A401&amp;""", ""targetId"": """&amp;B401&amp;""", ""shortDescription"": """&amp;C401&amp;""", ""fullDescriptionHtml"": """&amp;D401&amp;""", ""direction"": """&amp;E401&amp;"""},")</f>
@@ -17323,7 +17349,7 @@
         <v>974</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G402" s="0" t="str">
         <f aca="false">IF(E402="","","{""sourceId"": """&amp;A402&amp;""", ""targetId"": """&amp;B402&amp;""", ""shortDescription"": """&amp;C402&amp;""", ""fullDescriptionHtml"": """&amp;D402&amp;""", ""direction"": """&amp;E402&amp;"""},")</f>
@@ -17338,7 +17364,7 @@
         <v>974</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G403" s="0" t="str">
         <f aca="false">IF(E403="","","{""sourceId"": """&amp;A403&amp;""", ""targetId"": """&amp;B403&amp;""", ""shortDescription"": """&amp;C403&amp;""", ""fullDescriptionHtml"": """&amp;D403&amp;""", ""direction"": """&amp;E403&amp;"""},")</f>
@@ -17353,7 +17379,7 @@
         <v>977</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G404" s="0" t="str">
         <f aca="false">IF(E404="","","{""sourceId"": """&amp;A404&amp;""", ""targetId"": """&amp;B404&amp;""", ""shortDescription"": """&amp;C404&amp;""", ""fullDescriptionHtml"": """&amp;D404&amp;""", ""direction"": """&amp;E404&amp;"""},")</f>
@@ -17368,7 +17394,7 @@
         <v>977</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G405" s="0" t="str">
         <f aca="false">IF(E405="","","{""sourceId"": """&amp;A405&amp;""", ""targetId"": """&amp;B405&amp;""", ""shortDescription"": """&amp;C405&amp;""", ""fullDescriptionHtml"": """&amp;D405&amp;""", ""direction"": """&amp;E405&amp;"""},")</f>
@@ -17383,7 +17409,7 @@
         <v>977</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G406" s="0" t="str">
         <f aca="false">IF(E406="","","{""sourceId"": """&amp;A406&amp;""", ""targetId"": """&amp;B406&amp;""", ""shortDescription"": """&amp;C406&amp;""", ""fullDescriptionHtml"": """&amp;D406&amp;""", ""direction"": """&amp;E406&amp;"""},")</f>
@@ -17398,7 +17424,7 @@
         <v>980</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G407" s="0" t="str">
         <f aca="false">IF(E407="","","{""sourceId"": """&amp;A407&amp;""", ""targetId"": """&amp;B407&amp;""", ""shortDescription"": """&amp;C407&amp;""", ""fullDescriptionHtml"": """&amp;D407&amp;""", ""direction"": """&amp;E407&amp;"""},")</f>
@@ -17413,7 +17439,7 @@
         <v>980</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="G408" s="0" t="str">
         <f aca="false">IF(E408="","","{""sourceId"": """&amp;A408&amp;""", ""targetId"": """&amp;B408&amp;""", ""shortDescription"": """&amp;C408&amp;""", ""fullDescriptionHtml"": """&amp;D408&amp;""", ""direction"": """&amp;E408&amp;"""},")</f>
@@ -17428,7 +17454,7 @@
         <v>1062</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G409" s="0" t="str">
         <f aca="false">IF(E409="","","{""sourceId"": """&amp;A409&amp;""", ""targetId"": """&amp;B409&amp;""", ""shortDescription"": """&amp;C409&amp;""", ""fullDescriptionHtml"": """&amp;D409&amp;""", ""direction"": """&amp;E409&amp;"""},")</f>
@@ -17443,7 +17469,7 @@
         <v>1062</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="G410" s="0" t="str">
         <f aca="false">IF(E410="","","{""sourceId"": """&amp;A410&amp;""", ""targetId"": """&amp;B410&amp;""", ""shortDescription"": """&amp;C410&amp;""", ""fullDescriptionHtml"": """&amp;D410&amp;""", ""direction"": """&amp;E410&amp;"""},")</f>
@@ -17458,7 +17484,7 @@
         <v>983</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G411" s="0" t="str">
         <f aca="false">IF(E411="","","{""sourceId"": """&amp;A411&amp;""", ""targetId"": """&amp;B411&amp;""", ""shortDescription"": """&amp;C411&amp;""", ""fullDescriptionHtml"": """&amp;D411&amp;""", ""direction"": """&amp;E411&amp;"""},")</f>
@@ -17473,7 +17499,7 @@
         <v>983</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="G412" s="0" t="str">
         <f aca="false">IF(E412="","","{""sourceId"": """&amp;A412&amp;""", ""targetId"": """&amp;B412&amp;""", ""shortDescription"": """&amp;C412&amp;""", ""fullDescriptionHtml"": """&amp;D412&amp;""", ""direction"": """&amp;E412&amp;"""},")</f>
@@ -17488,7 +17514,7 @@
         <v>986</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G413" s="0" t="str">
         <f aca="false">IF(E413="","","{""sourceId"": """&amp;A413&amp;""", ""targetId"": """&amp;B413&amp;""", ""shortDescription"": """&amp;C413&amp;""", ""fullDescriptionHtml"": """&amp;D413&amp;""", ""direction"": """&amp;E413&amp;"""},")</f>
@@ -17503,7 +17529,7 @@
         <v>986</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="G414" s="0" t="str">
         <f aca="false">IF(E414="","","{""sourceId"": """&amp;A414&amp;""", ""targetId"": """&amp;B414&amp;""", ""shortDescription"": """&amp;C414&amp;""", ""fullDescriptionHtml"": """&amp;D414&amp;""", ""direction"": """&amp;E414&amp;"""},")</f>
@@ -17518,7 +17544,7 @@
         <v>989</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G415" s="0" t="str">
         <f aca="false">IF(E415="","","{""sourceId"": """&amp;A415&amp;""", ""targetId"": """&amp;B415&amp;""", ""shortDescription"": """&amp;C415&amp;""", ""fullDescriptionHtml"": """&amp;D415&amp;""", ""direction"": """&amp;E415&amp;"""},")</f>
@@ -17533,7 +17559,7 @@
         <v>989</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="G416" s="0" t="str">
         <f aca="false">IF(E416="","","{""sourceId"": """&amp;A416&amp;""", ""targetId"": """&amp;B416&amp;""", ""shortDescription"": """&amp;C416&amp;""", ""fullDescriptionHtml"": """&amp;D416&amp;""", ""direction"": """&amp;E416&amp;"""},")</f>
@@ -17548,7 +17574,7 @@
         <v>992</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G417" s="0" t="str">
         <f aca="false">IF(E417="","","{""sourceId"": """&amp;A417&amp;""", ""targetId"": """&amp;B417&amp;""", ""shortDescription"": """&amp;C417&amp;""", ""fullDescriptionHtml"": """&amp;D417&amp;""", ""direction"": """&amp;E417&amp;"""},")</f>
@@ -17563,7 +17589,7 @@
         <v>992</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="G418" s="0" t="str">
         <f aca="false">IF(E418="","","{""sourceId"": """&amp;A418&amp;""", ""targetId"": """&amp;B418&amp;""", ""shortDescription"": """&amp;C418&amp;""", ""fullDescriptionHtml"": """&amp;D418&amp;""", ""direction"": """&amp;E418&amp;"""},")</f>
@@ -17578,7 +17604,7 @@
         <v>995</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G419" s="0" t="str">
         <f aca="false">IF(E419="","","{""sourceId"": """&amp;A419&amp;""", ""targetId"": """&amp;B419&amp;""", ""shortDescription"": """&amp;C419&amp;""", ""fullDescriptionHtml"": """&amp;D419&amp;""", ""direction"": """&amp;E419&amp;"""},")</f>
@@ -17593,7 +17619,7 @@
         <v>995</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G420" s="0" t="str">
         <f aca="false">IF(E420="","","{""sourceId"": """&amp;A420&amp;""", ""targetId"": """&amp;B420&amp;""", ""shortDescription"": """&amp;C420&amp;""", ""fullDescriptionHtml"": """&amp;D420&amp;""", ""direction"": """&amp;E420&amp;"""},")</f>
@@ -17608,7 +17634,7 @@
         <v>998</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G421" s="0" t="str">
         <f aca="false">IF(E421="","","{""sourceId"": """&amp;A421&amp;""", ""targetId"": """&amp;B421&amp;""", ""shortDescription"": """&amp;C421&amp;""", ""fullDescriptionHtml"": """&amp;D421&amp;""", ""direction"": """&amp;E421&amp;"""},")</f>
@@ -17623,7 +17649,7 @@
         <v>998</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G422" s="0" t="str">
         <f aca="false">IF(E422="","","{""sourceId"": """&amp;A422&amp;""", ""targetId"": """&amp;B422&amp;""", ""shortDescription"": """&amp;C422&amp;""", ""fullDescriptionHtml"": """&amp;D422&amp;""", ""direction"": """&amp;E422&amp;"""},")</f>
@@ -17638,7 +17664,7 @@
         <v>998</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="G423" s="0" t="str">
         <f aca="false">IF(E423="","","{""sourceId"": """&amp;A423&amp;""", ""targetId"": """&amp;B423&amp;""", ""shortDescription"": """&amp;C423&amp;""", ""fullDescriptionHtml"": """&amp;D423&amp;""", ""direction"": """&amp;E423&amp;"""},")</f>
@@ -17653,7 +17679,7 @@
         <v>1002</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G424" s="0" t="str">
         <f aca="false">IF(E424="","","{""sourceId"": """&amp;A424&amp;""", ""targetId"": """&amp;B424&amp;""", ""shortDescription"": """&amp;C424&amp;""", ""fullDescriptionHtml"": """&amp;D424&amp;""", ""direction"": """&amp;E424&amp;"""},")</f>
@@ -17668,7 +17694,7 @@
         <v>1002</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G425" s="0" t="str">
         <f aca="false">IF(E425="","","{""sourceId"": """&amp;A425&amp;""", ""targetId"": """&amp;B425&amp;""", ""shortDescription"": """&amp;C425&amp;""", ""fullDescriptionHtml"": """&amp;D425&amp;""", ""direction"": """&amp;E425&amp;"""},")</f>
@@ -17683,7 +17709,7 @@
         <v>1002</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G426" s="0" t="str">
         <f aca="false">IF(E426="","","{""sourceId"": """&amp;A426&amp;""", ""targetId"": """&amp;B426&amp;""", ""shortDescription"": """&amp;C426&amp;""", ""fullDescriptionHtml"": """&amp;D426&amp;""", ""direction"": """&amp;E426&amp;"""},")</f>
@@ -17698,7 +17724,7 @@
         <v>1002</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G427" s="0" t="str">
         <f aca="false">IF(E427="","","{""sourceId"": """&amp;A427&amp;""", ""targetId"": """&amp;B427&amp;""", ""shortDescription"": """&amp;C427&amp;""", ""fullDescriptionHtml"": """&amp;D427&amp;""", ""direction"": """&amp;E427&amp;"""},")</f>
@@ -17713,7 +17739,7 @@
         <v>1002</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G428" s="0" t="str">
         <f aca="false">IF(E428="","","{""sourceId"": """&amp;A428&amp;""", ""targetId"": """&amp;B428&amp;""", ""shortDescription"": """&amp;C428&amp;""", ""fullDescriptionHtml"": """&amp;D428&amp;""", ""direction"": """&amp;E428&amp;"""},")</f>
@@ -17728,7 +17754,7 @@
         <v>1002</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G429" s="0" t="str">
         <f aca="false">IF(E429="","","{""sourceId"": """&amp;A429&amp;""", ""targetId"": """&amp;B429&amp;""", ""shortDescription"": """&amp;C429&amp;""", ""fullDescriptionHtml"": """&amp;D429&amp;""", ""direction"": """&amp;E429&amp;"""},")</f>
@@ -17743,7 +17769,7 @@
         <v>1002</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G430" s="0" t="str">
         <f aca="false">IF(E430="","","{""sourceId"": """&amp;A430&amp;""", ""targetId"": """&amp;B430&amp;""", ""shortDescription"": """&amp;C430&amp;""", ""fullDescriptionHtml"": """&amp;D430&amp;""", ""direction"": """&amp;E430&amp;"""},")</f>
@@ -17758,7 +17784,7 @@
         <v>1002</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G431" s="0" t="str">
         <f aca="false">IF(E431="","","{""sourceId"": """&amp;A431&amp;""", ""targetId"": """&amp;B431&amp;""", ""shortDescription"": """&amp;C431&amp;""", ""fullDescriptionHtml"": """&amp;D431&amp;""", ""direction"": """&amp;E431&amp;"""},")</f>
@@ -17773,7 +17799,7 @@
         <v>1002</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G432" s="0" t="str">
         <f aca="false">IF(E432="","","{""sourceId"": """&amp;A432&amp;""", ""targetId"": """&amp;B432&amp;""", ""shortDescription"": """&amp;C432&amp;""", ""fullDescriptionHtml"": """&amp;D432&amp;""", ""direction"": """&amp;E432&amp;"""},")</f>
@@ -17788,7 +17814,7 @@
         <v>1002</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G433" s="0" t="str">
         <f aca="false">IF(E433="","","{""sourceId"": """&amp;A433&amp;""", ""targetId"": """&amp;B433&amp;""", ""shortDescription"": """&amp;C433&amp;""", ""fullDescriptionHtml"": """&amp;D433&amp;""", ""direction"": """&amp;E433&amp;"""},")</f>
@@ -17803,7 +17829,7 @@
         <v>1002</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G434" s="0" t="str">
         <f aca="false">IF(E434="","","{""sourceId"": """&amp;A434&amp;""", ""targetId"": """&amp;B434&amp;""", ""shortDescription"": """&amp;C434&amp;""", ""fullDescriptionHtml"": """&amp;D434&amp;""", ""direction"": """&amp;E434&amp;"""},")</f>
@@ -17818,7 +17844,7 @@
         <v>1002</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G435" s="0" t="str">
         <f aca="false">IF(E435="","","{""sourceId"": """&amp;A435&amp;""", ""targetId"": """&amp;B435&amp;""", ""shortDescription"": """&amp;C435&amp;""", ""fullDescriptionHtml"": """&amp;D435&amp;""", ""direction"": """&amp;E435&amp;"""},")</f>
@@ -17833,7 +17859,7 @@
         <v>1002</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G436" s="0" t="str">
         <f aca="false">IF(E436="","","{""sourceId"": """&amp;A436&amp;""", ""targetId"": """&amp;B436&amp;""", ""shortDescription"": """&amp;C436&amp;""", ""fullDescriptionHtml"": """&amp;D436&amp;""", ""direction"": """&amp;E436&amp;"""},")</f>
@@ -17848,7 +17874,7 @@
         <v>1002</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G437" s="0" t="str">
         <f aca="false">IF(E437="","","{""sourceId"": """&amp;A437&amp;""", ""targetId"": """&amp;B437&amp;""", ""shortDescription"": """&amp;C437&amp;""", ""fullDescriptionHtml"": """&amp;D437&amp;""", ""direction"": """&amp;E437&amp;"""},")</f>
@@ -17863,7 +17889,7 @@
         <v>1002</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G438" s="0" t="str">
         <f aca="false">IF(E438="","","{""sourceId"": """&amp;A438&amp;""", ""targetId"": """&amp;B438&amp;""", ""shortDescription"": """&amp;C438&amp;""", ""fullDescriptionHtml"": """&amp;D438&amp;""", ""direction"": """&amp;E438&amp;"""},")</f>
@@ -17878,7 +17904,7 @@
         <v>1002</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G439" s="0" t="str">
         <f aca="false">IF(E439="","","{""sourceId"": """&amp;A439&amp;""", ""targetId"": """&amp;B439&amp;""", ""shortDescription"": """&amp;C439&amp;""", ""fullDescriptionHtml"": """&amp;D439&amp;""", ""direction"": """&amp;E439&amp;"""},")</f>
@@ -17893,7 +17919,7 @@
         <v>1002</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G440" s="0" t="str">
         <f aca="false">IF(E440="","","{""sourceId"": """&amp;A440&amp;""", ""targetId"": """&amp;B440&amp;""", ""shortDescription"": """&amp;C440&amp;""", ""fullDescriptionHtml"": """&amp;D440&amp;""", ""direction"": """&amp;E440&amp;"""},")</f>
@@ -17908,7 +17934,7 @@
         <v>1005</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G441" s="0" t="str">
         <f aca="false">IF(E441="","","{""sourceId"": """&amp;A441&amp;""", ""targetId"": """&amp;B441&amp;""", ""shortDescription"": """&amp;C441&amp;""", ""fullDescriptionHtml"": """&amp;D441&amp;""", ""direction"": """&amp;E441&amp;"""},")</f>
@@ -17923,7 +17949,7 @@
         <v>1005</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G442" s="0" t="str">
         <f aca="false">IF(E442="","","{""sourceId"": """&amp;A442&amp;""", ""targetId"": """&amp;B442&amp;""", ""shortDescription"": """&amp;C442&amp;""", ""fullDescriptionHtml"": """&amp;D442&amp;""", ""direction"": """&amp;E442&amp;"""},")</f>
@@ -17938,7 +17964,7 @@
         <v>1008</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G443" s="0" t="str">
         <f aca="false">IF(E443="","","{""sourceId"": """&amp;A443&amp;""", ""targetId"": """&amp;B443&amp;""", ""shortDescription"": """&amp;C443&amp;""", ""fullDescriptionHtml"": """&amp;D443&amp;""", ""direction"": """&amp;E443&amp;"""},")</f>
@@ -17953,7 +17979,7 @@
         <v>1008</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G444" s="0" t="str">
         <f aca="false">IF(E444="","","{""sourceId"": """&amp;A444&amp;""", ""targetId"": """&amp;B444&amp;""", ""shortDescription"": """&amp;C444&amp;""", ""fullDescriptionHtml"": """&amp;D444&amp;""", ""direction"": """&amp;E444&amp;"""},")</f>
@@ -17961,14 +17987,14 @@
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="11" t="s">
+      <c r="A445" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>1008</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G445" s="0" t="str">
         <f aca="false">IF(E445="","","{""sourceId"": """&amp;A445&amp;""", ""targetId"": """&amp;B445&amp;""", ""shortDescription"": """&amp;C445&amp;""", ""fullDescriptionHtml"": """&amp;D445&amp;""", ""direction"": """&amp;E445&amp;"""},")</f>
@@ -17983,7 +18009,7 @@
         <v>1011</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G446" s="0" t="str">
         <f aca="false">IF(E446="","","{""sourceId"": """&amp;A446&amp;""", ""targetId"": """&amp;B446&amp;""", ""shortDescription"": """&amp;C446&amp;""", ""fullDescriptionHtml"": """&amp;D446&amp;""", ""direction"": """&amp;E446&amp;"""},")</f>
@@ -17998,7 +18024,7 @@
         <v>1011</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="G447" s="0" t="str">
         <f aca="false">IF(E447="","","{""sourceId"": """&amp;A447&amp;""", ""targetId"": """&amp;B447&amp;""", ""shortDescription"": """&amp;C447&amp;""", ""fullDescriptionHtml"": """&amp;D447&amp;""", ""direction"": """&amp;E447&amp;"""},")</f>
@@ -18013,7 +18039,7 @@
         <v>1056</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G448" s="0" t="str">
         <f aca="false">IF(E448="","","{""sourceId"": """&amp;A448&amp;""", ""targetId"": """&amp;B448&amp;""", ""shortDescription"": """&amp;C448&amp;""", ""fullDescriptionHtml"": """&amp;D448&amp;""", ""direction"": """&amp;E448&amp;"""},")</f>
@@ -18028,7 +18054,7 @@
         <v>1056</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G449" s="0" t="str">
         <f aca="false">IF(E449="","","{""sourceId"": """&amp;A449&amp;""", ""targetId"": """&amp;B449&amp;""", ""shortDescription"": """&amp;C449&amp;""", ""fullDescriptionHtml"": """&amp;D449&amp;""", ""direction"": """&amp;E449&amp;"""},")</f>
@@ -18043,7 +18069,7 @@
         <v>1023</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G450" s="0" t="str">
         <f aca="false">IF(E450="","","{""sourceId"": """&amp;A450&amp;""", ""targetId"": """&amp;B450&amp;""", ""shortDescription"": """&amp;C450&amp;""", ""fullDescriptionHtml"": """&amp;D450&amp;""", ""direction"": """&amp;E450&amp;"""},")</f>
@@ -18058,7 +18084,7 @@
         <v>1023</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="G451" s="0" t="str">
         <f aca="false">IF(E451="","","{""sourceId"": """&amp;A451&amp;""", ""targetId"": """&amp;B451&amp;""", ""shortDescription"": """&amp;C451&amp;""", ""fullDescriptionHtml"": """&amp;D451&amp;""", ""direction"": """&amp;E451&amp;"""},")</f>
@@ -18073,7 +18099,7 @@
         <v>1014</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G452" s="0" t="str">
         <f aca="false">IF(E452="","","{""sourceId"": """&amp;A452&amp;""", ""targetId"": """&amp;B452&amp;""", ""shortDescription"": """&amp;C452&amp;""", ""fullDescriptionHtml"": """&amp;D452&amp;""", ""direction"": """&amp;E452&amp;"""},")</f>
@@ -18088,7 +18114,7 @@
         <v>1014</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="G453" s="0" t="str">
         <f aca="false">IF(E453="","","{""sourceId"": """&amp;A453&amp;""", ""targetId"": """&amp;B453&amp;""", ""shortDescription"": """&amp;C453&amp;""", ""fullDescriptionHtml"": """&amp;D453&amp;""", ""direction"": """&amp;E453&amp;"""},")</f>
@@ -18103,7 +18129,7 @@
         <v>1020</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G454" s="0" t="str">
         <f aca="false">IF(E454="","","{""sourceId"": """&amp;A454&amp;""", ""targetId"": """&amp;B454&amp;""", ""shortDescription"": """&amp;C454&amp;""", ""fullDescriptionHtml"": """&amp;D454&amp;""", ""direction"": """&amp;E454&amp;"""},")</f>
@@ -18118,7 +18144,7 @@
         <v>1020</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="G455" s="0" t="str">
         <f aca="false">IF(E455="","","{""sourceId"": """&amp;A455&amp;""", ""targetId"": """&amp;B455&amp;""", ""shortDescription"": """&amp;C455&amp;""", ""fullDescriptionHtml"": """&amp;D455&amp;""", ""direction"": """&amp;E455&amp;"""},")</f>
@@ -18133,7 +18159,7 @@
         <v>679</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="G456" s="0" t="str">
         <f aca="false">IF(E456="","","{""sourceId"": """&amp;A456&amp;""", ""targetId"": """&amp;B456&amp;""", ""shortDescription"": """&amp;C456&amp;""", ""fullDescriptionHtml"": """&amp;D456&amp;""", ""direction"": """&amp;E456&amp;"""},")</f>
@@ -18148,7 +18174,7 @@
         <v>1029</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G457" s="0" t="str">
         <f aca="false">IF(E457="","","{""sourceId"": """&amp;A457&amp;""", ""targetId"": """&amp;B457&amp;""", ""shortDescription"": """&amp;C457&amp;""", ""fullDescriptionHtml"": """&amp;D457&amp;""", ""direction"": """&amp;E457&amp;"""},")</f>
@@ -18163,7 +18189,7 @@
         <v>1029</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="G458" s="0" t="str">
         <f aca="false">IF(E458="","","{""sourceId"": """&amp;A458&amp;""", ""targetId"": """&amp;B458&amp;""", ""shortDescription"": """&amp;C458&amp;""", ""fullDescriptionHtml"": """&amp;D458&amp;""", ""direction"": """&amp;E458&amp;"""},")</f>
@@ -18178,7 +18204,7 @@
         <v>1032</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G459" s="0" t="str">
         <f aca="false">IF(E459="","","{""sourceId"": """&amp;A459&amp;""", ""targetId"": """&amp;B459&amp;""", ""shortDescription"": """&amp;C459&amp;""", ""fullDescriptionHtml"": """&amp;D459&amp;""", ""direction"": """&amp;E459&amp;"""},")</f>
@@ -18193,7 +18219,7 @@
         <v>1032</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G460" s="0" t="str">
         <f aca="false">IF(E460="","","{""sourceId"": """&amp;A460&amp;""", ""targetId"": """&amp;B460&amp;""", ""shortDescription"": """&amp;C460&amp;""", ""fullDescriptionHtml"": """&amp;D460&amp;""", ""direction"": """&amp;E460&amp;"""},")</f>
@@ -18208,7 +18234,7 @@
         <v>1032</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G461" s="0" t="str">
         <f aca="false">IF(E461="","","{""sourceId"": """&amp;A461&amp;""", ""targetId"": """&amp;B461&amp;""", ""shortDescription"": """&amp;C461&amp;""", ""fullDescriptionHtml"": """&amp;D461&amp;""", ""direction"": """&amp;E461&amp;"""},")</f>
@@ -18223,7 +18249,7 @@
         <v>1035</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G462" s="0" t="str">
         <f aca="false">IF(E462="","","{""sourceId"": """&amp;A462&amp;""", ""targetId"": """&amp;B462&amp;""", ""shortDescription"": """&amp;C462&amp;""", ""fullDescriptionHtml"": """&amp;D462&amp;""", ""direction"": """&amp;E462&amp;"""},")</f>
@@ -18238,7 +18264,7 @@
         <v>1035</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="G463" s="0" t="str">
         <f aca="false">IF(E463="","","{""sourceId"": """&amp;A463&amp;""", ""targetId"": """&amp;B463&amp;""", ""shortDescription"": """&amp;C463&amp;""", ""fullDescriptionHtml"": """&amp;D463&amp;""", ""direction"": """&amp;E463&amp;"""},")</f>
@@ -18246,14 +18272,14 @@
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="11" t="s">
+      <c r="A464" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>1038</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G464" s="0" t="str">
         <f aca="false">IF(E464="","","{""sourceId"": """&amp;A464&amp;""", ""targetId"": """&amp;B464&amp;""", ""shortDescription"": """&amp;C464&amp;""", ""fullDescriptionHtml"": """&amp;D464&amp;""", ""direction"": """&amp;E464&amp;"""},")</f>
@@ -18261,14 +18287,14 @@
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="11" t="s">
+      <c r="A465" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>1041</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G465" s="0" t="str">
         <f aca="false">IF(E465="","","{""sourceId"": """&amp;A465&amp;""", ""targetId"": """&amp;B465&amp;""", ""shortDescription"": """&amp;C465&amp;""", ""fullDescriptionHtml"": """&amp;D465&amp;""", ""direction"": """&amp;E465&amp;"""},")</f>
@@ -18283,7 +18309,7 @@
         <v>1038</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="G466" s="0" t="str">
         <f aca="false">IF(E466="","","{""sourceId"": """&amp;A466&amp;""", ""targetId"": """&amp;B466&amp;""", ""shortDescription"": """&amp;C466&amp;""", ""fullDescriptionHtml"": """&amp;D466&amp;""", ""direction"": """&amp;E466&amp;"""},")</f>
@@ -18298,7 +18324,7 @@
         <v>1041</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="G467" s="0" t="str">
         <f aca="false">IF(E467="","","{""sourceId"": """&amp;A467&amp;""", ""targetId"": """&amp;B467&amp;""", ""shortDescription"": """&amp;C467&amp;""", ""fullDescriptionHtml"": """&amp;D467&amp;""", ""direction"": """&amp;E467&amp;"""},")</f>
@@ -18313,7 +18339,7 @@
         <v>1044</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G468" s="0" t="str">
         <f aca="false">IF(E468="","","{""sourceId"": """&amp;A468&amp;""", ""targetId"": """&amp;B468&amp;""", ""shortDescription"": """&amp;C468&amp;""", ""fullDescriptionHtml"": """&amp;D468&amp;""", ""direction"": """&amp;E468&amp;"""},")</f>
@@ -18328,7 +18354,7 @@
         <v>1044</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="G469" s="0" t="str">
         <f aca="false">IF(E469="","","{""sourceId"": """&amp;A469&amp;""", ""targetId"": """&amp;B469&amp;""", ""shortDescription"": """&amp;C469&amp;""", ""fullDescriptionHtml"": """&amp;D469&amp;""", ""direction"": """&amp;E469&amp;"""},")</f>
@@ -18343,7 +18369,7 @@
         <v>1050</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G470" s="0" t="str">
         <f aca="false">IF(E470="","","{""sourceId"": """&amp;A470&amp;""", ""targetId"": """&amp;B470&amp;""", ""shortDescription"": """&amp;C470&amp;""", ""fullDescriptionHtml"": """&amp;D470&amp;""", ""direction"": """&amp;E470&amp;"""},")</f>
@@ -18358,7 +18384,7 @@
         <v>1050</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="G471" s="0" t="str">
         <f aca="false">IF(E471="","","{""sourceId"": """&amp;A471&amp;""", ""targetId"": """&amp;B471&amp;""", ""shortDescription"": """&amp;C471&amp;""", ""fullDescriptionHtml"": """&amp;D471&amp;""", ""direction"": """&amp;E471&amp;"""},")</f>
@@ -18373,7 +18399,7 @@
         <v>1053</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G472" s="0" t="str">
         <f aca="false">IF(E472="","","{""sourceId"": """&amp;A472&amp;""", ""targetId"": """&amp;B472&amp;""", ""shortDescription"": """&amp;C472&amp;""", ""fullDescriptionHtml"": """&amp;D472&amp;""", ""direction"": """&amp;E472&amp;"""},")</f>
@@ -18381,18 +18407,78 @@
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="11" t="s">
+      <c r="A473" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>1053</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="G473" s="0" t="str">
         <f aca="false">IF(E473="","","{""sourceId"": """&amp;A473&amp;""", ""targetId"": """&amp;B473&amp;""", ""shortDescription"": """&amp;C473&amp;""", ""fullDescriptionHtml"": """&amp;D473&amp;""", ""direction"": """&amp;E473&amp;"""},")</f>
         <v>{"sourceId": "PLAGG", "targetId": "KITTY_NOIRE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B474" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E474" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G474" s="0" t="str">
+        <f aca="false">IF(E474="","","{""sourceId"": """&amp;A474&amp;""", ""targetId"": """&amp;B474&amp;""", ""shortDescription"": """&amp;C474&amp;""", ""fullDescriptionHtml"": """&amp;D474&amp;""", ""direction"": """&amp;E474&amp;"""},")</f>
+        <v>{"sourceId": "IVAN_BRUEL", "targetId": "MIRACULIZED", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="B475" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E475" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G475" s="0" t="str">
+        <f aca="false">IF(E475="","","{""sourceId"": """&amp;A475&amp;""", ""targetId"": """&amp;B475&amp;""", ""shortDescription"": """&amp;C475&amp;""", ""fullDescriptionHtml"": """&amp;D475&amp;""", ""direction"": """&amp;E475&amp;"""},")</f>
+        <v>{"sourceId": "NORA_CESAIRE", "targetId": "MIRACULIZED", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="B476" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E476" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G476" s="0" t="str">
+        <f aca="false">IF(E476="","","{""sourceId"": """&amp;A476&amp;""", ""targetId"": """&amp;B476&amp;""", ""shortDescription"": """&amp;C476&amp;""", ""fullDescriptionHtml"": """&amp;D476&amp;""", ""direction"": """&amp;E476&amp;"""},")</f>
+        <v>{"sourceId": "DENIS_DAMOCLES", "targetId": "MIRACULIZED", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="0" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B477" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E477" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G477" s="0" t="str">
+        <f aca="false">IF(E477="","","{""sourceId"": """&amp;A477&amp;""", ""targetId"": """&amp;B477&amp;""", ""shortDescription"": """&amp;C477&amp;""", ""fullDescriptionHtml"": """&amp;D477&amp;""", ""direction"": """&amp;E477&amp;"""},")</f>
+        <v>{"sourceId": "GILBERT", "targetId": "MIRACULIZED", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
   </sheetData>
